--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fis02\AI研究中心\02临时文件\张皓\提资转换\转EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI研究中心项目\05.电力\提资转换\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="强电" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="278">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1253,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2948,10 +2948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4124,9 +4124,6 @@
       <c r="B50" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="D50" s="1" t="s">
         <v>222</v>
       </c>
@@ -4148,7 +4145,7 @@
         <v>220</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>222</v>
@@ -4171,7 +4168,7 @@
         <v>220</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>222</v>
@@ -4194,7 +4191,7 @@
         <v>220</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>222</v>
@@ -4217,7 +4214,7 @@
         <v>220</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>222</v>
@@ -4240,7 +4237,7 @@
         <v>220</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>222</v>
@@ -4263,7 +4260,7 @@
         <v>220</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>222</v>
@@ -4286,7 +4283,7 @@
         <v>220</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>222</v>
@@ -4309,7 +4306,7 @@
         <v>220</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>222</v>
@@ -4332,7 +4329,7 @@
         <v>220</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>222</v>
@@ -4355,7 +4352,7 @@
         <v>220</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>222</v>
@@ -4370,21 +4367,21 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>267</v>
+        <v>222</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -4393,7 +4390,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>234</v>
       </c>
@@ -4401,25 +4398,22 @@
         <v>235</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="F62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>234</v>
       </c>
@@ -4427,19 +4421,22 @@
         <v>235</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>271</v>
+        <v>239</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -4450,22 +4447,19 @@
         <v>235</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -4476,19 +4470,22 @@
         <v>235</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -4499,45 +4496,45 @@
         <v>235</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F67" s="1">
         <v>1</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H66" s="3" t="s">
+      <c r="G67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -4548,21 +4545,44 @@
         <v>251</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F69" s="1">
         <v>1</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H68" s="3" t="s">
+      <c r="G69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>276</v>
       </c>
     </row>

--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI研究中心项目\05.电力\提资转换\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI研究中心项目\01.通用需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="280">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -905,6 +905,14 @@
   <si>
     <t>内含图块</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0浓度探测器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C02浓度探测器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1251,9 +1259,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2409,7 +2419,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>108</v>
       </c>
@@ -2432,7 +2442,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>110</v>
       </c>
@@ -2455,7 +2465,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -2478,7 +2488,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>117</v>
       </c>
@@ -2501,7 +2511,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>117</v>
       </c>
@@ -2524,7 +2534,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>117</v>
       </c>
@@ -2547,7 +2557,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>117</v>
       </c>
@@ -2570,7 +2580,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>117</v>
       </c>
@@ -2593,7 +2603,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>123</v>
       </c>
@@ -2616,7 +2626,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>123</v>
       </c>
@@ -2639,7 +2649,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>123</v>
       </c>
@@ -2647,140 +2657,134 @@
         <v>124</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F59" s="1">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="1">
-        <v>0</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="F64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2791,13 +2795,13 @@
         <v>146</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F65" s="1">
         <v>1</v>
@@ -2806,7 +2810,7 @@
         <v>12</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2817,13 +2821,13 @@
         <v>146</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F66" s="1">
         <v>1</v>
@@ -2832,24 +2836,24 @@
         <v>12</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F67" s="1">
         <v>1</v>
@@ -2858,24 +2862,24 @@
         <v>12</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F68" s="1">
         <v>1</v>
@@ -2884,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2895,13 +2899,13 @@
         <v>160</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F69" s="1">
         <v>1</v>
@@ -2910,7 +2914,7 @@
         <v>12</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2921,13 +2925,13 @@
         <v>160</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F70" s="1">
         <v>1</v>
@@ -2936,13 +2940,65 @@
         <v>12</v>
       </c>
       <c r="H70" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2950,7 +3006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>

--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI研究中心项目\01.通用需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI研究中心项目\09.数据联通\提资转换\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="326">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -913,6 +913,189 @@
   <si>
     <t>C02浓度探测器</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后倾离心风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:后倾离心风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调箱标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:空调箱标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却塔标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:冷却塔标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅炉标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:锅炉标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅炉标</t>
+  </si>
+  <si>
+    <t>冷却塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖通其他设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风冷热泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷水机组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压差传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO浓度传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2浓度传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给排水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给排水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水流指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警阀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消火栓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大空间灭火装置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBB Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外形图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defpoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBB Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basepoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电/手动排烟阀(电磁、反馈、常闭) MEC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电/手动排烟阀(电磁、反馈，就地手动、常闭) BEC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电/手动排烟阀(电机、反馈，就地手动、常闭) BEEC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -971,7 +1154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,6 +1166,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,20 +1448,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="10.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="5" customWidth="1"/>
+    <col min="9" max="10" width="15.6640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1297,8 +1488,20 @@
       <c r="H1" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I1" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1321,8 +1524,20 @@
         <v>12</v>
       </c>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1345,8 +1560,20 @@
         <v>12</v>
       </c>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I3" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1596,20 @@
         <v>12</v>
       </c>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,8 +1632,20 @@
         <v>12</v>
       </c>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I5" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1417,8 +1668,20 @@
         <v>12</v>
       </c>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I6" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1441,8 +1704,20 @@
         <v>12</v>
       </c>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I7" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1465,8 +1740,20 @@
         <v>12</v>
       </c>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I8" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1489,8 +1776,20 @@
         <v>12</v>
       </c>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I9" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1513,8 +1812,20 @@
         <v>12</v>
       </c>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I10" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1537,8 +1848,20 @@
         <v>12</v>
       </c>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I11" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1561,8 +1884,20 @@
         <v>12</v>
       </c>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I12" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1585,8 +1920,20 @@
         <v>12</v>
       </c>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I13" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1609,8 +1956,20 @@
         <v>12</v>
       </c>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I14" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1633,8 +1992,20 @@
         <v>12</v>
       </c>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I15" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1657,8 +2028,20 @@
         <v>12</v>
       </c>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I16" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1681,8 +2064,20 @@
         <v>12</v>
       </c>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I17" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1705,8 +2100,20 @@
         <v>12</v>
       </c>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I18" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -1729,8 +2136,20 @@
         <v>12</v>
       </c>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I19" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1753,8 +2172,20 @@
         <v>12</v>
       </c>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I20" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1777,8 +2208,20 @@
         <v>12</v>
       </c>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I21" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1801,8 +2244,20 @@
         <v>12</v>
       </c>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I22" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1825,8 +2280,20 @@
         <v>12</v>
       </c>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I23" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -1849,8 +2316,20 @@
         <v>12</v>
       </c>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I24" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -1873,8 +2352,20 @@
         <v>12</v>
       </c>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I25" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -1897,8 +2388,20 @@
         <v>12</v>
       </c>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I26" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
@@ -1921,8 +2424,20 @@
         <v>12</v>
       </c>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I27" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -1945,8 +2460,20 @@
         <v>12</v>
       </c>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I28" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -1969,8 +2496,20 @@
         <v>12</v>
       </c>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I29" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -1993,8 +2532,20 @@
         <v>12</v>
       </c>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I30" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -2017,8 +2568,20 @@
         <v>12</v>
       </c>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I31" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
@@ -2041,8 +2604,20 @@
         <v>12</v>
       </c>
       <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I32" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -2065,8 +2640,20 @@
         <v>12</v>
       </c>
       <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I33" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
@@ -2089,8 +2676,20 @@
         <v>12</v>
       </c>
       <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I34" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -2113,8 +2712,20 @@
         <v>12</v>
       </c>
       <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I35" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -2137,8 +2748,20 @@
         <v>12</v>
       </c>
       <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I36" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
@@ -2161,8 +2784,20 @@
         <v>12</v>
       </c>
       <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I37" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>83</v>
       </c>
@@ -2185,13 +2820,25 @@
         <v>12</v>
       </c>
       <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>86</v>
+      <c r="I38" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
@@ -2209,13 +2856,25 @@
         <v>12</v>
       </c>
       <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I39" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
@@ -2233,13 +2892,25 @@
         <v>12</v>
       </c>
       <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I40" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -2257,36 +2928,61 @@
         <v>12</v>
       </c>
       <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I41" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>97</v>
+        <v>282</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
@@ -2303,13 +2999,25 @@
       <c r="G43" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>99</v>
+      <c r="I43" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -2326,13 +3034,25 @@
       <c r="G44" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I44" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>101</v>
+        <v>284</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -2349,13 +3069,25 @@
       <c r="G45" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I45" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -2372,13 +3104,25 @@
       <c r="G46" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I46" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -2395,13 +3139,25 @@
       <c r="G47" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I47" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -2418,13 +3174,25 @@
       <c r="G48" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I48" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -2441,108 +3209,168 @@
       <c r="G49" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I49" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>113</v>
@@ -2556,16 +3384,28 @@
       <c r="G54" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="I54" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>113</v>
@@ -2579,8 +3419,20 @@
       <c r="G55" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="I55" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>117</v>
       </c>
@@ -2588,7 +3440,7 @@
         <v>118</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>113</v>
@@ -2602,22 +3454,34 @@
       <c r="G56" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I56" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -2625,22 +3489,34 @@
       <c r="G57" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I57" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -2648,22 +3524,34 @@
       <c r="G58" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I58" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -2671,22 +3559,34 @@
       <c r="G59" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I59" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -2694,209 +3594,305 @@
       <c r="G60" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I60" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="F67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I67" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I68" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>147</v>
@@ -2914,15 +3910,25 @@
         <v>12</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>150</v>
@@ -2940,15 +3946,25 @@
         <v>12</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>153</v>
@@ -2966,15 +3982,25 @@
         <v>12</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>156</v>
@@ -2992,7 +4018,161 @@
         <v>12</v>
       </c>
       <c r="H72" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>264</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3004,22 +4184,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="15.6640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3044,8 +4225,20 @@
       <c r="H1" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I1" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
@@ -3067,8 +4260,20 @@
       <c r="G2" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -3090,8 +4295,20 @@
       <c r="G3" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I3" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
@@ -3113,8 +4330,20 @@
       <c r="G4" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
@@ -3136,8 +4365,20 @@
       <c r="G5" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I5" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
@@ -3159,8 +4400,20 @@
       <c r="G6" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I6" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
@@ -3182,8 +4435,20 @@
       <c r="G7" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I7" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
@@ -3205,8 +4470,20 @@
       <c r="G8" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I8" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>110</v>
       </c>
@@ -3228,8 +4505,20 @@
       <c r="G9" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I9" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>110</v>
       </c>
@@ -3251,8 +4540,20 @@
       <c r="G10" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I10" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>110</v>
       </c>
@@ -3274,8 +4575,20 @@
       <c r="G11" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I11" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>110</v>
       </c>
@@ -3297,8 +4610,20 @@
       <c r="G12" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I12" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -3320,8 +4645,20 @@
       <c r="G13" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I13" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
@@ -3343,8 +4680,20 @@
       <c r="G14" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I14" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>110</v>
       </c>
@@ -3352,7 +4701,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>180</v>
+        <v>323</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>178</v>
@@ -3366,8 +4715,20 @@
       <c r="G15" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I15" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>110</v>
       </c>
@@ -3375,7 +4736,7 @@
         <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>178</v>
@@ -3389,8 +4750,20 @@
       <c r="G16" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I16" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>110</v>
       </c>
@@ -3398,7 +4771,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>178</v>
@@ -3412,8 +4785,20 @@
       <c r="G17" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I17" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
@@ -3421,7 +4806,7 @@
         <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>178</v>
@@ -3435,8 +4820,20 @@
       <c r="G18" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I18" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>110</v>
       </c>
@@ -3444,7 +4841,7 @@
         <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>178</v>
@@ -3458,22 +4855,34 @@
       <c r="G19" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I19" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>185</v>
+      <c r="C20" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3481,8 +4890,20 @@
       <c r="G20" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I20" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>110</v>
       </c>
@@ -3490,13 +4911,13 @@
         <v>111</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3504,22 +4925,34 @@
       <c r="G21" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I21" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>187</v>
+      <c r="C22" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3527,8 +4960,20 @@
       <c r="G22" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I22" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
@@ -3536,13 +4981,13 @@
         <v>111</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3550,8 +4995,20 @@
       <c r="G23" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I23" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>110</v>
       </c>
@@ -3559,13 +5016,13 @@
         <v>111</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -3573,8 +5030,20 @@
       <c r="G24" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I24" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>110</v>
       </c>
@@ -3582,7 +5051,7 @@
         <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>166</v>
@@ -3596,8 +5065,20 @@
       <c r="G25" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I25" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -3605,13 +5086,13 @@
         <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -3619,8 +5100,20 @@
       <c r="G26" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I26" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -3628,13 +5121,13 @@
         <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -3642,8 +5135,20 @@
       <c r="G27" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I27" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -3651,13 +5156,13 @@
         <v>111</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -3665,8 +5170,20 @@
       <c r="G28" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I28" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>110</v>
       </c>
@@ -3674,7 +5191,7 @@
         <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>113</v>
@@ -3688,8 +5205,20 @@
       <c r="G29" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I29" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -3697,13 +5226,13 @@
         <v>111</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -3711,8 +5240,20 @@
       <c r="G30" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I30" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
@@ -3720,91 +5261,139 @@
         <v>111</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I34" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>117</v>
       </c>
@@ -3812,13 +5401,13 @@
         <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -3826,8 +5415,20 @@
       <c r="G35" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I35" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>117</v>
       </c>
@@ -3835,13 +5436,13 @@
         <v>118</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3849,8 +5450,20 @@
       <c r="G36" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I36" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>117</v>
       </c>
@@ -3858,7 +5471,7 @@
         <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>113</v>
@@ -3872,8 +5485,20 @@
       <c r="G37" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I37" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -3881,13 +5506,13 @@
         <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -3895,8 +5520,20 @@
       <c r="G38" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I38" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
@@ -3904,100 +5541,139 @@
         <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="I42" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>195</v>
       </c>
@@ -4005,7 +5681,7 @@
         <v>196</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>198</v>
@@ -4022,22 +5698,34 @@
       <c r="H43" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I43" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -4046,24 +5734,36 @@
         <v>115</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -4072,24 +5772,36 @@
         <v>115</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -4098,10 +5810,22 @@
         <v>115</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>203</v>
       </c>
@@ -4109,7 +5833,7 @@
         <v>204</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>206</v>
@@ -4124,131 +5848,212 @@
         <v>115</v>
       </c>
       <c r="H47" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+      <c r="I50" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I52" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="D53" s="1" t="s">
         <v>222</v>
       </c>
@@ -4261,8 +6066,18 @@
       <c r="G53" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I53" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>219</v>
       </c>
@@ -4270,7 +6085,7 @@
         <v>220</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>222</v>
@@ -4284,8 +6099,18 @@
       <c r="G54" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I54" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>219</v>
       </c>
@@ -4293,7 +6118,7 @@
         <v>220</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>222</v>
@@ -4307,8 +6132,18 @@
       <c r="G55" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I55" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>219</v>
       </c>
@@ -4316,7 +6151,7 @@
         <v>220</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>222</v>
@@ -4330,8 +6165,18 @@
       <c r="G56" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I56" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J56" s="4"/>
+      <c r="K56" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>219</v>
       </c>
@@ -4339,7 +6184,7 @@
         <v>220</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>222</v>
@@ -4353,8 +6198,18 @@
       <c r="G57" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I57" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>219</v>
       </c>
@@ -4362,7 +6217,7 @@
         <v>220</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>222</v>
@@ -4376,8 +6231,18 @@
       <c r="G58" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I58" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>219</v>
       </c>
@@ -4385,7 +6250,7 @@
         <v>220</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>222</v>
@@ -4399,8 +6264,18 @@
       <c r="G59" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I59" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>219</v>
       </c>
@@ -4408,7 +6283,7 @@
         <v>220</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>222</v>
@@ -4422,8 +6297,18 @@
       <c r="G60" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I60" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>219</v>
       </c>
@@ -4431,7 +6316,7 @@
         <v>220</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>222</v>
@@ -4445,22 +6330,32 @@
       <c r="G61" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I61" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>267</v>
+        <v>222</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4468,48 +6363,65 @@
       <c r="G62" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="I62" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I63" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>271</v>
+        <v>222</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4517,8 +6429,18 @@
       <c r="G64" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I64" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J64" s="4"/>
+      <c r="K64" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>234</v>
       </c>
@@ -4526,25 +6448,34 @@
         <v>235</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I65" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>234</v>
       </c>
@@ -4552,22 +6483,37 @@
         <v>235</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>273</v>
+        <v>239</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="F66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H66" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>234</v>
       </c>
@@ -4575,75 +6521,248 @@
         <v>235</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F70" s="1">
         <v>1</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H67" s="3" t="s">
+      <c r="G70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
+      <c r="I70" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F68" s="1">
-        <v>0</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F72" s="1">
         <v>1</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H69" s="3" t="s">
+      <c r="G72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>276</v>
       </c>
+      <c r="I72" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K73" s="2"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K74" s="2"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K75" s="2"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K76" s="2"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K77" s="2"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K78" s="2"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K79" s="2"/>
+      <c r="L79" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI研究中心项目\09.数据联通\提资转换\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\刘潘\提资转换\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1450,20 +1450,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="10.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="5" customWidth="1"/>
-    <col min="9" max="10" width="15.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" style="5" customWidth="1"/>
+    <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="10.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="5" customWidth="1"/>
+    <col min="9" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1501,7 +1499,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1537,7 +1535,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1573,7 +1571,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1609,7 +1607,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1645,7 +1643,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1681,7 +1679,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1717,7 +1715,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,7 +1751,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1789,7 +1787,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1825,7 +1823,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1861,7 +1859,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1897,7 +1895,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1933,7 +1931,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1969,7 +1967,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -2005,7 +2003,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -2041,7 +2039,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -2077,7 +2075,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -2113,7 +2111,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -2149,7 +2147,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -2185,7 +2183,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -2221,7 +2219,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2257,7 +2255,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -2293,7 +2291,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -2329,7 +2327,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -2365,7 +2363,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -2401,7 +2399,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
@@ -2437,7 +2435,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -2473,7 +2471,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -2509,7 +2507,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -2545,7 +2543,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -2581,7 +2579,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
@@ -2617,7 +2615,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
@@ -2689,7 +2687,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -2725,7 +2723,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -2761,7 +2759,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
@@ -2797,7 +2795,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>83</v>
       </c>
@@ -2833,7 +2831,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>280</v>
       </c>
@@ -2869,7 +2867,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
@@ -2905,7 +2903,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,7 +2939,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -2977,7 +2975,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>282</v>
       </c>
@@ -3012,7 +3010,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>286</v>
       </c>
@@ -3047,7 +3045,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>284</v>
       </c>
@@ -3082,7 +3080,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
@@ -3117,7 +3115,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
@@ -3152,7 +3150,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
@@ -3187,7 +3185,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
@@ -3222,7 +3220,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -3257,7 +3255,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
@@ -3292,7 +3290,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
@@ -3327,7 +3325,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>108</v>
       </c>
@@ -3362,7 +3360,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
@@ -3397,7 +3395,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
@@ -3432,7 +3430,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>117</v>
       </c>
@@ -3467,7 +3465,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -3502,7 +3500,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
@@ -3537,7 +3535,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
@@ -3572,7 +3570,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
@@ -3607,7 +3605,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>123</v>
       </c>
@@ -3642,7 +3640,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
@@ -3677,7 +3675,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>123</v>
       </c>
@@ -3712,7 +3710,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -3747,7 +3745,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -3782,7 +3780,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>134</v>
       </c>
@@ -3817,7 +3815,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>139</v>
       </c>
@@ -3852,7 +3850,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>143</v>
       </c>
@@ -3887,7 +3885,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>145</v>
       </c>
@@ -3923,7 +3921,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>145</v>
       </c>
@@ -3959,7 +3957,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -3995,7 +3993,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>145</v>
       </c>
@@ -4031,7 +4029,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>159</v>
       </c>
@@ -4067,7 +4065,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>159</v>
       </c>
@@ -4103,7 +4101,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>159</v>
       </c>
@@ -4139,7 +4137,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>159</v>
       </c>
@@ -4184,23 +4182,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.6640625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="15.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="10.625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4238,7 +4234,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
@@ -4273,7 +4269,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -4308,7 +4304,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
@@ -4343,7 +4339,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
@@ -4378,7 +4374,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
@@ -4413,7 +4409,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
@@ -4448,7 +4444,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
@@ -4483,7 +4479,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>110</v>
       </c>
@@ -4518,7 +4514,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>110</v>
       </c>
@@ -4553,7 +4549,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>110</v>
       </c>
@@ -4588,7 +4584,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>110</v>
       </c>
@@ -4623,7 +4619,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -4658,7 +4654,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
@@ -4693,7 +4689,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>110</v>
       </c>
@@ -4728,7 +4724,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>110</v>
       </c>
@@ -4763,7 +4759,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>110</v>
       </c>
@@ -4798,7 +4794,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
@@ -4833,7 +4829,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>110</v>
       </c>
@@ -4868,7 +4864,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>110</v>
       </c>
@@ -4903,7 +4899,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>110</v>
       </c>
@@ -4938,7 +4934,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>110</v>
       </c>
@@ -4973,7 +4969,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
@@ -5008,7 +5004,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>110</v>
       </c>
@@ -5043,7 +5039,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>110</v>
       </c>
@@ -5078,7 +5074,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -5113,7 +5109,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -5148,7 +5144,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -5183,7 +5179,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>110</v>
       </c>
@@ -5218,7 +5214,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -5253,7 +5249,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
@@ -5288,7 +5284,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
@@ -5323,7 +5319,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>110</v>
       </c>
@@ -5358,7 +5354,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
@@ -5393,7 +5389,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>117</v>
       </c>
@@ -5428,7 +5424,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>117</v>
       </c>
@@ -5463,7 +5459,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>117</v>
       </c>
@@ -5498,7 +5494,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -5533,7 +5529,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
@@ -5568,7 +5564,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
@@ -5603,7 +5599,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
@@ -5638,7 +5634,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
@@ -5673,7 +5669,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>195</v>
       </c>
@@ -5711,7 +5707,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>195</v>
       </c>
@@ -5749,7 +5745,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>195</v>
       </c>
@@ -5787,7 +5783,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>195</v>
       </c>
@@ -5825,7 +5821,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>203</v>
       </c>
@@ -5863,7 +5859,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>203</v>
       </c>
@@ -5901,7 +5897,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>203</v>
       </c>
@@ -5939,7 +5935,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>203</v>
       </c>
@@ -5977,7 +5973,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>211</v>
       </c>
@@ -6012,7 +6008,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>211</v>
       </c>
@@ -6047,7 +6043,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>219</v>
       </c>
@@ -6077,7 +6073,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>219</v>
       </c>
@@ -6110,7 +6106,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>219</v>
       </c>
@@ -6143,7 +6139,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>219</v>
       </c>
@@ -6176,7 +6172,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>219</v>
       </c>
@@ -6209,7 +6205,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>219</v>
       </c>
@@ -6242,7 +6238,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>219</v>
       </c>
@@ -6275,7 +6271,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>219</v>
       </c>
@@ -6308,7 +6304,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>219</v>
       </c>
@@ -6341,7 +6337,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>219</v>
       </c>
@@ -6374,7 +6370,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>219</v>
       </c>
@@ -6407,7 +6403,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>219</v>
       </c>
@@ -6440,7 +6436,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>234</v>
       </c>
@@ -6475,7 +6471,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>234</v>
       </c>
@@ -6513,7 +6509,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>234</v>
       </c>
@@ -6548,7 +6544,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>234</v>
       </c>
@@ -6586,7 +6582,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>234</v>
       </c>
@@ -6621,7 +6617,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>234</v>
       </c>
@@ -6659,7 +6655,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>250</v>
       </c>
@@ -6694,7 +6690,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>250</v>
       </c>
@@ -6731,34 +6727,6 @@
       <c r="L72" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K73" s="2"/>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K74" s="2"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K75" s="2"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K76" s="2"/>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K77" s="2"/>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K78" s="2"/>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K79" s="2"/>
-      <c r="L79" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI研究中心项目\09.数据联通\提资转换\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Autodesk\ApplicationPlugins\ThMEPPlugin.bundle\Contents\Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="强电" sheetId="1" r:id="rId1"/>
@@ -1450,20 +1450,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="10.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="5" customWidth="1"/>
-    <col min="9" max="10" width="15.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" style="5" customWidth="1"/>
+    <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="10.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="5" customWidth="1"/>
+    <col min="9" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1501,7 +1499,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1537,7 +1535,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1573,7 +1571,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1609,7 +1607,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1645,7 +1643,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1681,7 +1679,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1717,7 +1715,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,7 +1751,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1789,7 +1787,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1825,7 +1823,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1861,7 +1859,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1897,7 +1895,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1933,7 +1931,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1969,7 +1967,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -2005,7 +2003,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -2041,7 +2039,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -2077,7 +2075,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -2113,7 +2111,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -2149,7 +2147,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -2185,7 +2183,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -2221,7 +2219,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2257,7 +2255,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -2293,7 +2291,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -2329,7 +2327,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -2365,7 +2363,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -2401,7 +2399,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
@@ -2437,7 +2435,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -2473,7 +2471,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -2509,7 +2507,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -2545,7 +2543,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -2581,7 +2579,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
@@ -2617,7 +2615,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
@@ -2689,7 +2687,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -2725,7 +2723,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -2761,7 +2759,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
@@ -2797,7 +2795,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>83</v>
       </c>
@@ -2833,7 +2831,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>280</v>
       </c>
@@ -2869,7 +2867,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
@@ -2905,7 +2903,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,7 +2939,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -2977,7 +2975,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>282</v>
       </c>
@@ -3012,7 +3010,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>286</v>
       </c>
@@ -3047,7 +3045,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>284</v>
       </c>
@@ -3082,7 +3080,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
@@ -3117,7 +3115,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
@@ -3152,7 +3150,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
@@ -3187,7 +3185,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
@@ -3222,7 +3220,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -3257,7 +3255,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
@@ -3292,7 +3290,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
@@ -3327,7 +3325,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>108</v>
       </c>
@@ -3362,7 +3360,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
@@ -3397,7 +3395,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
@@ -3432,7 +3430,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>117</v>
       </c>
@@ -3467,7 +3465,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -3502,7 +3500,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
@@ -3537,7 +3535,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
@@ -3572,7 +3570,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
@@ -3607,7 +3605,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>123</v>
       </c>
@@ -3642,7 +3640,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
@@ -3677,7 +3675,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>123</v>
       </c>
@@ -3712,7 +3710,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -3747,7 +3745,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -3782,7 +3780,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>134</v>
       </c>
@@ -3817,7 +3815,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>139</v>
       </c>
@@ -3852,7 +3850,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>143</v>
       </c>
@@ -3887,7 +3885,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>145</v>
       </c>
@@ -3923,7 +3921,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>145</v>
       </c>
@@ -3959,7 +3957,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -3995,7 +3993,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>145</v>
       </c>
@@ -4031,7 +4029,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>159</v>
       </c>
@@ -4067,7 +4065,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>159</v>
       </c>
@@ -4103,7 +4101,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>159</v>
       </c>
@@ -4139,7 +4137,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>159</v>
       </c>
@@ -4184,23 +4182,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:XFD192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.6640625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="15.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="10.625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4238,7 +4236,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
@@ -4273,7 +4271,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -4308,7 +4306,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
@@ -4343,7 +4341,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
@@ -4378,7 +4376,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
@@ -4413,7 +4411,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
@@ -4448,7 +4446,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
@@ -4483,7 +4481,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>110</v>
       </c>
@@ -4518,7 +4516,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>110</v>
       </c>
@@ -4553,7 +4551,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>110</v>
       </c>
@@ -4588,7 +4586,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>110</v>
       </c>
@@ -4623,7 +4621,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -4658,7 +4656,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
@@ -4693,7 +4691,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>110</v>
       </c>
@@ -4728,7 +4726,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>110</v>
       </c>
@@ -4763,7 +4761,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>110</v>
       </c>
@@ -4798,7 +4796,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
@@ -4833,7 +4831,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>110</v>
       </c>
@@ -4868,7 +4866,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>110</v>
       </c>
@@ -4903,7 +4901,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>110</v>
       </c>
@@ -4938,7 +4936,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>110</v>
       </c>
@@ -4973,7 +4971,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
@@ -5008,7 +5006,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>110</v>
       </c>
@@ -5043,7 +5041,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>110</v>
       </c>
@@ -5078,7 +5076,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -5113,7 +5111,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -5148,7 +5146,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -5183,7 +5181,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>110</v>
       </c>
@@ -5218,7 +5216,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -5253,7 +5251,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
@@ -5288,7 +5286,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
@@ -5323,7 +5321,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>110</v>
       </c>
@@ -5358,7 +5356,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
@@ -5393,7 +5391,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>117</v>
       </c>
@@ -5428,7 +5426,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>117</v>
       </c>
@@ -5463,7 +5461,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>117</v>
       </c>
@@ -5498,7 +5496,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -5533,7 +5531,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
@@ -5568,7 +5566,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
@@ -5603,7 +5601,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
@@ -5638,7 +5636,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
@@ -5673,7 +5671,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>195</v>
       </c>
@@ -5711,7 +5709,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>195</v>
       </c>
@@ -5749,7 +5747,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>195</v>
       </c>
@@ -5787,7 +5785,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>195</v>
       </c>
@@ -5825,7 +5823,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>203</v>
       </c>
@@ -5863,7 +5861,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>203</v>
       </c>
@@ -5901,7 +5899,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>203</v>
       </c>
@@ -5939,7 +5937,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>203</v>
       </c>
@@ -5977,7 +5975,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>211</v>
       </c>
@@ -6012,7 +6010,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>211</v>
       </c>
@@ -6047,7 +6045,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>219</v>
       </c>
@@ -6077,7 +6075,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>219</v>
       </c>
@@ -6110,7 +6108,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>219</v>
       </c>
@@ -6143,7 +6141,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>219</v>
       </c>
@@ -6176,7 +6174,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>219</v>
       </c>
@@ -6209,7 +6207,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>219</v>
       </c>
@@ -6242,7 +6240,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>219</v>
       </c>
@@ -6275,7 +6273,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>219</v>
       </c>
@@ -6308,7 +6306,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>219</v>
       </c>
@@ -6341,7 +6339,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>219</v>
       </c>
@@ -6374,7 +6372,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>219</v>
       </c>
@@ -6407,7 +6405,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>219</v>
       </c>
@@ -6440,7 +6438,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>234</v>
       </c>
@@ -6475,7 +6473,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>234</v>
       </c>
@@ -6513,7 +6511,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>234</v>
       </c>
@@ -6548,7 +6546,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>234</v>
       </c>
@@ -6586,7 +6584,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>234</v>
       </c>
@@ -6621,7 +6619,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>234</v>
       </c>
@@ -6659,7 +6657,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>250</v>
       </c>
@@ -6694,7 +6692,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>250</v>
       </c>
@@ -6731,34 +6729,6 @@
       <c r="L72" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K73" s="2"/>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K74" s="2"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K75" s="2"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K76" s="2"/>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K77" s="2"/>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K78" s="2"/>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K79" s="2"/>
-      <c r="L79" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI研究中心项目\09.数据联通\提资转换\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fis\AI研究中心\02临时文件\张皓\提资转换\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="328">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1095,6 +1095,14 @@
   </si>
   <si>
     <t>电/手动排烟阀(电机、反馈，就地手动、常闭) BEEC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内消火栓平面带留洞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:室内消火栓平面带留洞</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4184,10 +4192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6047,12 +6055,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>220</v>
+    <row r="53" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>222</v>
@@ -6071,7 +6079,7 @@
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>313</v>
@@ -6084,9 +6092,6 @@
       <c r="B54" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="D54" s="1" t="s">
         <v>222</v>
       </c>
@@ -6118,7 +6123,7 @@
         <v>220</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>222</v>
@@ -6151,7 +6156,7 @@
         <v>220</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>222</v>
@@ -6184,7 +6189,7 @@
         <v>220</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>222</v>
@@ -6217,7 +6222,7 @@
         <v>220</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>222</v>
@@ -6250,7 +6255,7 @@
         <v>220</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>222</v>
@@ -6283,7 +6288,7 @@
         <v>220</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>222</v>
@@ -6316,7 +6321,7 @@
         <v>220</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>222</v>
@@ -6349,7 +6354,7 @@
         <v>220</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>222</v>
@@ -6382,7 +6387,7 @@
         <v>220</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>222</v>
@@ -6415,7 +6420,7 @@
         <v>220</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>222</v>
@@ -6440,21 +6445,21 @@
         <v>313</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>267</v>
+        <v>222</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -6463,19 +6468,17 @@
         <v>115</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J65" s="4">
-        <v>0</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="J65" s="4"/>
       <c r="K65" s="3" t="s">
         <v>308</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>234</v>
       </c>
@@ -6483,22 +6486,19 @@
         <v>235</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="F66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>317</v>
@@ -6513,7 +6513,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>234</v>
       </c>
@@ -6521,19 +6521,22 @@
         <v>235</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>271</v>
+        <v>239</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>317</v>
@@ -6556,22 +6559,19 @@
         <v>235</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>317</v>
@@ -6594,19 +6594,22 @@
         <v>235</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>317</v>
@@ -6621,7 +6624,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>234</v>
       </c>
@@ -6629,22 +6632,19 @@
         <v>235</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="F70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>317</v>
@@ -6659,27 +6659,30 @@
         <v>314</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>275</v>
+        <v>248</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>317</v>
@@ -6691,7 +6694,7 @@
         <v>308</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
@@ -6702,22 +6705,19 @@
         <v>251</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="F72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>317</v>
@@ -6732,9 +6732,43 @@
         <v>315</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K73" s="2"/>
-      <c r="L73" s="3"/>
+    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K74" s="2"/>
@@ -6759,6 +6793,10 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K79" s="2"/>
       <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K80" s="2"/>
+      <c r="L80" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fis\AI研究中心\02临时文件\张皓\提资转换\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI研发中心\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5089794B-4CC9-4C67-AD45-A83B376568F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="-30828" yWindow="12" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="强电" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="347">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1104,12 +1105,69 @@
   <si>
     <t>块:室内消火栓平面带留洞</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>70度防火阀（反馈） FDS</t>
+  </si>
+  <si>
+    <t>70度防火调节阀（反馈） FVDS</t>
+  </si>
+  <si>
+    <t>70度电/手动防火阀（电磁，反馈） MED</t>
+  </si>
+  <si>
+    <t>70度电/手动防火阀（电机，反馈） MEE</t>
+  </si>
+  <si>
+    <t>70度电/手动防火阀（电机，反馈，就地手动） BEE</t>
+  </si>
+  <si>
+    <t>280度防火阀（反馈） FDH</t>
+  </si>
+  <si>
+    <t>280度防火调节阀（反馈） FVDH</t>
+  </si>
+  <si>
+    <t>280度电/手动防火阀（电磁，反馈，常闭） MECH</t>
+  </si>
+  <si>
+    <t>280度电/手动防火阀（电磁，反馈） MEH</t>
+  </si>
+  <si>
+    <t>280度电/手动防火阀（电机，反馈） MEEH</t>
+  </si>
+  <si>
+    <t>280度电/手动防火阀（电磁，反馈，就地手动，常闭） BECH</t>
+  </si>
+  <si>
+    <t>280度电/手动防火阀（电机，反馈，就地手动） BEEH</t>
+  </si>
+  <si>
+    <t>电/手动排烟阀（电磁，反馈，常闭） MEC</t>
+  </si>
+  <si>
+    <t>电/手动排烟阀（电磁、反馈、常闭） MEC</t>
+  </si>
+  <si>
+    <t>电/手动排烟阀（电机，反馈，常闭） MEEC</t>
+  </si>
+  <si>
+    <t>电/手动排烟阀（电磁，反馈，就地手动，常闭） BEC</t>
+  </si>
+  <si>
+    <t>电/手动排烟阀（电磁、反馈，就地手动、常闭） BEC</t>
+  </si>
+  <si>
+    <t>电/手动排烟阀（电机，反馈，就地手动，常闭） BEEC</t>
+  </si>
+  <si>
+    <t>电/手动排烟阀（电机、反馈，就地手动、常闭） BEEC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1121,6 +1179,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1455,7 +1514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
@@ -4191,11 +4250,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4989,13 +5048,13 @@
         <v>111</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>185</v>
+        <v>328</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -5013,7 +5072,7 @@
         <v>290</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
@@ -5024,13 +5083,13 @@
         <v>111</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>186</v>
+        <v>329</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -5048,7 +5107,7 @@
         <v>290</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
@@ -5059,7 +5118,7 @@
         <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>166</v>
@@ -5083,7 +5142,7 @@
         <v>290</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
@@ -5094,13 +5153,13 @@
         <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>188</v>
+        <v>331</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -5118,10 +5177,10 @@
         <v>290</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -5129,13 +5188,13 @@
         <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -5153,7 +5212,7 @@
         <v>290</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
@@ -5164,13 +5223,13 @@
         <v>111</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>192</v>
+        <v>333</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -5188,7 +5247,7 @@
         <v>290</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
@@ -5199,7 +5258,7 @@
         <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>334</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>113</v>
@@ -5223,10 +5282,10 @@
         <v>290</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -5234,13 +5293,13 @@
         <v>111</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>120</v>
+        <v>335</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -5258,7 +5317,7 @@
         <v>290</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
@@ -5269,13 +5328,13 @@
         <v>111</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -5293,7 +5352,7 @@
         <v>290</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
@@ -5304,13 +5363,13 @@
         <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>122</v>
+        <v>337</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -5328,10 +5387,10 @@
         <v>290</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>110</v>
       </c>
@@ -5339,13 +5398,13 @@
         <v>111</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>193</v>
+        <v>338</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -5363,10 +5422,10 @@
         <v>290</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
@@ -5374,13 +5433,13 @@
         <v>111</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>194</v>
+        <v>339</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -5398,24 +5457,24 @@
         <v>290</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>191</v>
+        <v>340</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -5433,24 +5492,24 @@
         <v>290</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>192</v>
+        <v>341</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -5468,24 +5527,24 @@
         <v>290</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>119</v>
+        <v>342</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -5503,24 +5562,24 @@
         <v>290</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -5538,24 +5597,24 @@
         <v>290</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -5573,24 +5632,24 @@
         <v>290</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>122</v>
+        <v>343</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -5608,18 +5667,18 @@
         <v>290</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>193</v>
+        <v>111</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>178</v>
@@ -5643,18 +5702,18 @@
         <v>290</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>194</v>
+        <v>345</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>178</v>
@@ -5678,328 +5737,304 @@
         <v>290</v>
       </c>
       <c r="L42" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="72" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="72" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>317</v>
       </c>
       <c r="J45" s="4">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>308</v>
+      <c r="K45" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>317</v>
       </c>
       <c r="J46" s="4">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>308</v>
+      <c r="K46" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="F47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>317</v>
       </c>
       <c r="J47" s="4">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>308</v>
+      <c r="K47" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>317</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>308</v>
+      <c r="K48" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="F49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>317</v>
       </c>
       <c r="J49" s="4">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>308</v>
+      <c r="K49" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="F50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="I50" s="3" t="s">
         <v>317</v>
       </c>
       <c r="J50" s="4">
         <v>0</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>308</v>
+      <c r="K50" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -6013,28 +6048,28 @@
       <c r="J51" s="4">
         <v>0</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>308</v>
+      <c r="K51" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -6048,25 +6083,28 @@
       <c r="J52" s="4">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>308</v>
+      <c r="K52" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>327</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -6075,28 +6113,33 @@
         <v>115</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J53" s="4"/>
-      <c r="K53" s="3" t="s">
-        <v>303</v>
+        <v>317</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>220</v>
+        <v>111</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -6105,31 +6148,33 @@
         <v>115</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="3" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -6138,31 +6183,33 @@
         <v>115</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="3" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -6171,31 +6218,33 @@
         <v>115</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J56" s="4"/>
-      <c r="K56" s="3" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -6204,31 +6253,33 @@
         <v>115</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J57" s="4"/>
-      <c r="K57" s="3" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -6237,31 +6288,33 @@
         <v>115</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="3" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>227</v>
+        <v>121</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -6270,31 +6323,33 @@
         <v>115</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J59" s="4"/>
-      <c r="K59" s="3" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -6303,31 +6358,33 @@
         <v>115</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J60" s="4"/>
-      <c r="K60" s="3" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -6336,31 +6393,33 @@
         <v>115</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J61" s="4"/>
-      <c r="K61" s="3" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -6369,31 +6428,33 @@
         <v>115</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J62" s="4"/>
-      <c r="K62" s="3" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -6402,31 +6463,33 @@
         <v>115</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J63" s="4"/>
-      <c r="K63" s="3" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -6435,31 +6498,33 @@
         <v>115</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J64" s="4"/>
-      <c r="K64" s="3" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -6468,31 +6533,33 @@
         <v>115</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J65" s="4"/>
-      <c r="K65" s="3" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>236</v>
+        <v>120</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>267</v>
+        <v>113</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -6506,66 +6573,63 @@
       <c r="J66" s="4">
         <v>0</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>308</v>
+      <c r="K66" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="F67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="I67" s="3" t="s">
         <v>317</v>
       </c>
       <c r="J67" s="4">
         <v>0</v>
       </c>
-      <c r="K67" s="3" t="s">
-        <v>308</v>
+      <c r="K67" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>271</v>
+        <v>113</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -6579,66 +6643,63 @@
       <c r="J68" s="4">
         <v>0</v>
       </c>
-      <c r="K68" s="3" t="s">
-        <v>308</v>
+      <c r="K68" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>270</v>
+        <v>178</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="F69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="I69" s="3" t="s">
         <v>317</v>
       </c>
       <c r="J69" s="4">
         <v>0</v>
       </c>
-      <c r="K69" s="3" t="s">
-        <v>308</v>
+      <c r="K69" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>273</v>
+        <v>178</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -6652,28 +6713,28 @@
       <c r="J70" s="4">
         <v>0</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>308</v>
+      <c r="K70" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="F71" s="1">
         <v>1</v>
@@ -6682,7 +6743,7 @@
         <v>115</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>317</v>
@@ -6694,30 +6755,33 @@
         <v>308</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>275</v>
+        <v>198</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="F72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>317</v>
@@ -6729,24 +6793,24 @@
         <v>308</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="F73" s="1">
         <v>1</v>
@@ -6755,7 +6819,7 @@
         <v>115</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>317</v>
@@ -6767,36 +6831,1011 @@
         <v>308</v>
       </c>
       <c r="L73" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J75" s="4">
+        <v>0</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J76" s="4">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J79" s="4">
+        <v>0</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J80" s="4">
+        <v>0</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J81" s="4"/>
+      <c r="K81" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J82" s="4"/>
+      <c r="K82" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J83" s="4"/>
+      <c r="K83" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J84" s="4"/>
+      <c r="K84" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J85" s="4"/>
+      <c r="K85" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J86" s="4"/>
+      <c r="K86" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J88" s="4"/>
+      <c r="K88" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J89" s="4"/>
+      <c r="K89" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J90" s="4"/>
+      <c r="K90" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J92" s="4"/>
+      <c r="K92" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J96" s="4">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J97" s="4">
+        <v>0</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J98" s="4">
+        <v>0</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J99" s="4">
+        <v>0</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J100" s="4">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L100" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K74" s="2"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K75" s="2"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K76" s="2"/>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K77" s="2"/>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K78" s="2"/>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K79" s="2"/>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K80" s="2"/>
-      <c r="L80" s="3"/>
+    <row r="101" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J101" s="4">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K102" s="2"/>
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K103" s="2"/>
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K104" s="2"/>
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K105" s="2"/>
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K106" s="2"/>
+      <c r="L106" s="3"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K107" s="2"/>
+      <c r="L107" s="3"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K108" s="2"/>
+      <c r="L108" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI研发中心\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5089794B-4CC9-4C67-AD45-A83B376568F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC15AB20-D163-444C-8CD6-6661F671D225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="12" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-228" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="强电" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="403">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -255,9 +255,6 @@
 </t>
   </si>
   <si>
-    <t>块:离心风机(电机内置、直进下出、有基础)</t>
-  </si>
-  <si>
     <t xml:space="preserve">离心风机(电机内置、直进下出、无基础)
 </t>
   </si>
@@ -386,9 +383,6 @@
     <t>冷却塔(参考金日KSD）</t>
   </si>
   <si>
-    <t>块:冷却塔(参考金日KSD）</t>
-  </si>
-  <si>
     <t>防火阀</t>
   </si>
   <si>
@@ -1162,6 +1156,223 @@
   </si>
   <si>
     <t>电/手动排烟阀（电机、反馈，就地手动、常闭） BEEC</t>
+  </si>
+  <si>
+    <t>AI-FCU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI-FCU(两管制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI-FCU(四管制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI-VRF室内机(四面出风型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI-壁式排风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI-壁式轴流风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI-吊顶式空调箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI-吊顶式排风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:冷却塔(参考金日KSD）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:AI-FCU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:AI-FCU(两管制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:AI-FCU(四管制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:AI-VRF室内机(四面出风型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:AI-壁式排风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:AI-壁式轴流风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:AI-吊顶式空调箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:AI-吊顶式排风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风机盘管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VRF室内机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁式小风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶式排风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:离心风机(电机内置、直进下出、有基础)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-BFCU010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-BFCU012</t>
+  </si>
+  <si>
+    <t>E-BFCU011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:E-BFCU010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:E-BFCU011</t>
+  </si>
+  <si>
+    <t>块:E-BFCU012</t>
+  </si>
+  <si>
+    <t>E-BVRF010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:E-BVRF010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-BFAN010</t>
+  </si>
+  <si>
+    <t>E-BFAN011</t>
+  </si>
+  <si>
+    <t>E-BFAN012</t>
+  </si>
+  <si>
+    <t>E-BFAN012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-BVRF011</t>
+  </si>
+  <si>
+    <t>AI-中静压VRF室内机(风管机)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:AI-中静压VRF室内机(风管机)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:E-BVRF011</t>
+  </si>
+  <si>
+    <t>块:E-BVRF012</t>
+  </si>
+  <si>
+    <t>E-BVRF012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VRV室内机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FXSP22-36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FXSP45-56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:FXSP22-36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:FXSP45-56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FXSP71-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:FXSP71-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FXSP90-150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:FXSP90-150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-BVRV010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块:E-BVRV010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-BVRV011</t>
+  </si>
+  <si>
+    <t>块:E-BVRV011</t>
+  </si>
+  <si>
+    <t>E-BVRV012</t>
+  </si>
+  <si>
+    <t>块:E-BVRV012</t>
+  </si>
+  <si>
+    <t>E-BVRV013</t>
+  </si>
+  <si>
+    <t>块:E-BVRV013</t>
   </si>
 </sst>
 </file>
@@ -1515,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68:N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1553,19 +1764,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
@@ -1592,16 +1803,16 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -1628,16 +1839,16 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -1664,16 +1875,16 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -1700,16 +1911,16 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -1736,16 +1947,16 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -1772,16 +1983,16 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -1808,16 +2019,16 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -1844,16 +2055,16 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -1880,16 +2091,16 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -1916,16 +2127,16 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -1952,16 +2163,16 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -1988,16 +2199,16 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2024,16 +2235,16 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2060,16 +2271,16 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2096,16 +2307,16 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2132,16 +2343,16 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2168,16 +2379,16 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2204,16 +2415,16 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2240,16 +2451,16 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2276,16 +2487,16 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2312,16 +2523,16 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2348,16 +2559,16 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2384,16 +2595,16 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2420,16 +2631,16 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2456,16 +2667,16 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2492,16 +2703,16 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2528,16 +2739,16 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2564,16 +2775,16 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="72" x14ac:dyDescent="0.25">
@@ -2581,7 +2792,7 @@
         <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>367</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -2600,24 +2811,24 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -2636,24 +2847,24 @@
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -2672,24 +2883,24 @@
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -2708,24 +2919,24 @@
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -2744,24 +2955,24 @@
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -2780,24 +2991,24 @@
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -2816,24 +3027,24 @@
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -2852,24 +3063,24 @@
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -2888,24 +3099,24 @@
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
@@ -2924,24 +3135,24 @@
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
@@ -2960,24 +3171,24 @@
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -2996,24 +3207,24 @@
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -3032,1214 +3243,1604 @@
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="K42" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I43" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I44" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I45" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I46" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I47" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I48" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I49" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I50" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I51" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I52" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J55" s="3">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J56" s="3">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="72" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="72" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="72" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J63" s="3">
-        <v>0</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J64" s="3">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F65" s="1">
-        <v>0</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J65" s="3">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F66" s="1">
-        <v>0</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J67" s="3">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J68" s="3">
         <v>0</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="F69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J69" s="3"/>
+        <v>315</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
       <c r="K69" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="F70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J70" s="3"/>
+        <v>315</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
       <c r="K70" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J71" s="3"/>
+        <v>315</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
       <c r="K71" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="F72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J72" s="3"/>
+        <v>315</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
       <c r="K72" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="F73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J73" s="3"/>
+        <v>315</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
       <c r="K73" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="F74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J74" s="3"/>
+        <v>315</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
       <c r="K74" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J75" s="3"/>
+        <v>315</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
       <c r="K75" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F76" s="1">
+      <c r="C86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F86" s="1">
         <v>1</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J76" s="3"/>
-      <c r="K76" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>306</v>
+      <c r="H86" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4253,8 +4854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4290,3523 +4891,3523 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J2" s="4">
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J12" s="4">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J14" s="4">
         <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J15" s="4">
         <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J16" s="4">
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J17" s="4">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J18" s="4">
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J19" s="4">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J20" s="4">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J21" s="4">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J22" s="4">
         <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J23" s="4">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J24" s="4">
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J25" s="4">
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J26" s="4">
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J27" s="4">
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J28" s="4">
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J29" s="4">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J30" s="4">
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J31" s="4">
         <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J32" s="4">
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J33" s="4">
         <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J34" s="4">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J35" s="4">
         <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J36" s="4">
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J37" s="4">
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J38" s="4">
         <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J39" s="4">
         <v>0</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J40" s="4">
         <v>0</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J41" s="4">
         <v>0</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J42" s="4">
         <v>0</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J43" s="4">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J44" s="4">
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J45" s="4">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J46" s="4">
         <v>0</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J47" s="4">
         <v>0</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J49" s="4">
         <v>0</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J50" s="4">
         <v>0</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J51" s="4">
         <v>0</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J52" s="4">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J53" s="4">
         <v>0</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J54" s="4">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J55" s="4">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J56" s="4">
         <v>0</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J57" s="4">
         <v>0</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J58" s="4">
         <v>0</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J59" s="4">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J60" s="4">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J61" s="4">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J62" s="4">
         <v>0</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J63" s="4">
         <v>0</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J64" s="4">
         <v>0</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J65" s="4">
         <v>0</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J66" s="4">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J67" s="4">
         <v>0</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J68" s="4">
         <v>0</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J69" s="4">
         <v>0</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J70" s="4">
         <v>0</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="F71" s="1">
         <v>1</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J71" s="4">
         <v>0</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J72" s="4">
         <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F73" s="1">
         <v>1</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J73" s="4">
         <v>0</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F74" s="1">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J74" s="4">
         <v>0</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="F75" s="1">
         <v>1</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J75" s="4">
         <v>0</v>
       </c>
       <c r="K75" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L75" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F76" s="1">
         <v>1</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J76" s="4">
         <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L76" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F77" s="1">
         <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J77" s="4">
         <v>0</v>
       </c>
       <c r="K77" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L77" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F78" s="1">
         <v>1</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J78" s="4">
         <v>0</v>
       </c>
       <c r="K78" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L78" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="F79" s="1">
         <v>0</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J79" s="4">
         <v>0</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="F80" s="1">
         <v>0</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J80" s="4">
         <v>0</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J82" s="4"/>
       <c r="K82" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="F83" s="1">
         <v>0</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J83" s="4"/>
       <c r="K83" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E84" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J84" s="4"/>
       <c r="K84" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J85" s="4"/>
       <c r="K85" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E88" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E89" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E90" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E91" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E93" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="E94" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J94" s="4">
         <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="F95" s="1">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J95" s="4">
         <v>0</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J96" s="4">
         <v>0</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F97" s="1">
         <v>1</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J97" s="4">
         <v>0</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J98" s="4">
         <v>0</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="F99" s="1">
         <v>1</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J99" s="4">
         <v>0</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D100" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J100" s="4">
         <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="F101" s="1">
         <v>1</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J101" s="4">
         <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">

--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Git\ThMEPEngine\AutoLoader\Contents\Support\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fis\AI研究中心\02临时文件\张皓\模板文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="304">
   <si>
     <t>源块名</t>
   </si>
@@ -999,6 +999,42 @@
   <si>
     <t>TextCenter</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HL3-2A混流风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动射流灭火装置平面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷洒型自动射流灭火装置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷射型自动射流灭火装置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷射型自动射流灭火装置接管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷洒型自动射流灭火装置接管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动消防炮平面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动消防炮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动消防炮接管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1352,9 +1388,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2704,7 +2742,7 @@
     </row>
     <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>295</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>245</v>
@@ -2738,7 +2776,7 @@
     </row>
     <row r="41" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>245</v>
@@ -2772,13 +2810,13 @@
     </row>
     <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>165</v>
+        <v>245</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>6</v>
@@ -2806,27 +2844,28 @@
     </row>
     <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="1">
         <v>0</v>
       </c>
+      <c r="J43" s="2"/>
       <c r="K43" s="2">
         <v>0</v>
       </c>
@@ -2834,12 +2873,12 @@
         <v>139</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>136</v>
+      <c r="A44" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>207</v>
@@ -2854,7 +2893,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="1">
@@ -2867,12 +2906,12 @@
         <v>139</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>135</v>
+      <c r="A45" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>207</v>
@@ -2900,15 +2939,15 @@
         <v>139</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -2933,15 +2972,15 @@
         <v>139</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -2966,15 +3005,15 @@
         <v>139</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -2999,12 +3038,12 @@
         <v>139</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>245</v>
@@ -3032,12 +3071,12 @@
         <v>139</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>245</v>
@@ -3070,7 +3109,7 @@
     </row>
     <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>245</v>
@@ -3098,12 +3137,12 @@
         <v>139</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>245</v>
@@ -3136,7 +3175,7 @@
     </row>
     <row r="53" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>245</v>
@@ -3168,18 +3207,20 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>167</v>
+      <c r="A54" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3" t="s">
-        <v>180</v>
+        <v>245</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>207</v>
@@ -3195,19 +3236,19 @@
         <v>139</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>7</v>
@@ -3231,14 +3272,14 @@
     </row>
     <row r="56" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
@@ -3262,14 +3303,14 @@
     </row>
     <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
@@ -3288,19 +3329,19 @@
         <v>139</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>7</v>
@@ -3324,14 +3365,14 @@
     </row>
     <row r="59" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>7</v>
@@ -3355,14 +3396,14 @@
     </row>
     <row r="60" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
@@ -3381,19 +3422,19 @@
         <v>139</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
@@ -3412,19 +3453,19 @@
         <v>139</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
@@ -3443,19 +3484,19 @@
         <v>139</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
@@ -3474,19 +3515,19 @@
         <v>139</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
@@ -3510,14 +3551,14 @@
     </row>
     <row r="65" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
@@ -3541,14 +3582,14 @@
     </row>
     <row r="66" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
@@ -3570,24 +3611,19 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>246</v>
+    <row r="67" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>22</v>
+        <v>207</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>207</v>
@@ -3603,7 +3639,7 @@
         <v>139</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
@@ -3611,10 +3647,10 @@
         <v>21</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
@@ -3642,12 +3678,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>285</v>
@@ -3678,12 +3714,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>285</v>
@@ -3714,12 +3750,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="72" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>285</v>
@@ -3750,12 +3786,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>285</v>
@@ -3787,8 +3823,8 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="72" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>213</v>
+      <c r="A73" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>28</v>
@@ -3822,21 +3858,21 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>29</v>
+    <row r="74" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>23</v>
@@ -3855,7 +3891,7 @@
         <v>139</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
@@ -3863,7 +3899,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>245</v>
@@ -3872,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>23</v>
@@ -3891,7 +3927,7 @@
         <v>139</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
@@ -3899,7 +3935,7 @@
         <v>29</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>245</v>
@@ -3935,7 +3971,7 @@
         <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>245</v>
@@ -3944,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>23</v>
@@ -3963,15 +3999,15 @@
         <v>139</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>132</v>
+      <c r="B78" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>245</v>
@@ -4004,10 +4040,10 @@
     </row>
     <row r="79" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>245</v>
@@ -4016,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>23</v>
@@ -4035,12 +4071,15 @@
         <v>139</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>245</v>
@@ -4049,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>207</v>
@@ -4062,18 +4101,18 @@
         <v>0</v>
       </c>
       <c r="K80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>245</v>
@@ -4101,22 +4140,21 @@
         <v>152</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D82" s="3"/>
+        <v>245</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>7</v>
@@ -4126,19 +4164,16 @@
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2">
         <v>1</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K82" s="2">
-        <v>0</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>152</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
@@ -4146,14 +4181,14 @@
         <v>42</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>7</v>
@@ -4166,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K83" s="2">
         <v>0</v>
@@ -4183,14 +4218,14 @@
         <v>42</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>7</v>
@@ -4203,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K84" s="2">
         <v>0</v>
@@ -4220,14 +4255,14 @@
         <v>42</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>7</v>
@@ -4240,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K85" s="2">
         <v>0</v>
@@ -4254,17 +4289,17 @@
     </row>
     <row r="86" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>7</v>
@@ -4277,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K86" s="2">
         <v>0</v>
@@ -4294,14 +4329,14 @@
         <v>51</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>7</v>
@@ -4314,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K87" s="2">
         <v>0</v>
@@ -4331,14 +4366,14 @@
         <v>51</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>7</v>
@@ -4351,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K88" s="2">
         <v>0</v>
@@ -4368,14 +4403,14 @@
         <v>51</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>7</v>
@@ -4388,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K89" s="2">
         <v>0</v>
@@ -4397,6 +4432,43 @@
         <v>152</v>
       </c>
       <c r="M89" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M90" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4409,7 +4481,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8073,33 +8145,240 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L102" s="2"/>
-      <c r="M102" s="3"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L103" s="2"/>
-      <c r="M103" s="3"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L104" s="2"/>
-      <c r="M104" s="3"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L105" s="2"/>
-      <c r="M105" s="3"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L106" s="2"/>
-      <c r="M106" s="3"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L107" s="2"/>
-      <c r="M107" s="3"/>
+    <row r="102" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H102" s="4"/>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H104" s="4"/>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H105" s="4"/>
+      <c r="I105" s="1">
+        <v>1</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H106" s="4"/>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H107" s="4"/>
+      <c r="I107" s="1">
+        <v>1</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L108" s="2"/>
       <c r="M108" s="3"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L109" s="2"/>
+      <c r="M109" s="3"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L110" s="2"/>
+      <c r="M110" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-228" windowWidth="30936" windowHeight="16896" activeTab="1"/>
+    <workbookView xWindow="30615" yWindow="-225" windowWidth="30930" windowHeight="16890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="强电" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="306">
   <si>
     <t>源块名</t>
   </si>
@@ -1035,6 +1035,14 @@
   <si>
     <t>自动消防炮接管</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动执行机构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动执行机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1391,23 +1399,23 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="5" customWidth="1"/>
     <col min="11" max="11" width="12" style="5" customWidth="1"/>
-    <col min="12" max="13" width="15.6640625" style="5" customWidth="1"/>
+    <col min="12" max="13" width="15.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1456,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1482,7 +1490,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>209</v>
       </c>
@@ -1516,7 +1524,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>208</v>
       </c>
@@ -1550,7 +1558,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>210</v>
       </c>
@@ -1584,7 +1592,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>211</v>
       </c>
@@ -1618,7 +1626,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>212</v>
       </c>
@@ -1652,7 +1660,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>214</v>
       </c>
@@ -1686,7 +1694,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>215</v>
       </c>
@@ -1720,7 +1728,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>216</v>
       </c>
@@ -1754,7 +1762,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>217</v>
       </c>
@@ -1788,7 +1796,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>218</v>
       </c>
@@ -1822,7 +1830,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>219</v>
       </c>
@@ -1856,7 +1864,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>220</v>
       </c>
@@ -1890,7 +1898,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>221</v>
       </c>
@@ -1924,7 +1932,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>222</v>
       </c>
@@ -1958,7 +1966,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>223</v>
       </c>
@@ -1992,7 +2000,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
@@ -2026,7 +2034,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>225</v>
       </c>
@@ -2060,7 +2068,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>226</v>
       </c>
@@ -2094,7 +2102,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>227</v>
       </c>
@@ -2128,7 +2136,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>228</v>
       </c>
@@ -2162,7 +2170,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>229</v>
       </c>
@@ -2196,7 +2204,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>230</v>
       </c>
@@ -2230,7 +2238,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>231</v>
       </c>
@@ -2264,7 +2272,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>244</v>
       </c>
@@ -2298,7 +2306,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>232</v>
       </c>
@@ -2332,7 +2340,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>233</v>
       </c>
@@ -2366,7 +2374,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>234</v>
       </c>
@@ -2400,7 +2408,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>235</v>
       </c>
@@ -2434,7 +2442,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>236</v>
       </c>
@@ -2468,7 +2476,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>237</v>
       </c>
@@ -2502,7 +2510,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>238</v>
       </c>
@@ -2536,7 +2544,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>239</v>
       </c>
@@ -2570,7 +2578,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>240</v>
       </c>
@@ -2604,7 +2612,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>241</v>
       </c>
@@ -2638,7 +2646,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>242</v>
       </c>
@@ -2672,7 +2680,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>243</v>
       </c>
@@ -2706,7 +2714,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>133</v>
       </c>
@@ -2740,7 +2748,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>295</v>
       </c>
@@ -2774,7 +2782,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -2808,7 +2816,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -2842,7 +2850,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -2876,7 +2884,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>134</v>
       </c>
@@ -2909,7 +2917,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>136</v>
       </c>
@@ -2942,7 +2950,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>135</v>
       </c>
@@ -2975,7 +2983,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -3008,7 +3016,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -3041,7 +3049,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
@@ -3074,7 +3082,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -3107,7 +3115,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -3140,7 +3148,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -3173,7 +3181,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
@@ -3206,7 +3214,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
@@ -3239,7 +3247,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>167</v>
       </c>
@@ -3270,7 +3278,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>168</v>
       </c>
@@ -3301,7 +3309,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>169</v>
       </c>
@@ -3332,7 +3340,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>170</v>
       </c>
@@ -3363,7 +3371,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>173</v>
       </c>
@@ -3394,7 +3402,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>188</v>
       </c>
@@ -3425,7 +3433,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>171</v>
       </c>
@@ -3456,7 +3464,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>172</v>
       </c>
@@ -3487,7 +3495,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>174</v>
       </c>
@@ -3518,7 +3526,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>191</v>
       </c>
@@ -3549,7 +3557,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>192</v>
       </c>
@@ -3580,7 +3588,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>193</v>
       </c>
@@ -3611,7 +3619,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>194</v>
       </c>
@@ -3642,7 +3650,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
@@ -3678,7 +3686,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -3714,7 +3722,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
@@ -3750,7 +3758,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
@@ -3786,7 +3794,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
@@ -3822,7 +3830,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>24</v>
       </c>
@@ -3858,7 +3866,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>213</v>
       </c>
@@ -3894,7 +3902,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>29</v>
       </c>
@@ -3930,7 +3938,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>29</v>
       </c>
@@ -3966,7 +3974,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>29</v>
       </c>
@@ -4002,7 +4010,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
@@ -4038,7 +4046,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -4074,7 +4082,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>36</v>
       </c>
@@ -4110,7 +4118,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
@@ -4143,7 +4151,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>41</v>
       </c>
@@ -4176,7 +4184,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>42</v>
       </c>
@@ -4213,7 +4221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>42</v>
       </c>
@@ -4250,7 +4258,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>42</v>
       </c>
@@ -4287,7 +4295,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>42</v>
       </c>
@@ -4324,7 +4332,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>51</v>
       </c>
@@ -4361,7 +4369,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>51</v>
       </c>
@@ -4398,7 +4406,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>51</v>
       </c>
@@ -4435,7 +4443,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>51</v>
       </c>
@@ -4483,22 +4491,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4539,7 +4549,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -4575,7 +4585,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -4611,7 +4621,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4647,7 +4657,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -4683,7 +4693,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4719,7 +4729,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4755,7 +4765,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -4791,7 +4801,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4827,7 +4837,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4863,7 +4873,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -4899,7 +4909,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -4935,7 +4945,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4971,7 +4981,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -5007,7 +5017,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -5043,7 +5053,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -5079,7 +5089,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -5115,7 +5125,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -5151,7 +5161,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -5187,7 +5197,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -5223,7 +5233,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -5259,7 +5269,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -5295,7 +5305,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -5331,7 +5341,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -5367,7 +5377,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -5403,7 +5413,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -5439,7 +5449,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -5475,7 +5485,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -5511,7 +5521,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -5547,7 +5557,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -5583,7 +5593,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -5619,7 +5629,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -5655,7 +5665,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -5691,7 +5701,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -5727,7 +5737,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -5763,7 +5773,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -5799,7 +5809,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -5835,7 +5845,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -5871,7 +5881,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -5907,7 +5917,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -5943,7 +5953,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -5979,7 +5989,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -6015,7 +6025,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -6051,7 +6061,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -6087,7 +6097,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -6123,7 +6133,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -6159,7 +6169,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -6195,7 +6205,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -6231,7 +6241,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -6267,7 +6277,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -6303,7 +6313,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -6339,7 +6349,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -6375,7 +6385,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -6411,7 +6421,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -6447,7 +6457,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -6483,7 +6493,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
@@ -6519,7 +6529,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -6555,7 +6565,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -6591,7 +6601,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -6627,7 +6637,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -6663,7 +6673,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -6699,7 +6709,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -6735,7 +6745,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -6771,7 +6781,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -6807,7 +6817,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -6843,7 +6853,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -6879,7 +6889,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
@@ -6915,7 +6925,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
@@ -6951,7 +6961,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -6987,7 +6997,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
@@ -7023,7 +7033,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
@@ -7062,7 +7072,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>67</v>
       </c>
@@ -7101,7 +7111,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>67</v>
       </c>
@@ -7140,7 +7150,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>67</v>
       </c>
@@ -7179,7 +7189,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -7218,7 +7228,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -7257,7 +7267,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>73</v>
       </c>
@@ -7296,7 +7306,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>73</v>
       </c>
@@ -7335,7 +7345,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -7371,7 +7381,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -7407,7 +7417,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>166</v>
       </c>
@@ -7438,7 +7448,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -7469,7 +7479,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -7503,7 +7513,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
@@ -7537,7 +7547,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -7571,7 +7581,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -7605,7 +7615,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
@@ -7639,7 +7649,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>84</v>
       </c>
@@ -7673,7 +7683,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>84</v>
       </c>
@@ -7707,7 +7717,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>84</v>
       </c>
@@ -7741,7 +7751,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>84</v>
       </c>
@@ -7775,7 +7785,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>84</v>
       </c>
@@ -7809,7 +7819,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>84</v>
       </c>
@@ -7843,7 +7853,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>97</v>
       </c>
@@ -7879,7 +7889,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
@@ -7920,7 +7930,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -7956,7 +7966,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
@@ -7995,7 +8005,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -8031,7 +8041,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -8070,7 +8080,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -8106,7 +8116,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>110</v>
       </c>
@@ -8145,7 +8155,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>296</v>
       </c>
@@ -8179,7 +8189,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>296</v>
       </c>
@@ -8218,7 +8228,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>296</v>
       </c>
@@ -8254,7 +8264,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>296</v>
       </c>
@@ -8293,7 +8303,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
         <v>301</v>
       </c>
@@ -8329,7 +8339,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
         <v>301</v>
       </c>
@@ -8368,15 +8378,48 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L108" s="2"/>
-      <c r="M108" s="3"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="5"/>
+      <c r="K108" s="2">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L109" s="2"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L110" s="2"/>
       <c r="M110" s="3"/>
     </row>

--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-225" windowWidth="30930" windowHeight="16890" activeTab="1"/>
+    <workbookView xWindow="30615" yWindow="-225" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="强电" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="297">
   <si>
     <t>源块名</t>
   </si>
@@ -277,40 +277,7 @@
     <t>室内消火栓平面</t>
   </si>
   <si>
-    <t>单栓</t>
-  </si>
-  <si>
     <t>E-BFAS610</t>
-  </si>
-  <si>
-    <t>双栓</t>
-  </si>
-  <si>
-    <t>单栓带卷盘</t>
-  </si>
-  <si>
-    <t>双栓带卷盘</t>
-  </si>
-  <si>
-    <t>单栓灭火器(1)组合柜</t>
-  </si>
-  <si>
-    <t>单栓灭火器(2)组合柜</t>
-  </si>
-  <si>
-    <t>单栓灭火器(3)组合柜</t>
-  </si>
-  <si>
-    <t>单栓带卷盘灭火器(1)组合柜</t>
-  </si>
-  <si>
-    <t>单栓带卷盘灭火器(2)组合柜</t>
-  </si>
-  <si>
-    <t>单栓带卷盘灭火器(3)组合柜</t>
-  </si>
-  <si>
-    <t>试验消火栓</t>
   </si>
   <si>
     <t>大空间灭火装置平面</t>
@@ -1042,6 +1009,14 @@
   </si>
   <si>
     <t>手动执行机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AxialFlowFan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentBase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1102,7 +1077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,6 +1095,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1423,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1435,25 +1413,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -1461,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -1473,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="1">
@@ -1484,18 +1462,18 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1507,7 +1485,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="1">
@@ -1518,18 +1496,18 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1541,7 +1519,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="1">
@@ -1552,18 +1530,18 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -1575,7 +1553,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="1">
@@ -1586,18 +1564,18 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -1609,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="1">
@@ -1620,18 +1598,18 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1643,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="1">
@@ -1654,18 +1632,18 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -1677,7 +1655,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="1">
@@ -1688,18 +1666,18 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -1711,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="1">
@@ -1722,18 +1700,18 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -1745,7 +1723,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="1">
@@ -1756,18 +1734,18 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -1779,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="1">
@@ -1790,18 +1768,18 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -1813,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="1">
@@ -1824,18 +1802,18 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -1847,7 +1825,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="1">
@@ -1858,18 +1836,18 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -1881,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="1">
@@ -1892,18 +1870,18 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -1915,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="1">
@@ -1926,18 +1904,18 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -1949,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="1">
@@ -1960,18 +1938,18 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -1983,7 +1961,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="1">
@@ -1994,18 +1972,18 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -2017,7 +1995,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="1">
@@ -2028,18 +2006,18 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -2051,7 +2029,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="1">
@@ -2062,18 +2040,18 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2085,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="1">
@@ -2096,18 +2074,18 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2119,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="1">
@@ -2130,18 +2108,18 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -2153,7 +2131,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="1">
@@ -2164,18 +2142,18 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -2187,7 +2165,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="1">
@@ -2198,18 +2176,18 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -2221,7 +2199,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="1">
@@ -2232,18 +2210,18 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -2255,7 +2233,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="1">
@@ -2266,18 +2244,18 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -2289,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="1">
@@ -2300,18 +2278,18 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -2323,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="1">
@@ -2334,18 +2312,18 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -2357,7 +2335,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="1">
@@ -2368,18 +2346,18 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -2391,7 +2369,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="1">
@@ -2402,18 +2380,18 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -2425,7 +2403,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="1">
@@ -2436,18 +2414,18 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -2459,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="1">
@@ -2470,18 +2448,18 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -2493,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="1">
@@ -2504,18 +2482,18 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -2527,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="1">
@@ -2538,18 +2516,18 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -2561,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="1">
@@ -2572,18 +2550,18 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -2595,7 +2573,7 @@
         <v>7</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="1">
@@ -2606,18 +2584,18 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -2629,7 +2607,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="1">
@@ -2640,18 +2618,18 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -2663,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="1">
@@ -2674,18 +2652,18 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -2697,7 +2675,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="1">
@@ -2708,21 +2686,21 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
+        <v>283</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>6</v>
@@ -2731,7 +2709,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="1">
@@ -2742,18 +2720,18 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -2765,7 +2743,7 @@
         <v>7</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="1">
@@ -2776,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -2787,7 +2765,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -2799,7 +2777,7 @@
         <v>7</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="1">
@@ -2810,10 +2788,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -2821,7 +2799,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -2833,7 +2811,7 @@
         <v>7</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="1">
@@ -2844,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -2855,10 +2833,10 @@
         <v>10</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>165</v>
+        <v>283</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
@@ -2867,7 +2845,7 @@
         <v>7</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="1">
@@ -2878,18 +2856,18 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -2901,7 +2879,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="1">
@@ -2911,18 +2889,18 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -2934,7 +2912,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="1">
@@ -2944,18 +2922,18 @@
         <v>0</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -2967,7 +2945,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="1">
@@ -2977,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -2988,7 +2966,7 @@
         <v>11</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -3000,7 +2978,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="1">
@@ -3010,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3021,7 +2999,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -3033,7 +3011,7 @@
         <v>13</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="1">
@@ -3043,10 +3021,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3054,7 +3032,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -3066,7 +3044,7 @@
         <v>13</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="1">
@@ -3076,10 +3054,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3087,7 +3065,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -3099,7 +3077,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="1">
@@ -3109,10 +3087,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3120,7 +3098,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
@@ -3132,7 +3110,7 @@
         <v>13</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="1">
@@ -3142,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3153,7 +3131,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
@@ -3165,7 +3143,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="1">
@@ -3175,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3186,7 +3164,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -3198,7 +3176,7 @@
         <v>13</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="1">
@@ -3208,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3219,7 +3197,7 @@
         <v>20</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
@@ -3231,7 +3209,7 @@
         <v>13</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="1">
@@ -3241,28 +3219,28 @@
         <v>0</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="1">
@@ -3272,28 +3250,28 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="1">
@@ -3303,28 +3281,28 @@
         <v>0</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="1">
@@ -3334,28 +3312,28 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="1">
@@ -3365,28 +3343,28 @@
         <v>0</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="1">
@@ -3396,28 +3374,28 @@
         <v>0</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="1">
@@ -3427,28 +3405,28 @@
         <v>0</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="1">
@@ -3458,28 +3436,28 @@
         <v>0</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="1">
@@ -3489,28 +3467,28 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="1">
@@ -3520,28 +3498,28 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="1">
@@ -3551,28 +3529,28 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="1">
@@ -3582,28 +3560,28 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="1">
@@ -3613,28 +3591,28 @@
         <v>0</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="1">
@@ -3644,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -3655,10 +3633,10 @@
         <v>21</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
@@ -3670,7 +3648,7 @@
         <v>23</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="1">
@@ -3680,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -3691,10 +3669,10 @@
         <v>21</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -3706,7 +3684,7 @@
         <v>23</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="1">
@@ -3716,10 +3694,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3730,7 +3708,7 @@
         <v>25</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
@@ -3742,7 +3720,7 @@
         <v>23</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="1">
@@ -3752,10 +3730,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -3766,7 +3744,7 @@
         <v>26</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D71" s="3">
         <v>0</v>
@@ -3778,7 +3756,7 @@
         <v>23</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="1">
@@ -3788,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -3802,7 +3780,7 @@
         <v>27</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D72" s="3">
         <v>0</v>
@@ -3814,7 +3792,7 @@
         <v>23</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="1">
@@ -3824,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -3838,7 +3816,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
@@ -3850,7 +3828,7 @@
         <v>23</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="1">
@@ -3860,21 +3838,21 @@
         <v>0</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
@@ -3886,7 +3864,7 @@
         <v>23</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="1">
@@ -3896,10 +3874,10 @@
         <v>0</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.15">
@@ -3910,7 +3888,7 @@
         <v>30</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -3922,7 +3900,7 @@
         <v>23</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="1">
@@ -3932,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3946,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D76" s="3">
         <v>0</v>
@@ -3958,7 +3936,7 @@
         <v>23</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="1">
@@ -3968,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3979,10 +3957,10 @@
         <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D77" s="3">
         <v>0</v>
@@ -3994,7 +3972,7 @@
         <v>23</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="1">
@@ -4004,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4018,7 +3996,7 @@
         <v>34</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D78" s="3">
         <v>0</v>
@@ -4030,7 +4008,7 @@
         <v>23</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="1">
@@ -4040,10 +4018,10 @@
         <v>0</v>
       </c>
       <c r="L78" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M78" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4051,10 +4029,10 @@
         <v>29</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D79" s="3">
         <v>0</v>
@@ -4066,7 +4044,7 @@
         <v>23</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="1">
@@ -4076,10 +4054,10 @@
         <v>0</v>
       </c>
       <c r="L79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M79" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4090,7 +4068,7 @@
         <v>37</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D80" s="3">
         <v>0</v>
@@ -4102,7 +4080,7 @@
         <v>23</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="1">
@@ -4112,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4123,7 +4101,7 @@
         <v>39</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D81" s="3">
         <v>0</v>
@@ -4135,7 +4113,7 @@
         <v>7</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="1">
@@ -4145,10 +4123,10 @@
         <v>1</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4156,7 +4134,7 @@
         <v>41</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D82" s="3">
         <v>0</v>
@@ -4168,7 +4146,7 @@
         <v>7</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="1">
@@ -4178,10 +4156,10 @@
         <v>1</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4192,7 +4170,7 @@
         <v>43</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="1" t="s">
@@ -4202,23 +4180,23 @@
         <v>7</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="1">
         <v>1</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K83" s="2">
         <v>0</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4229,7 +4207,7 @@
         <v>45</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="1" t="s">
@@ -4239,23 +4217,23 @@
         <v>7</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="1">
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K84" s="2">
         <v>0</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4266,7 +4244,7 @@
         <v>47</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="1" t="s">
@@ -4276,23 +4254,23 @@
         <v>7</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="1">
         <v>1</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K85" s="2">
         <v>0</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4303,7 +4281,7 @@
         <v>49</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="1" t="s">
@@ -4313,23 +4291,23 @@
         <v>7</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="1">
         <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="K86" s="2">
         <v>0</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4340,7 +4318,7 @@
         <v>43</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="1" t="s">
@@ -4350,23 +4328,23 @@
         <v>7</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="1">
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K87" s="2">
         <v>0</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4377,7 +4355,7 @@
         <v>45</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="1" t="s">
@@ -4387,23 +4365,23 @@
         <v>7</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="1">
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K88" s="2">
         <v>0</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4414,7 +4392,7 @@
         <v>47</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="1" t="s">
@@ -4424,23 +4402,23 @@
         <v>7</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="1">
         <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K89" s="2">
         <v>0</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4451,7 +4429,7 @@
         <v>49</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="1" t="s">
@@ -4461,23 +4439,23 @@
         <v>7</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="1">
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K90" s="2">
         <v>0</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4489,10 +4467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4516,10 +4494,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -4528,25 +4506,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -4554,10 +4532,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -4569,7 +4547,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="1">
@@ -4579,10 +4557,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4590,10 +4568,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -4605,7 +4583,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="1">
@@ -4615,10 +4593,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4626,10 +4604,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -4641,7 +4619,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="1">
@@ -4651,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4662,10 +4640,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -4677,7 +4655,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1">
@@ -4687,10 +4665,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -4698,10 +4676,10 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -4713,7 +4691,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="1">
@@ -4723,10 +4701,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -4734,10 +4712,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -4749,7 +4727,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="1">
@@ -4759,10 +4737,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4770,10 +4748,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -4785,7 +4763,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="1">
@@ -4795,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4806,10 +4784,10 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -4821,7 +4799,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="1">
@@ -4831,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4842,10 +4820,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -4857,7 +4835,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="1">
@@ -4867,10 +4845,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4878,10 +4856,10 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -4893,7 +4871,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="1">
@@ -4903,10 +4881,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -4914,10 +4892,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -4929,7 +4907,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="1">
@@ -4939,10 +4917,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -4950,10 +4928,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -4965,7 +4943,7 @@
         <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="1">
@@ -4975,10 +4953,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4986,10 +4964,10 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -5001,7 +4979,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="1">
@@ -5011,10 +4989,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5022,10 +5000,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -5037,7 +5015,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="1">
@@ -5047,10 +5025,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5058,10 +5036,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -5073,7 +5051,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="1">
@@ -5083,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5097,7 +5075,7 @@
         <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -5109,7 +5087,7 @@
         <v>23</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="1">
@@ -5119,10 +5097,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5133,7 +5111,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -5145,7 +5123,7 @@
         <v>23</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="1">
@@ -5155,10 +5133,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5166,10 +5144,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -5181,7 +5159,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="1">
@@ -5191,10 +5169,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5202,10 +5180,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -5217,7 +5195,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="1">
@@ -5227,10 +5205,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5238,10 +5216,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -5253,7 +5231,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="1">
@@ -5263,10 +5241,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5274,10 +5252,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -5289,7 +5267,7 @@
         <v>23</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="1">
@@ -5299,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
@@ -5310,10 +5288,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -5325,7 +5303,7 @@
         <v>23</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="1">
@@ -5335,10 +5313,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5346,10 +5324,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -5361,7 +5339,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="1">
@@ -5371,10 +5349,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5382,10 +5360,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -5397,7 +5375,7 @@
         <v>23</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="1">
@@ -5407,10 +5385,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5418,10 +5396,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -5433,7 +5411,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="1">
@@ -5443,10 +5421,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5454,10 +5432,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -5469,7 +5447,7 @@
         <v>23</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="1">
@@ -5479,10 +5457,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5490,10 +5468,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -5505,7 +5483,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="1">
@@ -5515,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5526,10 +5504,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -5541,7 +5519,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="1">
@@ -5551,10 +5529,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5562,10 +5540,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -5577,7 +5555,7 @@
         <v>23</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="1">
@@ -5587,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5598,10 +5576,10 @@
         <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -5613,7 +5591,7 @@
         <v>23</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="1">
@@ -5623,10 +5601,10 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5634,10 +5612,10 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -5649,7 +5627,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="1">
@@ -5659,10 +5637,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5670,10 +5648,10 @@
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -5685,7 +5663,7 @@
         <v>23</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="1">
@@ -5695,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5706,10 +5684,10 @@
         <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -5721,7 +5699,7 @@
         <v>23</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="1">
@@ -5731,10 +5709,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5742,10 +5720,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -5757,7 +5735,7 @@
         <v>23</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="1">
@@ -5767,10 +5745,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5778,10 +5756,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -5793,7 +5771,7 @@
         <v>23</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="1">
@@ -5803,10 +5781,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5814,10 +5792,10 @@
         <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -5829,7 +5807,7 @@
         <v>23</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="1">
@@ -5839,10 +5817,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5853,7 +5831,7 @@
         <v>56</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -5865,7 +5843,7 @@
         <v>23</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="1">
@@ -5875,10 +5853,10 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5889,7 +5867,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -5901,7 +5879,7 @@
         <v>23</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="1">
@@ -5911,10 +5889,10 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5922,10 +5900,10 @@
         <v>21</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
@@ -5937,7 +5915,7 @@
         <v>23</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="1">
@@ -5947,10 +5925,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5958,10 +5936,10 @@
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
@@ -5973,7 +5951,7 @@
         <v>23</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="1">
@@ -5983,10 +5961,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5994,10 +5972,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
@@ -6009,7 +5987,7 @@
         <v>23</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="1">
@@ -6019,10 +5997,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -6030,10 +6008,10 @@
         <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
@@ -6045,7 +6023,7 @@
         <v>23</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="1">
@@ -6055,10 +6033,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
@@ -6069,7 +6047,7 @@
         <v>58</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -6081,7 +6059,7 @@
         <v>23</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="1">
@@ -6091,10 +6069,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
@@ -6105,7 +6083,7 @@
         <v>59</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
@@ -6117,7 +6095,7 @@
         <v>23</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="1">
@@ -6127,10 +6105,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
@@ -6141,7 +6119,7 @@
         <v>60</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
@@ -6153,7 +6131,7 @@
         <v>23</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="1">
@@ -6163,10 +6141,10 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
@@ -6177,7 +6155,7 @@
         <v>61</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
@@ -6189,7 +6167,7 @@
         <v>23</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="1">
@@ -6199,10 +6177,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6213,7 +6191,7 @@
         <v>63</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
@@ -6225,7 +6203,7 @@
         <v>23</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="1">
@@ -6235,10 +6213,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6249,7 +6227,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -6261,7 +6239,7 @@
         <v>23</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="1">
@@ -6271,10 +6249,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
@@ -6285,7 +6263,7 @@
         <v>25</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -6297,7 +6275,7 @@
         <v>23</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="1">
@@ -6307,10 +6285,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6321,7 +6299,7 @@
         <v>26</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -6333,7 +6311,7 @@
         <v>23</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="1">
@@ -6343,10 +6321,10 @@
         <v>0</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6357,7 +6335,7 @@
         <v>27</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
@@ -6369,7 +6347,7 @@
         <v>23</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="1">
@@ -6379,10 +6357,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6393,7 +6371,7 @@
         <v>28</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
@@ -6405,7 +6383,7 @@
         <v>23</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="1">
@@ -6415,10 +6393,10 @@
         <v>0</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6429,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -6441,7 +6419,7 @@
         <v>23</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="1">
@@ -6451,10 +6429,10 @@
         <v>0</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6465,7 +6443,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
@@ -6477,7 +6455,7 @@
         <v>23</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="1">
@@ -6487,10 +6465,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6501,7 +6479,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
@@ -6513,7 +6491,7 @@
         <v>23</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="1">
@@ -6523,10 +6501,10 @@
         <v>0</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
@@ -6537,7 +6515,7 @@
         <v>25</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
@@ -6549,7 +6527,7 @@
         <v>23</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="1">
@@ -6559,10 +6537,10 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6573,7 +6551,7 @@
         <v>26</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D58" s="4">
         <v>0</v>
@@ -6585,7 +6563,7 @@
         <v>23</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="1">
@@ -6595,10 +6573,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6609,7 +6587,7 @@
         <v>27</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
@@ -6621,7 +6599,7 @@
         <v>23</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="1">
@@ -6631,10 +6609,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6645,7 +6623,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D60" s="4">
         <v>0</v>
@@ -6657,7 +6635,7 @@
         <v>23</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="1">
@@ -6667,10 +6645,10 @@
         <v>0</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6681,7 +6659,7 @@
         <v>65</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D61" s="4">
         <v>0</v>
@@ -6693,7 +6671,7 @@
         <v>23</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="1">
@@ -6703,10 +6681,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
@@ -6717,7 +6695,7 @@
         <v>66</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D62" s="4">
         <v>0</v>
@@ -6729,7 +6707,7 @@
         <v>23</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="1">
@@ -6739,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6753,7 +6731,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D63" s="4">
         <v>0</v>
@@ -6765,7 +6743,7 @@
         <v>23</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="1">
@@ -6775,10 +6753,10 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6789,7 +6767,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D64" s="4">
         <v>0</v>
@@ -6801,7 +6779,7 @@
         <v>23</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="1">
@@ -6811,10 +6789,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
@@ -6825,7 +6803,7 @@
         <v>25</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D65" s="4">
         <v>0</v>
@@ -6837,7 +6815,7 @@
         <v>23</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="1">
@@ -6847,10 +6825,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6861,7 +6839,7 @@
         <v>26</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D66" s="4">
         <v>0</v>
@@ -6873,7 +6851,7 @@
         <v>23</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="1">
@@ -6883,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6897,7 +6875,7 @@
         <v>27</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D67" s="4">
         <v>0</v>
@@ -6909,7 +6887,7 @@
         <v>23</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="1">
@@ -6919,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6933,7 +6911,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D68" s="4">
         <v>0</v>
@@ -6945,7 +6923,7 @@
         <v>23</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="1">
@@ -6955,10 +6933,10 @@
         <v>0</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6969,7 +6947,7 @@
         <v>65</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
@@ -6981,7 +6959,7 @@
         <v>23</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="1">
@@ -6991,10 +6969,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
@@ -7005,7 +6983,7 @@
         <v>66</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D70" s="4">
         <v>0</v>
@@ -7017,7 +6995,7 @@
         <v>23</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="1">
@@ -7027,10 +7005,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -7041,10 +7019,10 @@
         <v>68</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>69</v>
@@ -7053,23 +7031,23 @@
         <v>23</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="1">
         <v>1</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K71" s="1">
         <v>0</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -7080,10 +7058,10 @@
         <v>70</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>69</v>
@@ -7092,23 +7070,23 @@
         <v>23</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="1">
         <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K72" s="1">
         <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -7119,10 +7097,10 @@
         <v>71</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>69</v>
@@ -7131,23 +7109,23 @@
         <v>23</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="1">
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K73" s="1">
         <v>0</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -7158,10 +7136,10 @@
         <v>72</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>69</v>
@@ -7170,23 +7148,23 @@
         <v>23</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="1">
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K74" s="1">
         <v>0</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -7197,7 +7175,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D75" s="4">
         <v>0</v>
@@ -7209,23 +7187,23 @@
         <v>23</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="1">
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K75" s="1">
         <v>0</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -7236,7 +7214,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D76" s="4">
         <v>0</v>
@@ -7248,23 +7226,23 @@
         <v>23</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="1">
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K76" s="1">
         <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -7275,7 +7253,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D77" s="4">
         <v>0</v>
@@ -7287,23 +7265,23 @@
         <v>23</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="1">
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K77" s="1">
         <v>0</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -7314,7 +7292,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D78" s="4">
         <v>0</v>
@@ -7326,23 +7304,23 @@
         <v>23</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="1">
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K78" s="1">
         <v>0</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.15">
@@ -7353,7 +7331,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D79" s="4">
         <v>0</v>
@@ -7365,7 +7343,7 @@
         <v>23</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="1">
@@ -7375,10 +7353,10 @@
         <v>1</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -7389,7 +7367,7 @@
         <v>82</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D80" s="4">
         <v>0</v>
@@ -7401,7 +7379,7 @@
         <v>23</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="1">
@@ -7411,28 +7389,28 @@
         <v>1</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="1">
@@ -7442,10 +7420,10 @@
         <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
@@ -7453,17 +7431,17 @@
         <v>84</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="1">
@@ -7473,31 +7451,33 @@
         <v>0</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D83" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="E83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="1">
@@ -7507,65 +7487,74 @@
         <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D84" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="E84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H84" s="4"/>
-      <c r="I84" s="1">
-        <v>0</v>
-      </c>
-      <c r="K84" s="1">
-        <v>0</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="B85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D85" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="E85" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="1">
@@ -7575,65 +7564,72 @@
         <v>0</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D86" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="E86" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="K86" s="1">
         <v>0</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D87" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="1">
@@ -7643,65 +7639,72 @@
         <v>0</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D88" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="E88" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="K88" s="1">
         <v>0</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D89" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="E89" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="1">
@@ -7711,65 +7714,70 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D90" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="E90" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="K90" s="1">
         <v>0</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>94</v>
+        <v>285</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="1">
@@ -7779,65 +7787,72 @@
         <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>95</v>
+        <v>285</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H92" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
       <c r="I92" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="K92" s="1">
         <v>0</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>96</v>
+        <v>285</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D93" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="E93" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="1">
@@ -7847,581 +7862,170 @@
         <v>0</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>98</v>
+        <v>285</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="K94" s="1">
         <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D95" s="4" t="s">
+      <c r="F95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A96" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H95" s="4">
-        <v>0</v>
-      </c>
-      <c r="I95" s="1">
-        <v>1</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K95" s="1">
-        <v>0</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="F96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="K96" s="1">
         <v>0</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>104</v>
+        <v>293</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>290</v>
+        <v>234</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>105</v>
+        <v>293</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H97" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="H97" s="3"/>
       <c r="I97" s="1">
-        <v>1</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K97" s="1">
-        <v>0</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>157</v>
+        <v>0</v>
+      </c>
+      <c r="J97" s="5"/>
+      <c r="K97" s="2">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H98" s="4"/>
-      <c r="I98" s="1">
-        <v>0</v>
-      </c>
-      <c r="K98" s="1">
-        <v>0</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H99" s="4"/>
-      <c r="I99" s="1">
-        <v>1</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K99" s="1">
-        <v>0</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H100" s="4"/>
-      <c r="I100" s="1">
-        <v>0</v>
-      </c>
-      <c r="K100" s="1">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H101" s="4"/>
-      <c r="I101" s="1">
-        <v>1</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K101" s="1">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H102" s="4"/>
-      <c r="I102" s="1">
-        <v>0</v>
-      </c>
-      <c r="K102" s="1">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H103" s="4">
-        <v>0</v>
-      </c>
-      <c r="I103" s="1">
-        <v>1</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K103" s="1">
-        <v>0</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H104" s="4"/>
-      <c r="I104" s="1">
-        <v>0</v>
-      </c>
-      <c r="K104" s="1">
-        <v>0</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M104" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H105" s="4"/>
-      <c r="I105" s="1">
-        <v>1</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K105" s="1">
-        <v>0</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M105" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A106" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H106" s="4"/>
-      <c r="I106" s="1">
-        <v>0</v>
-      </c>
-      <c r="K106" s="1">
-        <v>0</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M106" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A107" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H107" s="4"/>
-      <c r="I107" s="1">
-        <v>1</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K107" s="1">
-        <v>0</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M107" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D108" s="3">
-        <v>0</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="1">
-        <v>0</v>
-      </c>
-      <c r="J108" s="5"/>
-      <c r="K108" s="2">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M108" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L109" s="2"/>
-      <c r="M109" s="3"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L110" s="2"/>
-      <c r="M110" s="3"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L98" s="2"/>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L99" s="2"/>
+      <c r="M99" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="303">
   <si>
     <t>源块名</t>
   </si>
@@ -1018,6 +1018,30 @@
   <si>
     <t>EquipmentBase</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载电量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载用途</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主备关系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源类别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1077,7 +1101,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,6 +1122,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1374,10 +1404,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1393,7 +1425,7 @@
     <col min="12" max="13" width="15.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,8 +1465,26 @@
       <c r="M1" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N1" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1467,8 +1517,26 @@
       <c r="M2" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>198</v>
       </c>
@@ -1501,8 +1569,26 @@
       <c r="M3" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>197</v>
       </c>
@@ -1535,8 +1621,26 @@
       <c r="M4" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>199</v>
       </c>
@@ -1569,8 +1673,26 @@
       <c r="M5" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>200</v>
       </c>
@@ -1603,8 +1725,26 @@
       <c r="M6" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>201</v>
       </c>
@@ -1637,8 +1777,26 @@
       <c r="M7" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>203</v>
       </c>
@@ -1671,8 +1829,26 @@
       <c r="M8" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>204</v>
       </c>
@@ -1705,8 +1881,26 @@
       <c r="M9" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>205</v>
       </c>
@@ -1739,8 +1933,26 @@
       <c r="M10" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>206</v>
       </c>
@@ -1773,8 +1985,26 @@
       <c r="M11" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>207</v>
       </c>
@@ -1807,8 +2037,26 @@
       <c r="M12" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>208</v>
       </c>
@@ -1841,8 +2089,26 @@
       <c r="M13" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>209</v>
       </c>
@@ -1875,8 +2141,26 @@
       <c r="M14" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>210</v>
       </c>
@@ -1909,8 +2193,26 @@
       <c r="M15" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>1</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>211</v>
       </c>
@@ -1943,8 +2245,26 @@
       <c r="M16" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N16" s="7">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>1</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>212</v>
       </c>
@@ -1977,8 +2297,26 @@
       <c r="M17" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>213</v>
       </c>
@@ -2011,8 +2349,26 @@
       <c r="M18" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>214</v>
       </c>
@@ -2045,8 +2401,26 @@
       <c r="M19" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>215</v>
       </c>
@@ -2079,8 +2453,26 @@
       <c r="M20" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N20" s="7">
+        <v>1</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>1</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>216</v>
       </c>
@@ -2113,8 +2505,26 @@
       <c r="M21" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
+      <c r="O21" s="7">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>217</v>
       </c>
@@ -2147,8 +2557,26 @@
       <c r="M22" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N22" s="7">
+        <v>1</v>
+      </c>
+      <c r="O22" s="7">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>218</v>
       </c>
@@ -2181,8 +2609,26 @@
       <c r="M23" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N23" s="7">
+        <v>1</v>
+      </c>
+      <c r="O23" s="7">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>219</v>
       </c>
@@ -2215,8 +2661,26 @@
       <c r="M24" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N24" s="7">
+        <v>1</v>
+      </c>
+      <c r="O24" s="7">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>1</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>220</v>
       </c>
@@ -2249,8 +2713,26 @@
       <c r="M25" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N25" s="7">
+        <v>1</v>
+      </c>
+      <c r="O25" s="7">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>1</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>233</v>
       </c>
@@ -2283,8 +2765,26 @@
       <c r="M26" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N26" s="7">
+        <v>1</v>
+      </c>
+      <c r="O26" s="7">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>221</v>
       </c>
@@ -2317,8 +2817,26 @@
       <c r="M27" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N27" s="7">
+        <v>1</v>
+      </c>
+      <c r="O27" s="7">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>1</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>222</v>
       </c>
@@ -2351,8 +2869,26 @@
       <c r="M28" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N28" s="7">
+        <v>1</v>
+      </c>
+      <c r="O28" s="7">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>1</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>223</v>
       </c>
@@ -2385,8 +2921,26 @@
       <c r="M29" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N29" s="7">
+        <v>1</v>
+      </c>
+      <c r="O29" s="7">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>1</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>224</v>
       </c>
@@ -2419,8 +2973,26 @@
       <c r="M30" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N30" s="7">
+        <v>1</v>
+      </c>
+      <c r="O30" s="7">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>225</v>
       </c>
@@ -2453,8 +3025,26 @@
       <c r="M31" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N31" s="7">
+        <v>1</v>
+      </c>
+      <c r="O31" s="7">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>1</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>226</v>
       </c>
@@ -2487,8 +3077,26 @@
       <c r="M32" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N32" s="7">
+        <v>1</v>
+      </c>
+      <c r="O32" s="7">
+        <v>1</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>1</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>227</v>
       </c>
@@ -2521,8 +3129,26 @@
       <c r="M33" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N33" s="7">
+        <v>1</v>
+      </c>
+      <c r="O33" s="7">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0</v>
+      </c>
+      <c r="S33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>228</v>
       </c>
@@ -2555,8 +3181,26 @@
       <c r="M34" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N34" s="7">
+        <v>1</v>
+      </c>
+      <c r="O34" s="7">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>1</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>229</v>
       </c>
@@ -2589,8 +3233,26 @@
       <c r="M35" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N35" s="7">
+        <v>1</v>
+      </c>
+      <c r="O35" s="7">
+        <v>1</v>
+      </c>
+      <c r="P35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>1</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
+      <c r="S35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>230</v>
       </c>
@@ -2623,8 +3285,26 @@
       <c r="M36" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N36" s="7">
+        <v>1</v>
+      </c>
+      <c r="O36" s="7">
+        <v>1</v>
+      </c>
+      <c r="P36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>1</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>231</v>
       </c>
@@ -2657,8 +3337,26 @@
       <c r="M37" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N37" s="7">
+        <v>1</v>
+      </c>
+      <c r="O37" s="7">
+        <v>1</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>1</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>232</v>
       </c>
@@ -2691,8 +3389,26 @@
       <c r="M38" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N38" s="7">
+        <v>1</v>
+      </c>
+      <c r="O38" s="7">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>1</v>
+      </c>
+      <c r="R38" s="4">
+        <v>0</v>
+      </c>
+      <c r="S38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>122</v>
       </c>
@@ -2725,8 +3441,26 @@
       <c r="M39" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N39" s="7">
+        <v>1</v>
+      </c>
+      <c r="O39" s="7">
+        <v>1</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>1</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0</v>
+      </c>
+      <c r="S39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>284</v>
       </c>
@@ -2759,8 +3493,26 @@
       <c r="M40" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N40" s="7">
+        <v>1</v>
+      </c>
+      <c r="O40" s="7">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>1</v>
+      </c>
+      <c r="R40" s="4">
+        <v>0</v>
+      </c>
+      <c r="S40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -2793,8 +3545,26 @@
       <c r="M41" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N41" s="7">
+        <v>1</v>
+      </c>
+      <c r="O41" s="7">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4">
+        <v>0</v>
+      </c>
+      <c r="S41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -2827,8 +3597,26 @@
       <c r="M42" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N42" s="7">
+        <v>1</v>
+      </c>
+      <c r="O42" s="7">
+        <v>1</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>1</v>
+      </c>
+      <c r="R42" s="4">
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -2861,8 +3649,26 @@
       <c r="M43" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N43" s="7">
+        <v>1</v>
+      </c>
+      <c r="O43" s="7">
+        <v>1</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>1</v>
+      </c>
+      <c r="R43" s="4">
+        <v>0</v>
+      </c>
+      <c r="S43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>123</v>
       </c>
@@ -2894,8 +3700,26 @@
       <c r="M44" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N44" s="7">
+        <v>1</v>
+      </c>
+      <c r="O44" s="7">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>1</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>125</v>
       </c>
@@ -2927,8 +3751,26 @@
       <c r="M45" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N45" s="7">
+        <v>1</v>
+      </c>
+      <c r="O45" s="7">
+        <v>1</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>1</v>
+      </c>
+      <c r="R45" s="4">
+        <v>0</v>
+      </c>
+      <c r="S45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>124</v>
       </c>
@@ -2960,8 +3802,26 @@
       <c r="M46" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N46" s="7">
+        <v>1</v>
+      </c>
+      <c r="O46" s="7">
+        <v>1</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>1</v>
+      </c>
+      <c r="R46" s="4">
+        <v>0</v>
+      </c>
+      <c r="S46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -2993,8 +3853,26 @@
       <c r="M47" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N47" s="7">
+        <v>1</v>
+      </c>
+      <c r="O47" s="7">
+        <v>1</v>
+      </c>
+      <c r="P47" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>1</v>
+      </c>
+      <c r="R47" s="4">
+        <v>0</v>
+      </c>
+      <c r="S47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -3026,8 +3904,26 @@
       <c r="M48" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N48" s="7">
+        <v>1</v>
+      </c>
+      <c r="O48" s="7">
+        <v>1</v>
+      </c>
+      <c r="P48" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>1</v>
+      </c>
+      <c r="R48" s="4">
+        <v>0</v>
+      </c>
+      <c r="S48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
@@ -3059,8 +3955,26 @@
       <c r="M49" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N49" s="7">
+        <v>1</v>
+      </c>
+      <c r="O49" s="7">
+        <v>1</v>
+      </c>
+      <c r="P49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>1</v>
+      </c>
+      <c r="R49" s="4">
+        <v>0</v>
+      </c>
+      <c r="S49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -3092,8 +4006,26 @@
       <c r="M50" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N50" s="7">
+        <v>1</v>
+      </c>
+      <c r="O50" s="7">
+        <v>1</v>
+      </c>
+      <c r="P50" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>1</v>
+      </c>
+      <c r="R50" s="4">
+        <v>0</v>
+      </c>
+      <c r="S50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -3125,8 +4057,26 @@
       <c r="M51" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N51" s="7">
+        <v>1</v>
+      </c>
+      <c r="O51" s="7">
+        <v>1</v>
+      </c>
+      <c r="P51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>1</v>
+      </c>
+      <c r="R51" s="4">
+        <v>0</v>
+      </c>
+      <c r="S51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -3158,8 +4108,26 @@
       <c r="M52" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N52" s="7">
+        <v>1</v>
+      </c>
+      <c r="O52" s="7">
+        <v>1</v>
+      </c>
+      <c r="P52" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>1</v>
+      </c>
+      <c r="R52" s="4">
+        <v>0</v>
+      </c>
+      <c r="S52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
@@ -3191,8 +4159,26 @@
       <c r="M53" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N53" s="7">
+        <v>1</v>
+      </c>
+      <c r="O53" s="7">
+        <v>1</v>
+      </c>
+      <c r="P53" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>1</v>
+      </c>
+      <c r="R53" s="4">
+        <v>0</v>
+      </c>
+      <c r="S53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
@@ -3224,8 +4210,26 @@
       <c r="M54" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N54" s="7">
+        <v>1</v>
+      </c>
+      <c r="O54" s="7">
+        <v>1</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>1</v>
+      </c>
+      <c r="R54" s="4">
+        <v>0</v>
+      </c>
+      <c r="S54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>156</v>
       </c>
@@ -3255,8 +4259,26 @@
       <c r="M55" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N55" s="7">
+        <v>1</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>0</v>
+      </c>
+      <c r="R55" s="4">
+        <v>0</v>
+      </c>
+      <c r="S55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>157</v>
       </c>
@@ -3286,8 +4308,26 @@
       <c r="M56" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N56" s="7">
+        <v>1</v>
+      </c>
+      <c r="O56" s="7">
+        <v>0</v>
+      </c>
+      <c r="P56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>0</v>
+      </c>
+      <c r="R56" s="4">
+        <v>0</v>
+      </c>
+      <c r="S56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>158</v>
       </c>
@@ -3317,8 +4357,26 @@
       <c r="M57" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N57" s="7">
+        <v>1</v>
+      </c>
+      <c r="O57" s="7">
+        <v>0</v>
+      </c>
+      <c r="P57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>0</v>
+      </c>
+      <c r="R57" s="4">
+        <v>0</v>
+      </c>
+      <c r="S57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>159</v>
       </c>
@@ -3348,8 +4406,26 @@
       <c r="M58" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N58" s="7">
+        <v>1</v>
+      </c>
+      <c r="O58" s="7">
+        <v>0</v>
+      </c>
+      <c r="P58" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>0</v>
+      </c>
+      <c r="R58" s="4">
+        <v>0</v>
+      </c>
+      <c r="S58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>162</v>
       </c>
@@ -3379,8 +4455,26 @@
       <c r="M59" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N59" s="7">
+        <v>1</v>
+      </c>
+      <c r="O59" s="7">
+        <v>0</v>
+      </c>
+      <c r="P59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>0</v>
+      </c>
+      <c r="R59" s="4">
+        <v>0</v>
+      </c>
+      <c r="S59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>177</v>
       </c>
@@ -3410,8 +4504,26 @@
       <c r="M60" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N60" s="7">
+        <v>1</v>
+      </c>
+      <c r="O60" s="7">
+        <v>0</v>
+      </c>
+      <c r="P60" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>0</v>
+      </c>
+      <c r="R60" s="4">
+        <v>0</v>
+      </c>
+      <c r="S60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>160</v>
       </c>
@@ -3441,8 +4553,26 @@
       <c r="M61" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N61" s="7">
+        <v>1</v>
+      </c>
+      <c r="O61" s="7">
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>0</v>
+      </c>
+      <c r="R61" s="4">
+        <v>0</v>
+      </c>
+      <c r="S61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>161</v>
       </c>
@@ -3472,8 +4602,26 @@
       <c r="M62" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N62" s="7">
+        <v>1</v>
+      </c>
+      <c r="O62" s="7">
+        <v>0</v>
+      </c>
+      <c r="P62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>0</v>
+      </c>
+      <c r="R62" s="4">
+        <v>0</v>
+      </c>
+      <c r="S62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>163</v>
       </c>
@@ -3503,8 +4651,26 @@
       <c r="M63" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N63" s="7">
+        <v>1</v>
+      </c>
+      <c r="O63" s="7">
+        <v>0</v>
+      </c>
+      <c r="P63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>0</v>
+      </c>
+      <c r="R63" s="4">
+        <v>0</v>
+      </c>
+      <c r="S63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>180</v>
       </c>
@@ -3534,8 +4700,26 @@
       <c r="M64" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N64" s="7">
+        <v>1</v>
+      </c>
+      <c r="O64" s="7">
+        <v>0</v>
+      </c>
+      <c r="P64" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>0</v>
+      </c>
+      <c r="R64" s="4">
+        <v>0</v>
+      </c>
+      <c r="S64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>181</v>
       </c>
@@ -3565,8 +4749,26 @@
       <c r="M65" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N65" s="7">
+        <v>1</v>
+      </c>
+      <c r="O65" s="7">
+        <v>0</v>
+      </c>
+      <c r="P65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>0</v>
+      </c>
+      <c r="R65" s="4">
+        <v>0</v>
+      </c>
+      <c r="S65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>182</v>
       </c>
@@ -3596,8 +4798,26 @@
       <c r="M66" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N66" s="7">
+        <v>1</v>
+      </c>
+      <c r="O66" s="7">
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>0</v>
+      </c>
+      <c r="R66" s="4">
+        <v>0</v>
+      </c>
+      <c r="S66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>183</v>
       </c>
@@ -3627,8 +4847,26 @@
       <c r="M67" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N67" s="7">
+        <v>1</v>
+      </c>
+      <c r="O67" s="7">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>0</v>
+      </c>
+      <c r="R67" s="4">
+        <v>0</v>
+      </c>
+      <c r="S67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
@@ -3663,8 +4901,26 @@
       <c r="M68" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N68" s="7">
+        <v>1</v>
+      </c>
+      <c r="O68" s="7">
+        <v>0</v>
+      </c>
+      <c r="P68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>0</v>
+      </c>
+      <c r="R68" s="4">
+        <v>0</v>
+      </c>
+      <c r="S68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -3699,8 +4955,26 @@
       <c r="M69" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N69" s="7">
+        <v>1</v>
+      </c>
+      <c r="O69" s="7">
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>0</v>
+      </c>
+      <c r="R69" s="4">
+        <v>0</v>
+      </c>
+      <c r="S69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
@@ -3735,8 +5009,26 @@
       <c r="M70" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="N70" s="7">
+        <v>1</v>
+      </c>
+      <c r="O70" s="7">
+        <v>0</v>
+      </c>
+      <c r="P70" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>0</v>
+      </c>
+      <c r="R70" s="4">
+        <v>0</v>
+      </c>
+      <c r="S70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="54" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
@@ -3771,8 +5063,26 @@
       <c r="M71" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N71" s="7">
+        <v>1</v>
+      </c>
+      <c r="O71" s="7">
+        <v>0</v>
+      </c>
+      <c r="P71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>0</v>
+      </c>
+      <c r="R71" s="4">
+        <v>0</v>
+      </c>
+      <c r="S71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
@@ -3807,8 +5117,26 @@
       <c r="M72" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="N72" s="7">
+        <v>1</v>
+      </c>
+      <c r="O72" s="7">
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>0</v>
+      </c>
+      <c r="R72" s="4">
+        <v>0</v>
+      </c>
+      <c r="S72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="54" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>24</v>
       </c>
@@ -3843,8 +5171,26 @@
       <c r="M73" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="N73" s="7">
+        <v>1</v>
+      </c>
+      <c r="O73" s="7">
+        <v>0</v>
+      </c>
+      <c r="P73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>0</v>
+      </c>
+      <c r="R73" s="4">
+        <v>0</v>
+      </c>
+      <c r="S73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="54" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>202</v>
       </c>
@@ -3879,8 +5225,26 @@
       <c r="M74" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N74" s="7">
+        <v>1</v>
+      </c>
+      <c r="O74" s="7">
+        <v>0</v>
+      </c>
+      <c r="P74" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>0</v>
+      </c>
+      <c r="R74" s="4">
+        <v>0</v>
+      </c>
+      <c r="S74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>29</v>
       </c>
@@ -3915,8 +5279,26 @@
       <c r="M75" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N75" s="7">
+        <v>1</v>
+      </c>
+      <c r="O75" s="7">
+        <v>0</v>
+      </c>
+      <c r="P75" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>0</v>
+      </c>
+      <c r="R75" s="4">
+        <v>0</v>
+      </c>
+      <c r="S75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>29</v>
       </c>
@@ -3951,8 +5333,26 @@
       <c r="M76" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N76" s="7">
+        <v>1</v>
+      </c>
+      <c r="O76" s="7">
+        <v>0</v>
+      </c>
+      <c r="P76" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>0</v>
+      </c>
+      <c r="R76" s="4">
+        <v>0</v>
+      </c>
+      <c r="S76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>29</v>
       </c>
@@ -3987,8 +5387,26 @@
       <c r="M77" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N77" s="7">
+        <v>1</v>
+      </c>
+      <c r="O77" s="7">
+        <v>0</v>
+      </c>
+      <c r="P77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>0</v>
+      </c>
+      <c r="R77" s="4">
+        <v>0</v>
+      </c>
+      <c r="S77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
@@ -4023,8 +5441,26 @@
       <c r="M78" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N78" s="7">
+        <v>1</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+      <c r="P78" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>0</v>
+      </c>
+      <c r="R78" s="4">
+        <v>0</v>
+      </c>
+      <c r="S78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -4059,8 +5495,26 @@
       <c r="M79" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N79" s="7">
+        <v>1</v>
+      </c>
+      <c r="O79" s="7">
+        <v>0</v>
+      </c>
+      <c r="P79" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>0</v>
+      </c>
+      <c r="R79" s="4">
+        <v>0</v>
+      </c>
+      <c r="S79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>36</v>
       </c>
@@ -4095,8 +5549,26 @@
       <c r="M80" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N80" s="7">
+        <v>1</v>
+      </c>
+      <c r="O80" s="7">
+        <v>0</v>
+      </c>
+      <c r="P80" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>0</v>
+      </c>
+      <c r="R80" s="4">
+        <v>0</v>
+      </c>
+      <c r="S80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
@@ -4128,8 +5600,26 @@
       <c r="M81" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N81" s="7">
+        <v>1</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
+      <c r="P81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>0</v>
+      </c>
+      <c r="R81" s="4">
+        <v>0</v>
+      </c>
+      <c r="S81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>41</v>
       </c>
@@ -4161,8 +5651,26 @@
       <c r="M82" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N82" s="7">
+        <v>1</v>
+      </c>
+      <c r="O82" s="7">
+        <v>0</v>
+      </c>
+      <c r="P82" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>0</v>
+      </c>
+      <c r="R82" s="4">
+        <v>0</v>
+      </c>
+      <c r="S82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>42</v>
       </c>
@@ -4198,8 +5706,26 @@
       <c r="M83" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N83" s="7">
+        <v>1</v>
+      </c>
+      <c r="O83" s="7">
+        <v>0</v>
+      </c>
+      <c r="P83" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>1</v>
+      </c>
+      <c r="R83" s="4">
+        <v>1</v>
+      </c>
+      <c r="S83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>42</v>
       </c>
@@ -4235,8 +5761,26 @@
       <c r="M84" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N84" s="7">
+        <v>1</v>
+      </c>
+      <c r="O84" s="7">
+        <v>0</v>
+      </c>
+      <c r="P84" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>1</v>
+      </c>
+      <c r="R84" s="4">
+        <v>1</v>
+      </c>
+      <c r="S84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>42</v>
       </c>
@@ -4272,8 +5816,26 @@
       <c r="M85" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N85" s="7">
+        <v>1</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+      <c r="P85" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>1</v>
+      </c>
+      <c r="R85" s="4">
+        <v>1</v>
+      </c>
+      <c r="S85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>42</v>
       </c>
@@ -4309,8 +5871,26 @@
       <c r="M86" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N86" s="7">
+        <v>1</v>
+      </c>
+      <c r="O86" s="7">
+        <v>0</v>
+      </c>
+      <c r="P86" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>1</v>
+      </c>
+      <c r="R86" s="4">
+        <v>1</v>
+      </c>
+      <c r="S86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>51</v>
       </c>
@@ -4346,8 +5926,26 @@
       <c r="M87" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N87" s="7">
+        <v>1</v>
+      </c>
+      <c r="O87" s="7">
+        <v>0</v>
+      </c>
+      <c r="P87" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>1</v>
+      </c>
+      <c r="R87" s="4">
+        <v>1</v>
+      </c>
+      <c r="S87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>51</v>
       </c>
@@ -4383,8 +5981,26 @@
       <c r="M88" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N88" s="7">
+        <v>1</v>
+      </c>
+      <c r="O88" s="7">
+        <v>0</v>
+      </c>
+      <c r="P88" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>1</v>
+      </c>
+      <c r="R88" s="4">
+        <v>1</v>
+      </c>
+      <c r="S88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>51</v>
       </c>
@@ -4420,8 +6036,26 @@
       <c r="M89" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N89" s="7">
+        <v>1</v>
+      </c>
+      <c r="O89" s="7">
+        <v>0</v>
+      </c>
+      <c r="P89" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>1</v>
+      </c>
+      <c r="R89" s="4">
+        <v>1</v>
+      </c>
+      <c r="S89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>51</v>
       </c>
@@ -4456,6 +6090,24 @@
       </c>
       <c r="M90" s="3" t="s">
         <v>144</v>
+      </c>
+      <c r="N90" s="7">
+        <v>1</v>
+      </c>
+      <c r="O90" s="7">
+        <v>0</v>
+      </c>
+      <c r="P90" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>1</v>
+      </c>
+      <c r="R90" s="4">
+        <v>1</v>
+      </c>
+      <c r="S90" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4467,10 +6119,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4484,9 +6138,10 @@
     <col min="10" max="10" width="15.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.875" style="1" customWidth="1"/>
     <col min="12" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="19" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4526,8 +6181,26 @@
       <c r="M1" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N1" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -4562,8 +6235,26 @@
       <c r="M2" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -4598,8 +6289,26 @@
       <c r="M3" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4634,8 +6343,26 @@
       <c r="M4" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -4670,8 +6397,26 @@
       <c r="M5" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4706,8 +6451,26 @@
       <c r="M6" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4742,8 +6505,26 @@
       <c r="M7" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -4778,8 +6559,26 @@
       <c r="M8" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4814,8 +6613,26 @@
       <c r="M9" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4850,8 +6667,26 @@
       <c r="M10" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -4886,8 +6721,26 @@
       <c r="M11" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -4922,8 +6775,26 @@
       <c r="M12" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4958,8 +6829,26 @@
       <c r="M13" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -4994,8 +6883,26 @@
       <c r="M14" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -5030,8 +6937,26 @@
       <c r="M15" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -5066,8 +6991,26 @@
       <c r="M16" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N16" s="7">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -5102,8 +7045,26 @@
       <c r="M17" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -5138,8 +7099,26 @@
       <c r="M18" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -5174,8 +7153,26 @@
       <c r="M19" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -5210,8 +7207,26 @@
       <c r="M20" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N20" s="7">
+        <v>1</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -5246,8 +7261,26 @@
       <c r="M21" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -5282,8 +7315,26 @@
       <c r="M22" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N22" s="7">
+        <v>1</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -5318,8 +7369,26 @@
       <c r="M23" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N23" s="7">
+        <v>1</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -5354,8 +7423,26 @@
       <c r="M24" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N24" s="7">
+        <v>1</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -5390,8 +7477,26 @@
       <c r="M25" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N25" s="7">
+        <v>1</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -5426,8 +7531,26 @@
       <c r="M26" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N26" s="7">
+        <v>1</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -5462,8 +7585,26 @@
       <c r="M27" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N27" s="7">
+        <v>1</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -5498,8 +7639,26 @@
       <c r="M28" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N28" s="7">
+        <v>1</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -5534,8 +7693,26 @@
       <c r="M29" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N29" s="7">
+        <v>1</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -5570,8 +7747,26 @@
       <c r="M30" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N30" s="7">
+        <v>1</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -5606,8 +7801,26 @@
       <c r="M31" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N31" s="7">
+        <v>1</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -5642,8 +7855,26 @@
       <c r="M32" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N32" s="7">
+        <v>1</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -5678,8 +7909,26 @@
       <c r="M33" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N33" s="7">
+        <v>1</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>0</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0</v>
+      </c>
+      <c r="S33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -5714,8 +7963,26 @@
       <c r="M34" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N34" s="7">
+        <v>1</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>0</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -5750,8 +8017,26 @@
       <c r="M35" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N35" s="7">
+        <v>1</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -5786,8 +8071,26 @@
       <c r="M36" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N36" s="7">
+        <v>1</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -5822,8 +8125,26 @@
       <c r="M37" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N37" s="7">
+        <v>1</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>0</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -5858,8 +8179,26 @@
       <c r="M38" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N38" s="7">
+        <v>1</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
+        <v>0</v>
+      </c>
+      <c r="S38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -5894,8 +8233,26 @@
       <c r="M39" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N39" s="7">
+        <v>1</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>0</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0</v>
+      </c>
+      <c r="S39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -5930,8 +8287,26 @@
       <c r="M40" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N40" s="7">
+        <v>1</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>0</v>
+      </c>
+      <c r="R40" s="4">
+        <v>0</v>
+      </c>
+      <c r="S40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -5966,8 +8341,26 @@
       <c r="M41" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N41" s="7">
+        <v>1</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>0</v>
+      </c>
+      <c r="R41" s="4">
+        <v>0</v>
+      </c>
+      <c r="S41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -6002,8 +8395,26 @@
       <c r="M42" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N42" s="7">
+        <v>1</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -6038,8 +8449,26 @@
       <c r="M43" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N43" s="7">
+        <v>1</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>0</v>
+      </c>
+      <c r="R43" s="4">
+        <v>0</v>
+      </c>
+      <c r="S43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -6074,8 +8503,26 @@
       <c r="M44" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N44" s="7">
+        <v>1</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -6110,8 +8557,26 @@
       <c r="M45" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N45" s="7">
+        <v>1</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>0</v>
+      </c>
+      <c r="R45" s="4">
+        <v>0</v>
+      </c>
+      <c r="S45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -6146,8 +8611,26 @@
       <c r="M46" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N46" s="7">
+        <v>1</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>0</v>
+      </c>
+      <c r="R46" s="4">
+        <v>0</v>
+      </c>
+      <c r="S46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -6182,8 +8665,26 @@
       <c r="M47" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N47" s="7">
+        <v>1</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>0</v>
+      </c>
+      <c r="R47" s="4">
+        <v>0</v>
+      </c>
+      <c r="S47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -6218,8 +8719,26 @@
       <c r="M48" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N48" s="7">
+        <v>1</v>
+      </c>
+      <c r="O48" s="7">
+        <v>0</v>
+      </c>
+      <c r="P48" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>0</v>
+      </c>
+      <c r="R48" s="4">
+        <v>0</v>
+      </c>
+      <c r="S48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -6254,8 +8773,26 @@
       <c r="M49" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N49" s="7">
+        <v>1</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>0</v>
+      </c>
+      <c r="R49" s="4">
+        <v>0</v>
+      </c>
+      <c r="S49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -6290,8 +8827,26 @@
       <c r="M50" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N50" s="7">
+        <v>1</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>0</v>
+      </c>
+      <c r="R50" s="4">
+        <v>0</v>
+      </c>
+      <c r="S50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -6326,8 +8881,26 @@
       <c r="M51" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N51" s="7">
+        <v>1</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>0</v>
+      </c>
+      <c r="R51" s="4">
+        <v>0</v>
+      </c>
+      <c r="S51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -6362,8 +8935,26 @@
       <c r="M52" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N52" s="7">
+        <v>1</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>0</v>
+      </c>
+      <c r="R52" s="4">
+        <v>0</v>
+      </c>
+      <c r="S52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -6398,8 +8989,26 @@
       <c r="M53" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N53" s="7">
+        <v>1</v>
+      </c>
+      <c r="O53" s="7">
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>0</v>
+      </c>
+      <c r="R53" s="4">
+        <v>0</v>
+      </c>
+      <c r="S53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -6434,8 +9043,26 @@
       <c r="M54" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N54" s="7">
+        <v>1</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0</v>
+      </c>
+      <c r="P54" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>0</v>
+      </c>
+      <c r="R54" s="4">
+        <v>0</v>
+      </c>
+      <c r="S54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -6470,8 +9097,26 @@
       <c r="M55" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N55" s="7">
+        <v>1</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>0</v>
+      </c>
+      <c r="R55" s="4">
+        <v>0</v>
+      </c>
+      <c r="S55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
@@ -6506,8 +9151,26 @@
       <c r="M56" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N56" s="7">
+        <v>1</v>
+      </c>
+      <c r="O56" s="7">
+        <v>0</v>
+      </c>
+      <c r="P56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>0</v>
+      </c>
+      <c r="R56" s="4">
+        <v>0</v>
+      </c>
+      <c r="S56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -6542,8 +9205,26 @@
       <c r="M57" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N57" s="7">
+        <v>1</v>
+      </c>
+      <c r="O57" s="7">
+        <v>0</v>
+      </c>
+      <c r="P57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>0</v>
+      </c>
+      <c r="R57" s="4">
+        <v>0</v>
+      </c>
+      <c r="S57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -6578,8 +9259,26 @@
       <c r="M58" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N58" s="7">
+        <v>1</v>
+      </c>
+      <c r="O58" s="7">
+        <v>0</v>
+      </c>
+      <c r="P58" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>0</v>
+      </c>
+      <c r="R58" s="4">
+        <v>0</v>
+      </c>
+      <c r="S58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -6614,8 +9313,26 @@
       <c r="M59" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N59" s="7">
+        <v>1</v>
+      </c>
+      <c r="O59" s="7">
+        <v>0</v>
+      </c>
+      <c r="P59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>0</v>
+      </c>
+      <c r="R59" s="4">
+        <v>0</v>
+      </c>
+      <c r="S59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -6650,8 +9367,26 @@
       <c r="M60" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N60" s="7">
+        <v>1</v>
+      </c>
+      <c r="O60" s="7">
+        <v>0</v>
+      </c>
+      <c r="P60" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>0</v>
+      </c>
+      <c r="R60" s="4">
+        <v>0</v>
+      </c>
+      <c r="S60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -6686,8 +9421,26 @@
       <c r="M61" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N61" s="7">
+        <v>1</v>
+      </c>
+      <c r="O61" s="7">
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>0</v>
+      </c>
+      <c r="R61" s="4">
+        <v>0</v>
+      </c>
+      <c r="S61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -6722,8 +9475,26 @@
       <c r="M62" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N62" s="7">
+        <v>1</v>
+      </c>
+      <c r="O62" s="7">
+        <v>0</v>
+      </c>
+      <c r="P62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>0</v>
+      </c>
+      <c r="R62" s="4">
+        <v>0</v>
+      </c>
+      <c r="S62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -6758,8 +9529,26 @@
       <c r="M63" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N63" s="7">
+        <v>1</v>
+      </c>
+      <c r="O63" s="7">
+        <v>0</v>
+      </c>
+      <c r="P63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>0</v>
+      </c>
+      <c r="R63" s="4">
+        <v>0</v>
+      </c>
+      <c r="S63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -6794,8 +9583,26 @@
       <c r="M64" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N64" s="7">
+        <v>1</v>
+      </c>
+      <c r="O64" s="7">
+        <v>0</v>
+      </c>
+      <c r="P64" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>0</v>
+      </c>
+      <c r="R64" s="4">
+        <v>0</v>
+      </c>
+      <c r="S64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -6830,8 +9637,26 @@
       <c r="M65" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N65" s="7">
+        <v>1</v>
+      </c>
+      <c r="O65" s="7">
+        <v>0</v>
+      </c>
+      <c r="P65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>0</v>
+      </c>
+      <c r="R65" s="4">
+        <v>0</v>
+      </c>
+      <c r="S65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -6866,8 +9691,26 @@
       <c r="M66" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N66" s="7">
+        <v>1</v>
+      </c>
+      <c r="O66" s="7">
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>0</v>
+      </c>
+      <c r="R66" s="4">
+        <v>0</v>
+      </c>
+      <c r="S66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
@@ -6902,8 +9745,26 @@
       <c r="M67" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N67" s="7">
+        <v>1</v>
+      </c>
+      <c r="O67" s="7">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>0</v>
+      </c>
+      <c r="R67" s="4">
+        <v>0</v>
+      </c>
+      <c r="S67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
@@ -6938,8 +9799,26 @@
       <c r="M68" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N68" s="7">
+        <v>1</v>
+      </c>
+      <c r="O68" s="7">
+        <v>0</v>
+      </c>
+      <c r="P68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>0</v>
+      </c>
+      <c r="R68" s="4">
+        <v>0</v>
+      </c>
+      <c r="S68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -6974,8 +9853,26 @@
       <c r="M69" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N69" s="7">
+        <v>1</v>
+      </c>
+      <c r="O69" s="7">
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>0</v>
+      </c>
+      <c r="R69" s="4">
+        <v>0</v>
+      </c>
+      <c r="S69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
@@ -7010,8 +9907,26 @@
       <c r="M70" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="N70" s="7">
+        <v>1</v>
+      </c>
+      <c r="O70" s="7">
+        <v>0</v>
+      </c>
+      <c r="P70" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>0</v>
+      </c>
+      <c r="R70" s="4">
+        <v>0</v>
+      </c>
+      <c r="S70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="54" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
@@ -7049,8 +9964,26 @@
       <c r="M71" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="N71" s="7">
+        <v>1</v>
+      </c>
+      <c r="O71" s="7">
+        <v>0</v>
+      </c>
+      <c r="P71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>0</v>
+      </c>
+      <c r="R71" s="4">
+        <v>0</v>
+      </c>
+      <c r="S71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="54" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>67</v>
       </c>
@@ -7088,8 +10021,26 @@
       <c r="M72" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="N72" s="7">
+        <v>1</v>
+      </c>
+      <c r="O72" s="7">
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>0</v>
+      </c>
+      <c r="R72" s="4">
+        <v>0</v>
+      </c>
+      <c r="S72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="54" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>67</v>
       </c>
@@ -7127,8 +10078,26 @@
       <c r="M73" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="N73" s="7">
+        <v>1</v>
+      </c>
+      <c r="O73" s="7">
+        <v>0</v>
+      </c>
+      <c r="P73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>0</v>
+      </c>
+      <c r="R73" s="4">
+        <v>0</v>
+      </c>
+      <c r="S73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="54" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>67</v>
       </c>
@@ -7166,8 +10135,26 @@
       <c r="M74" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="N74" s="7">
+        <v>1</v>
+      </c>
+      <c r="O74" s="7">
+        <v>0</v>
+      </c>
+      <c r="P74" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>0</v>
+      </c>
+      <c r="R74" s="4">
+        <v>0</v>
+      </c>
+      <c r="S74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="54" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -7205,8 +10192,26 @@
       <c r="M75" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="N75" s="7">
+        <v>1</v>
+      </c>
+      <c r="O75" s="7">
+        <v>0</v>
+      </c>
+      <c r="P75" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>0</v>
+      </c>
+      <c r="R75" s="4">
+        <v>0</v>
+      </c>
+      <c r="S75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="54" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -7244,8 +10249,26 @@
       <c r="M76" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="N76" s="7">
+        <v>1</v>
+      </c>
+      <c r="O76" s="7">
+        <v>0</v>
+      </c>
+      <c r="P76" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>0</v>
+      </c>
+      <c r="R76" s="4">
+        <v>0</v>
+      </c>
+      <c r="S76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="54" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>73</v>
       </c>
@@ -7283,8 +10306,26 @@
       <c r="M77" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="N77" s="7">
+        <v>1</v>
+      </c>
+      <c r="O77" s="7">
+        <v>0</v>
+      </c>
+      <c r="P77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>0</v>
+      </c>
+      <c r="R77" s="4">
+        <v>0</v>
+      </c>
+      <c r="S77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="54" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>73</v>
       </c>
@@ -7322,8 +10363,26 @@
       <c r="M78" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N78" s="7">
+        <v>1</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+      <c r="P78" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>0</v>
+      </c>
+      <c r="R78" s="4">
+        <v>0</v>
+      </c>
+      <c r="S78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -7358,8 +10417,26 @@
       <c r="M79" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N79" s="7">
+        <v>1</v>
+      </c>
+      <c r="O79" s="7">
+        <v>0</v>
+      </c>
+      <c r="P79" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>0</v>
+      </c>
+      <c r="R79" s="4">
+        <v>0</v>
+      </c>
+      <c r="S79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -7394,8 +10471,26 @@
       <c r="M80" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N80" s="7">
+        <v>1</v>
+      </c>
+      <c r="O80" s="7">
+        <v>0</v>
+      </c>
+      <c r="P80" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>0</v>
+      </c>
+      <c r="R80" s="4">
+        <v>0</v>
+      </c>
+      <c r="S80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>155</v>
       </c>
@@ -7425,8 +10520,26 @@
       <c r="M81" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N81" s="7">
+        <v>1</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
+      <c r="P81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>0</v>
+      </c>
+      <c r="R81" s="4">
+        <v>0</v>
+      </c>
+      <c r="S81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -7456,8 +10569,26 @@
       <c r="M82" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N82" s="7">
+        <v>1</v>
+      </c>
+      <c r="O82" s="7">
+        <v>0</v>
+      </c>
+      <c r="P82" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>0</v>
+      </c>
+      <c r="R82" s="4">
+        <v>0</v>
+      </c>
+      <c r="S82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>86</v>
       </c>
@@ -7492,8 +10623,26 @@
       <c r="M83" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N83" s="7">
+        <v>1</v>
+      </c>
+      <c r="O83" s="7">
+        <v>0</v>
+      </c>
+      <c r="P83" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>0</v>
+      </c>
+      <c r="R83" s="4">
+        <v>0</v>
+      </c>
+      <c r="S83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -7533,8 +10682,26 @@
       <c r="M84" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N84" s="7">
+        <v>1</v>
+      </c>
+      <c r="O84" s="7">
+        <v>0</v>
+      </c>
+      <c r="P84" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>0</v>
+      </c>
+      <c r="R84" s="4">
+        <v>0</v>
+      </c>
+      <c r="S84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -7569,8 +10736,26 @@
       <c r="M85" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N85" s="7">
+        <v>1</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+      <c r="P85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>0</v>
+      </c>
+      <c r="R85" s="4">
+        <v>0</v>
+      </c>
+      <c r="S85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
@@ -7608,8 +10793,26 @@
       <c r="M86" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N86" s="7">
+        <v>1</v>
+      </c>
+      <c r="O86" s="7">
+        <v>0</v>
+      </c>
+      <c r="P86" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>0</v>
+      </c>
+      <c r="R86" s="4">
+        <v>0</v>
+      </c>
+      <c r="S86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -7644,8 +10847,26 @@
       <c r="M87" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N87" s="7">
+        <v>1</v>
+      </c>
+      <c r="O87" s="7">
+        <v>0</v>
+      </c>
+      <c r="P87" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>0</v>
+      </c>
+      <c r="R87" s="4">
+        <v>0</v>
+      </c>
+      <c r="S87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -7683,8 +10904,26 @@
       <c r="M88" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N88" s="7">
+        <v>1</v>
+      </c>
+      <c r="O88" s="7">
+        <v>0</v>
+      </c>
+      <c r="P88" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>0</v>
+      </c>
+      <c r="R88" s="4">
+        <v>0</v>
+      </c>
+      <c r="S88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -7719,8 +10958,26 @@
       <c r="M89" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N89" s="7">
+        <v>1</v>
+      </c>
+      <c r="O89" s="7">
+        <v>0</v>
+      </c>
+      <c r="P89" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>0</v>
+      </c>
+      <c r="R89" s="4">
+        <v>0</v>
+      </c>
+      <c r="S89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>99</v>
       </c>
@@ -7758,8 +11015,26 @@
       <c r="M90" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N90" s="7">
+        <v>1</v>
+      </c>
+      <c r="O90" s="7">
+        <v>0</v>
+      </c>
+      <c r="P90" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>0</v>
+      </c>
+      <c r="R90" s="4">
+        <v>0</v>
+      </c>
+      <c r="S90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>285</v>
       </c>
@@ -7792,8 +11067,26 @@
       <c r="M91" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N91" s="7">
+        <v>1</v>
+      </c>
+      <c r="O91" s="7">
+        <v>0</v>
+      </c>
+      <c r="P91" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>0</v>
+      </c>
+      <c r="R91" s="4">
+        <v>0</v>
+      </c>
+      <c r="S91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>285</v>
       </c>
@@ -7831,8 +11124,26 @@
       <c r="M92" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N92" s="7">
+        <v>1</v>
+      </c>
+      <c r="O92" s="7">
+        <v>0</v>
+      </c>
+      <c r="P92" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>0</v>
+      </c>
+      <c r="R92" s="4">
+        <v>0</v>
+      </c>
+      <c r="S92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>285</v>
       </c>
@@ -7867,8 +11178,26 @@
       <c r="M93" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N93" s="7">
+        <v>1</v>
+      </c>
+      <c r="O93" s="7">
+        <v>0</v>
+      </c>
+      <c r="P93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>0</v>
+      </c>
+      <c r="R93" s="4">
+        <v>0</v>
+      </c>
+      <c r="S93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>285</v>
       </c>
@@ -7906,8 +11235,26 @@
       <c r="M94" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N94" s="7">
+        <v>1</v>
+      </c>
+      <c r="O94" s="7">
+        <v>0</v>
+      </c>
+      <c r="P94" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>0</v>
+      </c>
+      <c r="R94" s="4">
+        <v>0</v>
+      </c>
+      <c r="S94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>290</v>
       </c>
@@ -7942,8 +11289,26 @@
       <c r="M95" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N95" s="7">
+        <v>1</v>
+      </c>
+      <c r="O95" s="7">
+        <v>0</v>
+      </c>
+      <c r="P95" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>0</v>
+      </c>
+      <c r="R95" s="4">
+        <v>0</v>
+      </c>
+      <c r="S95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
         <v>290</v>
       </c>
@@ -7981,8 +11346,26 @@
       <c r="M96" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="N96" s="7">
+        <v>1</v>
+      </c>
+      <c r="O96" s="7">
+        <v>0</v>
+      </c>
+      <c r="P96" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>0</v>
+      </c>
+      <c r="R96" s="4">
+        <v>0</v>
+      </c>
+      <c r="S96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>29</v>
       </c>
@@ -8018,12 +11401,30 @@
       <c r="M97" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N97" s="7">
+        <v>1</v>
+      </c>
+      <c r="O97" s="7">
+        <v>0</v>
+      </c>
+      <c r="P97" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>0</v>
+      </c>
+      <c r="R97" s="4">
+        <v>0</v>
+      </c>
+      <c r="S97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L98" s="2"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L99" s="2"/>
       <c r="M99" s="3"/>
     </row>

--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fis\AI研究中心\02临时文件\张皓\模板文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Git\ThMEPEngine\AutoLoader\Contents\Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="298">
   <si>
     <t>源块名</t>
   </si>
@@ -335,10 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E-BDB054,E-FAS23-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E-BFAS621-2,E-BFAS622</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1023,7 +1019,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>E-BDB054,E-FAS23-3</t>
+    <t>E-BDB054,E-BFAS23-3</t>
+  </si>
+  <si>
+    <t>E-BDB054,E-BFAS23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-BDB054,E-BFAS23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1389,9 +1393,9 @@
   <dimension ref="A1:S90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="T88" sqref="T88"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1415,10 +1419,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1427,10 +1431,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -1439,31 +1443,31 @@
         <v>103</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="N1" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="27" x14ac:dyDescent="0.15">
@@ -1471,7 +1475,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -1483,7 +1487,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="1">
@@ -1494,10 +1498,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N2" s="7">
         <v>1</v>
@@ -1520,10 +1524,10 @@
     </row>
     <row r="3" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1535,7 +1539,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="1">
@@ -1546,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N3" s="7">
         <v>1</v>
@@ -1572,10 +1576,10 @@
     </row>
     <row r="4" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1587,7 +1591,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="1">
@@ -1598,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N4" s="7">
         <v>1</v>
@@ -1624,10 +1628,10 @@
     </row>
     <row r="5" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -1639,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="1">
@@ -1650,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N5" s="7">
         <v>1</v>
@@ -1676,10 +1680,10 @@
     </row>
     <row r="6" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -1691,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="1">
@@ -1702,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N6" s="7">
         <v>1</v>
@@ -1728,10 +1732,10 @@
     </row>
     <row r="7" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1743,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="1">
@@ -1754,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N7" s="7">
         <v>1</v>
@@ -1780,10 +1784,10 @@
     </row>
     <row r="8" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -1795,7 +1799,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="1">
@@ -1806,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N8" s="7">
         <v>1</v>
@@ -1832,10 +1836,10 @@
     </row>
     <row r="9" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -1847,7 +1851,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="1">
@@ -1858,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N9" s="7">
         <v>1</v>
@@ -1884,10 +1888,10 @@
     </row>
     <row r="10" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -1899,7 +1903,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="1">
@@ -1910,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N10" s="7">
         <v>1</v>
@@ -1936,10 +1940,10 @@
     </row>
     <row r="11" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -1951,7 +1955,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="1">
@@ -1962,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N11" s="7">
         <v>1</v>
@@ -1988,10 +1992,10 @@
     </row>
     <row r="12" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -2003,7 +2007,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="1">
@@ -2014,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N12" s="7">
         <v>1</v>
@@ -2040,10 +2044,10 @@
     </row>
     <row r="13" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -2055,7 +2059,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="1">
@@ -2066,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N13" s="7">
         <v>1</v>
@@ -2092,10 +2096,10 @@
     </row>
     <row r="14" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -2107,7 +2111,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="1">
@@ -2118,10 +2122,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N14" s="7">
         <v>1</v>
@@ -2144,10 +2148,10 @@
     </row>
     <row r="15" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -2159,7 +2163,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="1">
@@ -2170,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N15" s="7">
         <v>1</v>
@@ -2196,10 +2200,10 @@
     </row>
     <row r="16" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -2211,7 +2215,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="1">
@@ -2222,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N16" s="7">
         <v>1</v>
@@ -2248,10 +2252,10 @@
     </row>
     <row r="17" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -2263,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="1">
@@ -2274,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N17" s="7">
         <v>1</v>
@@ -2300,10 +2304,10 @@
     </row>
     <row r="18" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -2315,7 +2319,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="1">
@@ -2326,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N18" s="7">
         <v>1</v>
@@ -2352,10 +2356,10 @@
     </row>
     <row r="19" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -2367,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="1">
@@ -2378,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N19" s="7">
         <v>1</v>
@@ -2404,10 +2408,10 @@
     </row>
     <row r="20" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2419,7 +2423,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="1">
@@ -2430,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N20" s="7">
         <v>1</v>
@@ -2456,10 +2460,10 @@
     </row>
     <row r="21" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2471,7 +2475,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="1">
@@ -2482,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N21" s="7">
         <v>1</v>
@@ -2508,10 +2512,10 @@
     </row>
     <row r="22" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -2523,7 +2527,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="1">
@@ -2534,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N22" s="7">
         <v>1</v>
@@ -2560,10 +2564,10 @@
     </row>
     <row r="23" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -2575,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="1">
@@ -2586,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N23" s="7">
         <v>1</v>
@@ -2612,10 +2616,10 @@
     </row>
     <row r="24" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -2627,7 +2631,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="1">
@@ -2638,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N24" s="7">
         <v>1</v>
@@ -2664,10 +2668,10 @@
     </row>
     <row r="25" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -2679,7 +2683,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="1">
@@ -2690,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N25" s="7">
         <v>1</v>
@@ -2716,10 +2720,10 @@
     </row>
     <row r="26" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -2731,7 +2735,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="1">
@@ -2742,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N26" s="7">
         <v>1</v>
@@ -2768,10 +2772,10 @@
     </row>
     <row r="27" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -2783,7 +2787,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="1">
@@ -2794,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N27" s="7">
         <v>1</v>
@@ -2820,10 +2824,10 @@
     </row>
     <row r="28" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -2835,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="1">
@@ -2846,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N28" s="7">
         <v>1</v>
@@ -2872,10 +2876,10 @@
     </row>
     <row r="29" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -2887,7 +2891,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="1">
@@ -2898,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N29" s="7">
         <v>1</v>
@@ -2924,10 +2928,10 @@
     </row>
     <row r="30" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -2939,7 +2943,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="1">
@@ -2950,10 +2954,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N30" s="7">
         <v>1</v>
@@ -2976,10 +2980,10 @@
     </row>
     <row r="31" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -2991,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="1">
@@ -3002,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N31" s="7">
         <v>1</v>
@@ -3028,10 +3032,10 @@
     </row>
     <row r="32" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -3043,7 +3047,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="1">
@@ -3054,10 +3058,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N32" s="7">
         <v>1</v>
@@ -3080,10 +3084,10 @@
     </row>
     <row r="33" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -3095,7 +3099,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="1">
@@ -3106,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N33" s="7">
         <v>1</v>
@@ -3132,10 +3136,10 @@
     </row>
     <row r="34" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -3147,7 +3151,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="1">
@@ -3158,10 +3162,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N34" s="7">
         <v>1</v>
@@ -3184,10 +3188,10 @@
     </row>
     <row r="35" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -3199,7 +3203,7 @@
         <v>7</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="1">
@@ -3210,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N35" s="7">
         <v>1</v>
@@ -3236,10 +3240,10 @@
     </row>
     <row r="36" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -3251,7 +3255,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="1">
@@ -3262,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N36" s="7">
         <v>1</v>
@@ -3288,10 +3292,10 @@
     </row>
     <row r="37" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -3303,7 +3307,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="1">
@@ -3314,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N37" s="7">
         <v>1</v>
@@ -3340,10 +3344,10 @@
     </row>
     <row r="38" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -3355,7 +3359,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="1">
@@ -3366,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N38" s="7">
         <v>1</v>
@@ -3392,13 +3396,13 @@
     </row>
     <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>6</v>
@@ -3407,7 +3411,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="1">
@@ -3418,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M39" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N39" s="7">
         <v>1</v>
@@ -3444,10 +3448,10 @@
     </row>
     <row r="40" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -3459,7 +3463,7 @@
         <v>7</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="1">
@@ -3470,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N40" s="7">
         <v>1</v>
@@ -3499,7 +3503,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -3511,7 +3515,7 @@
         <v>7</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="1">
@@ -3522,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M41" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N41" s="7">
         <v>1</v>
@@ -3551,7 +3555,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -3563,7 +3567,7 @@
         <v>7</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="1">
@@ -3574,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N42" s="7">
         <v>1</v>
@@ -3603,10 +3607,10 @@
         <v>10</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
@@ -3615,7 +3619,7 @@
         <v>7</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="1">
@@ -3626,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M43" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="N43" s="7">
         <v>1</v>
@@ -3652,10 +3656,10 @@
     </row>
     <row r="44" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -3667,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="1">
@@ -3677,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N44" s="7">
         <v>1</v>
@@ -3703,10 +3707,10 @@
     </row>
     <row r="45" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -3718,7 +3722,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="1">
@@ -3728,10 +3732,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N45" s="7">
         <v>1</v>
@@ -3754,10 +3758,10 @@
     </row>
     <row r="46" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -3769,7 +3773,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="1">
@@ -3779,10 +3783,10 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N46" s="7">
         <v>1</v>
@@ -3808,7 +3812,7 @@
         <v>11</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -3820,7 +3824,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="1">
@@ -3830,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N47" s="7">
         <v>1</v>
@@ -3859,7 +3863,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -3871,7 +3875,7 @@
         <v>13</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="1">
@@ -3881,10 +3885,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N48" s="7">
         <v>1</v>
@@ -3910,7 +3914,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -3922,7 +3926,7 @@
         <v>13</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="1">
@@ -3932,10 +3936,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N49" s="7">
         <v>1</v>
@@ -3961,7 +3965,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -3973,7 +3977,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="1">
@@ -3983,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N50" s="7">
         <v>1</v>
@@ -4012,7 +4016,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
@@ -4024,7 +4028,7 @@
         <v>13</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="1">
@@ -4034,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N51" s="7">
         <v>1</v>
@@ -4063,7 +4067,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
@@ -4075,7 +4079,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="1">
@@ -4085,10 +4089,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N52" s="7">
         <v>1</v>
@@ -4114,7 +4118,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -4126,7 +4130,7 @@
         <v>13</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="1">
@@ -4136,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N53" s="7">
         <v>1</v>
@@ -4165,7 +4169,7 @@
         <v>20</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
@@ -4177,7 +4181,7 @@
         <v>13</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="1">
@@ -4187,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N54" s="7">
         <v>1</v>
@@ -4213,20 +4217,20 @@
     </row>
     <row r="55" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="1">
@@ -4236,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N55" s="7">
         <v>1</v>
@@ -4262,20 +4266,20 @@
     </row>
     <row r="56" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="1">
@@ -4285,10 +4289,10 @@
         <v>0</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N56" s="7">
         <v>1</v>
@@ -4311,20 +4315,20 @@
     </row>
     <row r="57" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="1">
@@ -4334,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N57" s="7">
         <v>1</v>
@@ -4360,20 +4364,20 @@
     </row>
     <row r="58" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="1">
@@ -4383,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N58" s="7">
         <v>1</v>
@@ -4409,20 +4413,20 @@
     </row>
     <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="1">
@@ -4432,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N59" s="7">
         <v>1</v>
@@ -4458,20 +4462,20 @@
     </row>
     <row r="60" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="1">
@@ -4481,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N60" s="7">
         <v>1</v>
@@ -4507,20 +4511,20 @@
     </row>
     <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="1">
@@ -4530,10 +4534,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N61" s="7">
         <v>1</v>
@@ -4556,20 +4560,20 @@
     </row>
     <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="1">
@@ -4579,10 +4583,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N62" s="7">
         <v>1</v>
@@ -4605,20 +4609,20 @@
     </row>
     <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="1">
@@ -4628,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N63" s="7">
         <v>1</v>
@@ -4654,20 +4658,20 @@
     </row>
     <row r="64" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="1">
@@ -4677,10 +4681,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N64" s="7">
         <v>1</v>
@@ -4703,20 +4707,20 @@
     </row>
     <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="1">
@@ -4726,10 +4730,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N65" s="7">
         <v>1</v>
@@ -4752,20 +4756,20 @@
     </row>
     <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="1">
@@ -4775,10 +4779,10 @@
         <v>0</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N66" s="7">
         <v>1</v>
@@ -4801,20 +4805,20 @@
     </row>
     <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="1">
@@ -4824,10 +4828,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N67" s="7">
         <v>1</v>
@@ -4853,10 +4857,10 @@
         <v>21</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
@@ -4868,7 +4872,7 @@
         <v>23</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="1">
@@ -4878,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N68" s="7">
         <v>1</v>
@@ -4907,10 +4911,10 @@
         <v>21</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -4922,7 +4926,7 @@
         <v>23</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="1">
@@ -4932,10 +4936,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N69" s="7">
         <v>1</v>
@@ -4964,7 +4968,7 @@
         <v>25</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
@@ -4976,7 +4980,7 @@
         <v>23</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="1">
@@ -4986,10 +4990,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N70" s="7">
         <v>1</v>
@@ -5018,7 +5022,7 @@
         <v>26</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D71" s="3">
         <v>0</v>
@@ -5030,7 +5034,7 @@
         <v>23</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="1">
@@ -5040,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N71" s="7">
         <v>1</v>
@@ -5072,7 +5076,7 @@
         <v>27</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D72" s="3">
         <v>0</v>
@@ -5084,7 +5088,7 @@
         <v>23</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="1">
@@ -5094,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N72" s="7">
         <v>1</v>
@@ -5126,7 +5130,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
@@ -5138,7 +5142,7 @@
         <v>23</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="1">
@@ -5148,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N73" s="7">
         <v>1</v>
@@ -5174,13 +5178,13 @@
     </row>
     <row r="74" spans="1:19" ht="54" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
@@ -5192,7 +5196,7 @@
         <v>23</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="1">
@@ -5202,10 +5206,10 @@
         <v>0</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N74" s="7">
         <v>1</v>
@@ -5234,7 +5238,7 @@
         <v>30</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -5246,7 +5250,7 @@
         <v>23</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="1">
@@ -5256,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N75" s="7">
         <v>1</v>
@@ -5288,7 +5292,7 @@
         <v>32</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="3">
         <v>0</v>
@@ -5300,7 +5304,7 @@
         <v>23</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="1">
@@ -5310,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N76" s="7">
         <v>1</v>
@@ -5339,10 +5343,10 @@
         <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="3">
         <v>0</v>
@@ -5354,7 +5358,7 @@
         <v>23</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="1">
@@ -5364,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N77" s="7">
         <v>1</v>
@@ -5396,7 +5400,7 @@
         <v>34</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="3">
         <v>0</v>
@@ -5408,7 +5412,7 @@
         <v>23</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="1">
@@ -5418,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N78" s="7">
         <v>1</v>
@@ -5447,10 +5451,10 @@
         <v>29</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="3">
         <v>0</v>
@@ -5462,7 +5466,7 @@
         <v>23</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="1">
@@ -5472,10 +5476,10 @@
         <v>0</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N79" s="7">
         <v>1</v>
@@ -5504,7 +5508,7 @@
         <v>37</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="3">
         <v>0</v>
@@ -5516,7 +5520,7 @@
         <v>23</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="1">
@@ -5526,10 +5530,10 @@
         <v>0</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N80" s="7">
         <v>1</v>
@@ -5555,7 +5559,7 @@
         <v>39</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="3">
         <v>0</v>
@@ -5567,7 +5571,7 @@
         <v>7</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="1">
@@ -5577,10 +5581,10 @@
         <v>1</v>
       </c>
       <c r="L81" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M81" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="N81" s="7">
         <v>1</v>
@@ -5606,7 +5610,7 @@
         <v>41</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="3">
         <v>0</v>
@@ -5618,7 +5622,7 @@
         <v>7</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="1">
@@ -5628,10 +5632,10 @@
         <v>1</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N82" s="7">
         <v>1</v>
@@ -5660,7 +5664,7 @@
         <v>43</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="1" t="s">
@@ -5670,23 +5674,23 @@
         <v>7</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="1">
         <v>1</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="K83" s="2">
         <v>0</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N83" s="7">
         <v>1</v>
@@ -5715,7 +5719,7 @@
         <v>45</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="1" t="s">
@@ -5725,23 +5729,23 @@
         <v>7</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="1">
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>104</v>
+        <v>297</v>
       </c>
       <c r="K84" s="2">
         <v>0</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N84" s="7">
         <v>1</v>
@@ -5770,7 +5774,7 @@
         <v>47</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="1" t="s">
@@ -5780,23 +5784,23 @@
         <v>7</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="1">
         <v>1</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>104</v>
+        <v>295</v>
       </c>
       <c r="K85" s="2">
         <v>0</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N85" s="7">
         <v>1</v>
@@ -5825,7 +5829,7 @@
         <v>49</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="1" t="s">
@@ -5835,23 +5839,23 @@
         <v>7</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="1">
         <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K86" s="2">
         <v>0</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N86" s="7">
         <v>1</v>
@@ -5880,7 +5884,7 @@
         <v>43</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="1" t="s">
@@ -5890,23 +5894,23 @@
         <v>7</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="1">
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K87" s="2">
         <v>0</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N87" s="7">
         <v>1</v>
@@ -5935,7 +5939,7 @@
         <v>45</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="1" t="s">
@@ -5945,23 +5949,23 @@
         <v>7</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="1">
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K88" s="2">
         <v>0</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N88" s="7">
         <v>1</v>
@@ -5990,7 +5994,7 @@
         <v>47</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="1" t="s">
@@ -6000,23 +6004,23 @@
         <v>7</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="1">
         <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K89" s="2">
         <v>0</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N89" s="7">
         <v>1</v>
@@ -6045,7 +6049,7 @@
         <v>49</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="1" t="s">
@@ -6055,23 +6059,23 @@
         <v>7</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="1">
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K90" s="2">
         <v>0</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N90" s="7">
         <v>1</v>
@@ -6104,7 +6108,7 @@
   <dimension ref="A1:S99"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
@@ -6131,10 +6135,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -6143,43 +6147,43 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="N1" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -6187,10 +6191,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -6202,7 +6206,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="1">
@@ -6212,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N2" s="7">
         <v>1</v>
@@ -6241,10 +6245,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -6256,7 +6260,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="1">
@@ -6266,10 +6270,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N3" s="7">
         <v>1</v>
@@ -6295,10 +6299,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -6310,7 +6314,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="1">
@@ -6320,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N4" s="7">
         <v>1</v>
@@ -6349,10 +6353,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -6364,7 +6368,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1">
@@ -6374,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N5" s="7">
         <v>1</v>
@@ -6403,10 +6407,10 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -6418,7 +6422,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="1">
@@ -6428,10 +6432,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N6" s="7">
         <v>1</v>
@@ -6457,10 +6461,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -6472,7 +6476,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="1">
@@ -6482,10 +6486,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N7" s="7">
         <v>1</v>
@@ -6511,10 +6515,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -6526,7 +6530,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="1">
@@ -6536,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N8" s="7">
         <v>1</v>
@@ -6565,10 +6569,10 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -6580,7 +6584,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="1">
@@ -6590,10 +6594,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N9" s="7">
         <v>1</v>
@@ -6619,10 +6623,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -6634,7 +6638,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="1">
@@ -6644,10 +6648,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N10" s="7">
         <v>1</v>
@@ -6673,10 +6677,10 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -6688,7 +6692,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="1">
@@ -6698,10 +6702,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N11" s="7">
         <v>1</v>
@@ -6727,10 +6731,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -6742,7 +6746,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="1">
@@ -6752,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N12" s="7">
         <v>1</v>
@@ -6781,10 +6785,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -6796,7 +6800,7 @@
         <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="1">
@@ -6806,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N13" s="7">
         <v>1</v>
@@ -6835,10 +6839,10 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -6850,7 +6854,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="1">
@@ -6860,10 +6864,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N14" s="7">
         <v>1</v>
@@ -6889,10 +6893,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -6904,7 +6908,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="1">
@@ -6914,10 +6918,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N15" s="7">
         <v>1</v>
@@ -6943,10 +6947,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -6958,7 +6962,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="1">
@@ -6968,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N16" s="7">
         <v>1</v>
@@ -7000,7 +7004,7 @@
         <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -7012,7 +7016,7 @@
         <v>23</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="1">
@@ -7022,10 +7026,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N17" s="7">
         <v>1</v>
@@ -7054,7 +7058,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -7066,7 +7070,7 @@
         <v>23</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="1">
@@ -7076,10 +7080,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N18" s="7">
         <v>1</v>
@@ -7105,10 +7109,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -7120,7 +7124,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="1">
@@ -7130,10 +7134,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N19" s="7">
         <v>1</v>
@@ -7159,10 +7163,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -7174,7 +7178,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="1">
@@ -7184,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N20" s="7">
         <v>1</v>
@@ -7213,10 +7217,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -7228,7 +7232,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="1">
@@ -7238,10 +7242,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N21" s="7">
         <v>1</v>
@@ -7267,10 +7271,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -7282,7 +7286,7 @@
         <v>23</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="1">
@@ -7292,10 +7296,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N22" s="7">
         <v>1</v>
@@ -7321,10 +7325,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -7336,7 +7340,7 @@
         <v>23</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="1">
@@ -7346,10 +7350,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N23" s="7">
         <v>1</v>
@@ -7375,10 +7379,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -7390,7 +7394,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="1">
@@ -7400,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N24" s="7">
         <v>1</v>
@@ -7429,10 +7433,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -7444,7 +7448,7 @@
         <v>23</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="1">
@@ -7454,10 +7458,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N25" s="7">
         <v>1</v>
@@ -7483,10 +7487,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -7498,7 +7502,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="1">
@@ -7508,10 +7512,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N26" s="7">
         <v>1</v>
@@ -7537,10 +7541,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -7552,7 +7556,7 @@
         <v>23</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="1">
@@ -7562,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N27" s="7">
         <v>1</v>
@@ -7591,10 +7595,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -7606,7 +7610,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="1">
@@ -7616,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N28" s="7">
         <v>1</v>
@@ -7645,10 +7649,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -7660,7 +7664,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="1">
@@ -7670,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N29" s="7">
         <v>1</v>
@@ -7699,10 +7703,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -7714,7 +7718,7 @@
         <v>23</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="1">
@@ -7724,10 +7728,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N30" s="7">
         <v>1</v>
@@ -7753,10 +7757,10 @@
         <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -7768,7 +7772,7 @@
         <v>23</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="1">
@@ -7778,10 +7782,10 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N31" s="7">
         <v>1</v>
@@ -7807,10 +7811,10 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -7822,7 +7826,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="1">
@@ -7832,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N32" s="7">
         <v>1</v>
@@ -7861,10 +7865,10 @@
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -7876,7 +7880,7 @@
         <v>23</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="1">
@@ -7886,10 +7890,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N33" s="7">
         <v>1</v>
@@ -7915,10 +7919,10 @@
         <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -7930,7 +7934,7 @@
         <v>23</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="1">
@@ -7940,10 +7944,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N34" s="7">
         <v>1</v>
@@ -7969,10 +7973,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -7984,7 +7988,7 @@
         <v>23</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="1">
@@ -7994,10 +7998,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N35" s="7">
         <v>1</v>
@@ -8023,10 +8027,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -8038,7 +8042,7 @@
         <v>23</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="1">
@@ -8048,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N36" s="7">
         <v>1</v>
@@ -8077,10 +8081,10 @@
         <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -8092,7 +8096,7 @@
         <v>23</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="1">
@@ -8102,10 +8106,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N37" s="7">
         <v>1</v>
@@ -8134,7 +8138,7 @@
         <v>56</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -8146,7 +8150,7 @@
         <v>23</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="1">
@@ -8156,10 +8160,10 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N38" s="7">
         <v>1</v>
@@ -8188,7 +8192,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -8200,7 +8204,7 @@
         <v>23</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="1">
@@ -8210,10 +8214,10 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N39" s="7">
         <v>1</v>
@@ -8239,10 +8243,10 @@
         <v>21</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
@@ -8254,7 +8258,7 @@
         <v>23</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="1">
@@ -8264,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N40" s="7">
         <v>1</v>
@@ -8293,10 +8297,10 @@
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
@@ -8308,7 +8312,7 @@
         <v>23</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="1">
@@ -8318,10 +8322,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N41" s="7">
         <v>1</v>
@@ -8347,10 +8351,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
@@ -8362,7 +8366,7 @@
         <v>23</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="1">
@@ -8372,10 +8376,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N42" s="7">
         <v>1</v>
@@ -8401,10 +8405,10 @@
         <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
@@ -8416,7 +8420,7 @@
         <v>23</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="1">
@@ -8426,10 +8430,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N43" s="7">
         <v>1</v>
@@ -8458,7 +8462,7 @@
         <v>58</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -8470,7 +8474,7 @@
         <v>23</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="1">
@@ -8480,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N44" s="7">
         <v>1</v>
@@ -8512,7 +8516,7 @@
         <v>59</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
@@ -8524,7 +8528,7 @@
         <v>23</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="1">
@@ -8534,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N45" s="7">
         <v>1</v>
@@ -8566,7 +8570,7 @@
         <v>60</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
@@ -8578,7 +8582,7 @@
         <v>23</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="1">
@@ -8588,10 +8592,10 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N46" s="7">
         <v>1</v>
@@ -8620,7 +8624,7 @@
         <v>61</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
@@ -8632,7 +8636,7 @@
         <v>23</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="1">
@@ -8642,10 +8646,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N47" s="7">
         <v>1</v>
@@ -8674,7 +8678,7 @@
         <v>63</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
@@ -8686,7 +8690,7 @@
         <v>23</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="1">
@@ -8696,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N48" s="7">
         <v>1</v>
@@ -8728,7 +8732,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -8740,7 +8744,7 @@
         <v>23</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="1">
@@ -8750,10 +8754,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N49" s="7">
         <v>1</v>
@@ -8782,7 +8786,7 @@
         <v>25</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -8794,7 +8798,7 @@
         <v>23</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="1">
@@ -8804,10 +8808,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N50" s="7">
         <v>1</v>
@@ -8836,7 +8840,7 @@
         <v>26</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -8848,7 +8852,7 @@
         <v>23</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="1">
@@ -8858,10 +8862,10 @@
         <v>0</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N51" s="7">
         <v>1</v>
@@ -8890,7 +8894,7 @@
         <v>27</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
@@ -8902,7 +8906,7 @@
         <v>23</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="1">
@@ -8912,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N52" s="7">
         <v>1</v>
@@ -8944,7 +8948,7 @@
         <v>28</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
@@ -8956,7 +8960,7 @@
         <v>23</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="1">
@@ -8966,10 +8970,10 @@
         <v>0</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N53" s="7">
         <v>1</v>
@@ -8998,7 +9002,7 @@
         <v>65</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -9010,7 +9014,7 @@
         <v>23</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="1">
@@ -9020,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N54" s="7">
         <v>1</v>
@@ -9052,7 +9056,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
@@ -9064,7 +9068,7 @@
         <v>23</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="1">
@@ -9074,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N55" s="7">
         <v>1</v>
@@ -9106,7 +9110,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
@@ -9118,7 +9122,7 @@
         <v>23</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="1">
@@ -9128,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N56" s="7">
         <v>1</v>
@@ -9160,7 +9164,7 @@
         <v>25</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
@@ -9172,7 +9176,7 @@
         <v>23</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="1">
@@ -9182,10 +9186,10 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N57" s="7">
         <v>1</v>
@@ -9214,7 +9218,7 @@
         <v>26</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D58" s="4">
         <v>0</v>
@@ -9226,7 +9230,7 @@
         <v>23</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="1">
@@ -9236,10 +9240,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N58" s="7">
         <v>1</v>
@@ -9268,7 +9272,7 @@
         <v>27</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
@@ -9280,7 +9284,7 @@
         <v>23</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="1">
@@ -9290,10 +9294,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N59" s="7">
         <v>1</v>
@@ -9322,7 +9326,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D60" s="4">
         <v>0</v>
@@ -9334,7 +9338,7 @@
         <v>23</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="1">
@@ -9344,10 +9348,10 @@
         <v>0</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N60" s="7">
         <v>1</v>
@@ -9376,7 +9380,7 @@
         <v>65</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D61" s="4">
         <v>0</v>
@@ -9388,7 +9392,7 @@
         <v>23</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="1">
@@ -9398,10 +9402,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N61" s="7">
         <v>1</v>
@@ -9430,7 +9434,7 @@
         <v>66</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D62" s="4">
         <v>0</v>
@@ -9442,7 +9446,7 @@
         <v>23</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="1">
@@ -9452,10 +9456,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N62" s="7">
         <v>1</v>
@@ -9484,7 +9488,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="4">
         <v>0</v>
@@ -9496,7 +9500,7 @@
         <v>23</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="1">
@@ -9506,10 +9510,10 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N63" s="7">
         <v>1</v>
@@ -9538,7 +9542,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D64" s="4">
         <v>0</v>
@@ -9550,7 +9554,7 @@
         <v>23</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="1">
@@ -9560,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N64" s="7">
         <v>1</v>
@@ -9592,7 +9596,7 @@
         <v>25</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D65" s="4">
         <v>0</v>
@@ -9604,7 +9608,7 @@
         <v>23</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="1">
@@ -9614,10 +9618,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N65" s="7">
         <v>1</v>
@@ -9646,7 +9650,7 @@
         <v>26</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D66" s="4">
         <v>0</v>
@@ -9658,7 +9662,7 @@
         <v>23</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="1">
@@ -9668,10 +9672,10 @@
         <v>0</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N66" s="7">
         <v>1</v>
@@ -9700,7 +9704,7 @@
         <v>27</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D67" s="4">
         <v>0</v>
@@ -9712,7 +9716,7 @@
         <v>23</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="1">
@@ -9722,10 +9726,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N67" s="7">
         <v>1</v>
@@ -9754,7 +9758,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D68" s="4">
         <v>0</v>
@@ -9766,7 +9770,7 @@
         <v>23</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="1">
@@ -9776,10 +9780,10 @@
         <v>0</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N68" s="7">
         <v>1</v>
@@ -9808,7 +9812,7 @@
         <v>65</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
@@ -9820,7 +9824,7 @@
         <v>23</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="1">
@@ -9830,10 +9834,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N69" s="7">
         <v>1</v>
@@ -9862,7 +9866,7 @@
         <v>66</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D70" s="4">
         <v>0</v>
@@ -9874,7 +9878,7 @@
         <v>23</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="1">
@@ -9884,10 +9888,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N70" s="7">
         <v>1</v>
@@ -9916,10 +9920,10 @@
         <v>68</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>69</v>
@@ -9928,23 +9932,23 @@
         <v>23</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="1">
         <v>1</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K71" s="1">
         <v>0</v>
       </c>
       <c r="L71" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M71" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="N71" s="7">
         <v>1</v>
@@ -9973,10 +9977,10 @@
         <v>70</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>69</v>
@@ -9985,23 +9989,23 @@
         <v>23</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="1">
         <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K72" s="1">
         <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M72" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="N72" s="7">
         <v>1</v>
@@ -10030,10 +10034,10 @@
         <v>71</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>69</v>
@@ -10042,23 +10046,23 @@
         <v>23</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="1">
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K73" s="1">
         <v>0</v>
       </c>
       <c r="L73" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M73" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="N73" s="7">
         <v>1</v>
@@ -10087,10 +10091,10 @@
         <v>72</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>69</v>
@@ -10099,23 +10103,23 @@
         <v>23</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="1">
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K74" s="1">
         <v>0</v>
       </c>
       <c r="L74" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M74" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="N74" s="7">
         <v>1</v>
@@ -10144,7 +10148,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75" s="4">
         <v>0</v>
@@ -10156,23 +10160,23 @@
         <v>23</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="1">
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K75" s="1">
         <v>0</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N75" s="7">
         <v>1</v>
@@ -10201,7 +10205,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="4">
         <v>0</v>
@@ -10213,23 +10217,23 @@
         <v>23</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="1">
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K76" s="1">
         <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N76" s="7">
         <v>1</v>
@@ -10258,7 +10262,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="4">
         <v>0</v>
@@ -10270,23 +10274,23 @@
         <v>23</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="1">
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K77" s="1">
         <v>0</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N77" s="7">
         <v>1</v>
@@ -10315,7 +10319,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="4">
         <v>0</v>
@@ -10327,23 +10331,23 @@
         <v>23</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="1">
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K78" s="1">
         <v>0</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N78" s="7">
         <v>1</v>
@@ -10372,7 +10376,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="4">
         <v>0</v>
@@ -10384,7 +10388,7 @@
         <v>23</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="1">
@@ -10394,10 +10398,10 @@
         <v>1</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N79" s="7">
         <v>1</v>
@@ -10426,7 +10430,7 @@
         <v>82</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="4">
         <v>0</v>
@@ -10438,7 +10442,7 @@
         <v>23</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="1">
@@ -10448,10 +10452,10 @@
         <v>1</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N80" s="7">
         <v>1</v>
@@ -10474,10 +10478,10 @@
     </row>
     <row r="81" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="1" t="s">
@@ -10487,7 +10491,7 @@
         <v>23</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="1">
@@ -10497,10 +10501,10 @@
         <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N81" s="7">
         <v>1</v>
@@ -10526,7 +10530,7 @@
         <v>84</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="1" t="s">
@@ -10536,7 +10540,7 @@
         <v>23</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="1">
@@ -10546,10 +10550,10 @@
         <v>0</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N82" s="7">
         <v>1</v>
@@ -10578,10 +10582,10 @@
         <v>87</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>88</v>
@@ -10590,7 +10594,7 @@
         <v>23</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="1">
@@ -10600,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N83" s="7">
         <v>1</v>
@@ -10632,10 +10636,10 @@
         <v>89</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>90</v>
@@ -10644,7 +10648,7 @@
         <v>23</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H84" s="4">
         <v>0</v>
@@ -10653,16 +10657,16 @@
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K84" s="1">
         <v>0</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N84" s="7">
         <v>1</v>
@@ -10691,10 +10695,10 @@
         <v>91</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>92</v>
@@ -10703,7 +10707,7 @@
         <v>23</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="1">
@@ -10713,10 +10717,10 @@
         <v>0</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N85" s="7">
         <v>1</v>
@@ -10745,10 +10749,10 @@
         <v>93</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>94</v>
@@ -10757,23 +10761,23 @@
         <v>23</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="1">
         <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K86" s="1">
         <v>0</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N86" s="7">
         <v>1</v>
@@ -10802,10 +10806,10 @@
         <v>95</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>96</v>
@@ -10814,7 +10818,7 @@
         <v>23</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="1">
@@ -10824,10 +10828,10 @@
         <v>0</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N87" s="7">
         <v>1</v>
@@ -10856,10 +10860,10 @@
         <v>97</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>98</v>
@@ -10868,23 +10872,23 @@
         <v>23</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="1">
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K88" s="1">
         <v>0</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N88" s="7">
         <v>1</v>
@@ -10913,10 +10917,10 @@
         <v>100</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>100</v>
@@ -10925,7 +10929,7 @@
         <v>23</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="1">
@@ -10935,10 +10939,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N89" s="7">
         <v>1</v>
@@ -10967,10 +10971,10 @@
         <v>101</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>102</v>
@@ -10979,23 +10983,23 @@
         <v>23</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="1">
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K90" s="1">
         <v>0</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N90" s="7">
         <v>1</v>
@@ -11018,13 +11022,13 @@
     </row>
     <row r="91" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="1" t="s">
@@ -11034,7 +11038,7 @@
         <v>23</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="1">
@@ -11044,10 +11048,10 @@
         <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N91" s="7">
         <v>1</v>
@@ -11070,13 +11074,13 @@
     </row>
     <row r="92" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="1" t="s">
@@ -11086,7 +11090,7 @@
         <v>23</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H92" s="4">
         <v>0</v>
@@ -11095,16 +11099,16 @@
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K92" s="1">
         <v>0</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N92" s="7">
         <v>1</v>
@@ -11127,16 +11131,16 @@
     </row>
     <row r="93" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="C93" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>92</v>
@@ -11145,7 +11149,7 @@
         <v>23</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="1">
@@ -11155,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N93" s="7">
         <v>1</v>
@@ -11181,16 +11185,16 @@
     </row>
     <row r="94" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>94</v>
@@ -11199,23 +11203,23 @@
         <v>23</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="1">
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K94" s="1">
         <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N94" s="7">
         <v>1</v>
@@ -11238,16 +11242,16 @@
     </row>
     <row r="95" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="C95" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>100</v>
@@ -11256,7 +11260,7 @@
         <v>23</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="1">
@@ -11266,10 +11270,10 @@
         <v>0</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N95" s="7">
         <v>1</v>
@@ -11292,16 +11296,16 @@
     </row>
     <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>102</v>
@@ -11310,23 +11314,23 @@
         <v>23</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="1">
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K96" s="1">
         <v>0</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N96" s="7">
         <v>1</v>
@@ -11352,22 +11356,22 @@
         <v>29</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D97" s="3">
         <v>0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="1">
@@ -11378,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N97" s="7">
         <v>1</v>

--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="292">
   <si>
     <t>源块名</t>
   </si>
@@ -993,30 +993,6 @@
   <si>
     <t>EquipmentBase</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>负载编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>负载电量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>负载用途</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主备关系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源类别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>E-BDB054,E-BFAS23-3</t>
@@ -1087,7 +1063,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1108,12 +1084,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,12 +1360,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S90"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1411,7 +1381,7 @@
     <col min="12" max="13" width="15.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,26 +1421,8 @@
       <c r="M1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1503,26 +1455,8 @@
       <c r="M2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="7">
-        <v>1</v>
-      </c>
-      <c r="O2" s="7">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>190</v>
       </c>
@@ -1555,26 +1489,8 @@
       <c r="M3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N3" s="7">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>1</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>189</v>
       </c>
@@ -1607,26 +1523,8 @@
       <c r="M4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>191</v>
       </c>
@@ -1659,26 +1557,8 @@
       <c r="M5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>1</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>192</v>
       </c>
@@ -1711,26 +1591,8 @@
       <c r="M6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N6" s="7">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>1</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>193</v>
       </c>
@@ -1763,26 +1625,8 @@
       <c r="M7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>195</v>
       </c>
@@ -1815,26 +1659,8 @@
       <c r="M8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N8" s="7">
-        <v>1</v>
-      </c>
-      <c r="O8" s="7">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>196</v>
       </c>
@@ -1867,26 +1693,8 @@
       <c r="M9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>1</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>197</v>
       </c>
@@ -1919,26 +1727,8 @@
       <c r="M10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>1</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>198</v>
       </c>
@@ -1971,26 +1761,8 @@
       <c r="M11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N11" s="7">
-        <v>1</v>
-      </c>
-      <c r="O11" s="7">
-        <v>1</v>
-      </c>
-      <c r="P11" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>1</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>199</v>
       </c>
@@ -2023,26 +1795,8 @@
       <c r="M12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N12" s="7">
-        <v>1</v>
-      </c>
-      <c r="O12" s="7">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>1</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>200</v>
       </c>
@@ -2075,26 +1829,8 @@
       <c r="M13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N13" s="7">
-        <v>1</v>
-      </c>
-      <c r="O13" s="7">
-        <v>1</v>
-      </c>
-      <c r="P13" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>1</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>201</v>
       </c>
@@ -2127,26 +1863,8 @@
       <c r="M14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N14" s="7">
-        <v>1</v>
-      </c>
-      <c r="O14" s="7">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>1</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0</v>
-      </c>
-      <c r="S14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>202</v>
       </c>
@@ -2179,26 +1897,8 @@
       <c r="M15" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N15" s="7">
-        <v>1</v>
-      </c>
-      <c r="O15" s="7">
-        <v>1</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>1</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>203</v>
       </c>
@@ -2231,26 +1931,8 @@
       <c r="M16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N16" s="7">
-        <v>1</v>
-      </c>
-      <c r="O16" s="7">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>1</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>204</v>
       </c>
@@ -2283,26 +1965,8 @@
       <c r="M17" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N17" s="7">
-        <v>1</v>
-      </c>
-      <c r="O17" s="7">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>1</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>205</v>
       </c>
@@ -2335,26 +1999,8 @@
       <c r="M18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
-      <c r="O18" s="7">
-        <v>1</v>
-      </c>
-      <c r="P18" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>1</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>206</v>
       </c>
@@ -2387,26 +2033,8 @@
       <c r="M19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N19" s="7">
-        <v>1</v>
-      </c>
-      <c r="O19" s="7">
-        <v>1</v>
-      </c>
-      <c r="P19" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>1</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>207</v>
       </c>
@@ -2439,26 +2067,8 @@
       <c r="M20" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N20" s="7">
-        <v>1</v>
-      </c>
-      <c r="O20" s="7">
-        <v>1</v>
-      </c>
-      <c r="P20" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>1</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>208</v>
       </c>
@@ -2491,26 +2101,8 @@
       <c r="M21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N21" s="7">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7">
-        <v>1</v>
-      </c>
-      <c r="P21" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>1</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>209</v>
       </c>
@@ -2543,26 +2135,8 @@
       <c r="M22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N22" s="7">
-        <v>1</v>
-      </c>
-      <c r="O22" s="7">
-        <v>1</v>
-      </c>
-      <c r="P22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>1</v>
-      </c>
-      <c r="R22" s="4">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>210</v>
       </c>
@@ -2595,26 +2169,8 @@
       <c r="M23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N23" s="7">
-        <v>1</v>
-      </c>
-      <c r="O23" s="7">
-        <v>1</v>
-      </c>
-      <c r="P23" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>1</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0</v>
-      </c>
-      <c r="S23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>211</v>
       </c>
@@ -2647,26 +2203,8 @@
       <c r="M24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N24" s="7">
-        <v>1</v>
-      </c>
-      <c r="O24" s="7">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>1</v>
-      </c>
-      <c r="R24" s="4">
-        <v>0</v>
-      </c>
-      <c r="S24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>212</v>
       </c>
@@ -2699,26 +2237,8 @@
       <c r="M25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N25" s="7">
-        <v>1</v>
-      </c>
-      <c r="O25" s="7">
-        <v>1</v>
-      </c>
-      <c r="P25" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>1</v>
-      </c>
-      <c r="R25" s="4">
-        <v>0</v>
-      </c>
-      <c r="S25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>225</v>
       </c>
@@ -2751,26 +2271,8 @@
       <c r="M26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N26" s="7">
-        <v>1</v>
-      </c>
-      <c r="O26" s="7">
-        <v>1</v>
-      </c>
-      <c r="P26" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>1</v>
-      </c>
-      <c r="R26" s="4">
-        <v>0</v>
-      </c>
-      <c r="S26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>213</v>
       </c>
@@ -2803,26 +2305,8 @@
       <c r="M27" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N27" s="7">
-        <v>1</v>
-      </c>
-      <c r="O27" s="7">
-        <v>1</v>
-      </c>
-      <c r="P27" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>1</v>
-      </c>
-      <c r="R27" s="4">
-        <v>0</v>
-      </c>
-      <c r="S27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>214</v>
       </c>
@@ -2855,26 +2339,8 @@
       <c r="M28" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N28" s="7">
-        <v>1</v>
-      </c>
-      <c r="O28" s="7">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>1</v>
-      </c>
-      <c r="R28" s="4">
-        <v>0</v>
-      </c>
-      <c r="S28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>215</v>
       </c>
@@ -2907,26 +2373,8 @@
       <c r="M29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N29" s="7">
-        <v>1</v>
-      </c>
-      <c r="O29" s="7">
-        <v>1</v>
-      </c>
-      <c r="P29" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>1</v>
-      </c>
-      <c r="R29" s="4">
-        <v>0</v>
-      </c>
-      <c r="S29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>216</v>
       </c>
@@ -2959,26 +2407,8 @@
       <c r="M30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N30" s="7">
-        <v>1</v>
-      </c>
-      <c r="O30" s="7">
-        <v>1</v>
-      </c>
-      <c r="P30" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>1</v>
-      </c>
-      <c r="R30" s="4">
-        <v>0</v>
-      </c>
-      <c r="S30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>217</v>
       </c>
@@ -3011,26 +2441,8 @@
       <c r="M31" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N31" s="7">
-        <v>1</v>
-      </c>
-      <c r="O31" s="7">
-        <v>1</v>
-      </c>
-      <c r="P31" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>1</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>218</v>
       </c>
@@ -3063,26 +2475,8 @@
       <c r="M32" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N32" s="7">
-        <v>1</v>
-      </c>
-      <c r="O32" s="7">
-        <v>1</v>
-      </c>
-      <c r="P32" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>1</v>
-      </c>
-      <c r="R32" s="4">
-        <v>0</v>
-      </c>
-      <c r="S32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>219</v>
       </c>
@@ -3115,26 +2509,8 @@
       <c r="M33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N33" s="7">
-        <v>1</v>
-      </c>
-      <c r="O33" s="7">
-        <v>1</v>
-      </c>
-      <c r="P33" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>1</v>
-      </c>
-      <c r="R33" s="4">
-        <v>0</v>
-      </c>
-      <c r="S33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>220</v>
       </c>
@@ -3167,26 +2543,8 @@
       <c r="M34" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N34" s="7">
-        <v>1</v>
-      </c>
-      <c r="O34" s="7">
-        <v>1</v>
-      </c>
-      <c r="P34" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>1</v>
-      </c>
-      <c r="R34" s="4">
-        <v>0</v>
-      </c>
-      <c r="S34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>221</v>
       </c>
@@ -3219,26 +2577,8 @@
       <c r="M35" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N35" s="7">
-        <v>1</v>
-      </c>
-      <c r="O35" s="7">
-        <v>1</v>
-      </c>
-      <c r="P35" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>1</v>
-      </c>
-      <c r="R35" s="4">
-        <v>0</v>
-      </c>
-      <c r="S35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>222</v>
       </c>
@@ -3271,26 +2611,8 @@
       <c r="M36" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N36" s="7">
-        <v>1</v>
-      </c>
-      <c r="O36" s="7">
-        <v>1</v>
-      </c>
-      <c r="P36" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>1</v>
-      </c>
-      <c r="R36" s="4">
-        <v>0</v>
-      </c>
-      <c r="S36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>223</v>
       </c>
@@ -3323,26 +2645,8 @@
       <c r="M37" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N37" s="7">
-        <v>1</v>
-      </c>
-      <c r="O37" s="7">
-        <v>1</v>
-      </c>
-      <c r="P37" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>1</v>
-      </c>
-      <c r="R37" s="4">
-        <v>0</v>
-      </c>
-      <c r="S37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>224</v>
       </c>
@@ -3375,26 +2679,8 @@
       <c r="M38" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N38" s="7">
-        <v>1</v>
-      </c>
-      <c r="O38" s="7">
-        <v>1</v>
-      </c>
-      <c r="P38" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>1</v>
-      </c>
-      <c r="R38" s="4">
-        <v>0</v>
-      </c>
-      <c r="S38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>114</v>
       </c>
@@ -3427,26 +2713,8 @@
       <c r="M39" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N39" s="7">
-        <v>1</v>
-      </c>
-      <c r="O39" s="7">
-        <v>1</v>
-      </c>
-      <c r="P39" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>1</v>
-      </c>
-      <c r="R39" s="4">
-        <v>0</v>
-      </c>
-      <c r="S39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>276</v>
       </c>
@@ -3479,26 +2747,8 @@
       <c r="M40" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N40" s="7">
-        <v>1</v>
-      </c>
-      <c r="O40" s="7">
-        <v>1</v>
-      </c>
-      <c r="P40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>1</v>
-      </c>
-      <c r="R40" s="4">
-        <v>0</v>
-      </c>
-      <c r="S40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -3531,26 +2781,8 @@
       <c r="M41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N41" s="7">
-        <v>1</v>
-      </c>
-      <c r="O41" s="7">
-        <v>1</v>
-      </c>
-      <c r="P41" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>1</v>
-      </c>
-      <c r="R41" s="4">
-        <v>0</v>
-      </c>
-      <c r="S41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -3583,26 +2815,8 @@
       <c r="M42" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N42" s="7">
-        <v>1</v>
-      </c>
-      <c r="O42" s="7">
-        <v>1</v>
-      </c>
-      <c r="P42" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>1</v>
-      </c>
-      <c r="R42" s="4">
-        <v>0</v>
-      </c>
-      <c r="S42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -3635,26 +2849,8 @@
       <c r="M43" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N43" s="7">
-        <v>1</v>
-      </c>
-      <c r="O43" s="7">
-        <v>1</v>
-      </c>
-      <c r="P43" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>1</v>
-      </c>
-      <c r="R43" s="4">
-        <v>0</v>
-      </c>
-      <c r="S43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>115</v>
       </c>
@@ -3686,26 +2882,8 @@
       <c r="M44" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N44" s="7">
-        <v>1</v>
-      </c>
-      <c r="O44" s="7">
-        <v>1</v>
-      </c>
-      <c r="P44" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>1</v>
-      </c>
-      <c r="R44" s="4">
-        <v>0</v>
-      </c>
-      <c r="S44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>117</v>
       </c>
@@ -3737,26 +2915,8 @@
       <c r="M45" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N45" s="7">
-        <v>1</v>
-      </c>
-      <c r="O45" s="7">
-        <v>1</v>
-      </c>
-      <c r="P45" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>1</v>
-      </c>
-      <c r="R45" s="4">
-        <v>0</v>
-      </c>
-      <c r="S45" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>116</v>
       </c>
@@ -3788,26 +2948,8 @@
       <c r="M46" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N46" s="7">
-        <v>1</v>
-      </c>
-      <c r="O46" s="7">
-        <v>1</v>
-      </c>
-      <c r="P46" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>1</v>
-      </c>
-      <c r="R46" s="4">
-        <v>0</v>
-      </c>
-      <c r="S46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -3839,26 +2981,8 @@
       <c r="M47" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N47" s="7">
-        <v>1</v>
-      </c>
-      <c r="O47" s="7">
-        <v>1</v>
-      </c>
-      <c r="P47" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>1</v>
-      </c>
-      <c r="R47" s="4">
-        <v>0</v>
-      </c>
-      <c r="S47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -3890,26 +3014,8 @@
       <c r="M48" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N48" s="7">
-        <v>1</v>
-      </c>
-      <c r="O48" s="7">
-        <v>1</v>
-      </c>
-      <c r="P48" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>1</v>
-      </c>
-      <c r="R48" s="4">
-        <v>0</v>
-      </c>
-      <c r="S48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
@@ -3941,26 +3047,8 @@
       <c r="M49" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="N49" s="7">
-        <v>1</v>
-      </c>
-      <c r="O49" s="7">
-        <v>1</v>
-      </c>
-      <c r="P49" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>1</v>
-      </c>
-      <c r="R49" s="4">
-        <v>0</v>
-      </c>
-      <c r="S49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -3992,26 +3080,8 @@
       <c r="M50" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="N50" s="7">
-        <v>1</v>
-      </c>
-      <c r="O50" s="7">
-        <v>1</v>
-      </c>
-      <c r="P50" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="4">
-        <v>1</v>
-      </c>
-      <c r="R50" s="4">
-        <v>0</v>
-      </c>
-      <c r="S50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -4043,26 +3113,8 @@
       <c r="M51" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="N51" s="7">
-        <v>1</v>
-      </c>
-      <c r="O51" s="7">
-        <v>1</v>
-      </c>
-      <c r="P51" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>1</v>
-      </c>
-      <c r="R51" s="4">
-        <v>0</v>
-      </c>
-      <c r="S51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -4094,26 +3146,8 @@
       <c r="M52" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N52" s="7">
-        <v>1</v>
-      </c>
-      <c r="O52" s="7">
-        <v>1</v>
-      </c>
-      <c r="P52" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="4">
-        <v>1</v>
-      </c>
-      <c r="R52" s="4">
-        <v>0</v>
-      </c>
-      <c r="S52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
@@ -4145,26 +3179,8 @@
       <c r="M53" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N53" s="7">
-        <v>1</v>
-      </c>
-      <c r="O53" s="7">
-        <v>1</v>
-      </c>
-      <c r="P53" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="4">
-        <v>1</v>
-      </c>
-      <c r="R53" s="4">
-        <v>0</v>
-      </c>
-      <c r="S53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
@@ -4196,26 +3212,8 @@
       <c r="M54" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N54" s="7">
-        <v>1</v>
-      </c>
-      <c r="O54" s="7">
-        <v>1</v>
-      </c>
-      <c r="P54" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="4">
-        <v>1</v>
-      </c>
-      <c r="R54" s="4">
-        <v>0</v>
-      </c>
-      <c r="S54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>148</v>
       </c>
@@ -4245,26 +3243,8 @@
       <c r="M55" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N55" s="7">
-        <v>1</v>
-      </c>
-      <c r="O55" s="7">
-        <v>0</v>
-      </c>
-      <c r="P55" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="4">
-        <v>0</v>
-      </c>
-      <c r="R55" s="4">
-        <v>0</v>
-      </c>
-      <c r="S55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>149</v>
       </c>
@@ -4294,26 +3274,8 @@
       <c r="M56" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N56" s="7">
-        <v>1</v>
-      </c>
-      <c r="O56" s="7">
-        <v>0</v>
-      </c>
-      <c r="P56" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="4">
-        <v>0</v>
-      </c>
-      <c r="R56" s="4">
-        <v>0</v>
-      </c>
-      <c r="S56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>150</v>
       </c>
@@ -4343,26 +3305,8 @@
       <c r="M57" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N57" s="7">
-        <v>1</v>
-      </c>
-      <c r="O57" s="7">
-        <v>0</v>
-      </c>
-      <c r="P57" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>0</v>
-      </c>
-      <c r="R57" s="4">
-        <v>0</v>
-      </c>
-      <c r="S57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>151</v>
       </c>
@@ -4392,26 +3336,8 @@
       <c r="M58" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N58" s="7">
-        <v>1</v>
-      </c>
-      <c r="O58" s="7">
-        <v>0</v>
-      </c>
-      <c r="P58" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="4">
-        <v>0</v>
-      </c>
-      <c r="R58" s="4">
-        <v>0</v>
-      </c>
-      <c r="S58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>154</v>
       </c>
@@ -4441,26 +3367,8 @@
       <c r="M59" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N59" s="7">
-        <v>1</v>
-      </c>
-      <c r="O59" s="7">
-        <v>0</v>
-      </c>
-      <c r="P59" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="4">
-        <v>0</v>
-      </c>
-      <c r="R59" s="4">
-        <v>0</v>
-      </c>
-      <c r="S59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>169</v>
       </c>
@@ -4490,26 +3398,8 @@
       <c r="M60" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N60" s="7">
-        <v>1</v>
-      </c>
-      <c r="O60" s="7">
-        <v>0</v>
-      </c>
-      <c r="P60" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="4">
-        <v>0</v>
-      </c>
-      <c r="R60" s="4">
-        <v>0</v>
-      </c>
-      <c r="S60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>152</v>
       </c>
@@ -4539,26 +3429,8 @@
       <c r="M61" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="N61" s="7">
-        <v>1</v>
-      </c>
-      <c r="O61" s="7">
-        <v>0</v>
-      </c>
-      <c r="P61" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="4">
-        <v>0</v>
-      </c>
-      <c r="R61" s="4">
-        <v>0</v>
-      </c>
-      <c r="S61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>153</v>
       </c>
@@ -4588,26 +3460,8 @@
       <c r="M62" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N62" s="7">
-        <v>1</v>
-      </c>
-      <c r="O62" s="7">
-        <v>0</v>
-      </c>
-      <c r="P62" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="4">
-        <v>0</v>
-      </c>
-      <c r="R62" s="4">
-        <v>0</v>
-      </c>
-      <c r="S62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>155</v>
       </c>
@@ -4637,26 +3491,8 @@
       <c r="M63" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N63" s="7">
-        <v>1</v>
-      </c>
-      <c r="O63" s="7">
-        <v>0</v>
-      </c>
-      <c r="P63" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="4">
-        <v>0</v>
-      </c>
-      <c r="R63" s="4">
-        <v>0</v>
-      </c>
-      <c r="S63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>172</v>
       </c>
@@ -4686,26 +3522,8 @@
       <c r="M64" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N64" s="7">
-        <v>1</v>
-      </c>
-      <c r="O64" s="7">
-        <v>0</v>
-      </c>
-      <c r="P64" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="4">
-        <v>0</v>
-      </c>
-      <c r="R64" s="4">
-        <v>0</v>
-      </c>
-      <c r="S64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>173</v>
       </c>
@@ -4735,26 +3553,8 @@
       <c r="M65" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N65" s="7">
-        <v>1</v>
-      </c>
-      <c r="O65" s="7">
-        <v>0</v>
-      </c>
-      <c r="P65" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="4">
-        <v>0</v>
-      </c>
-      <c r="R65" s="4">
-        <v>0</v>
-      </c>
-      <c r="S65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>174</v>
       </c>
@@ -4784,26 +3584,8 @@
       <c r="M66" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N66" s="7">
-        <v>1</v>
-      </c>
-      <c r="O66" s="7">
-        <v>0</v>
-      </c>
-      <c r="P66" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="4">
-        <v>0</v>
-      </c>
-      <c r="R66" s="4">
-        <v>0</v>
-      </c>
-      <c r="S66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>175</v>
       </c>
@@ -4833,26 +3615,8 @@
       <c r="M67" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N67" s="7">
-        <v>1</v>
-      </c>
-      <c r="O67" s="7">
-        <v>0</v>
-      </c>
-      <c r="P67" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="4">
-        <v>0</v>
-      </c>
-      <c r="R67" s="4">
-        <v>0</v>
-      </c>
-      <c r="S67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
@@ -4887,26 +3651,8 @@
       <c r="M68" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N68" s="7">
-        <v>1</v>
-      </c>
-      <c r="O68" s="7">
-        <v>0</v>
-      </c>
-      <c r="P68" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="4">
-        <v>0</v>
-      </c>
-      <c r="R68" s="4">
-        <v>0</v>
-      </c>
-      <c r="S68" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -4941,26 +3687,8 @@
       <c r="M69" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N69" s="7">
-        <v>1</v>
-      </c>
-      <c r="O69" s="7">
-        <v>0</v>
-      </c>
-      <c r="P69" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="4">
-        <v>0</v>
-      </c>
-      <c r="R69" s="4">
-        <v>0</v>
-      </c>
-      <c r="S69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
@@ -4995,26 +3723,8 @@
       <c r="M70" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N70" s="7">
-        <v>1</v>
-      </c>
-      <c r="O70" s="7">
-        <v>0</v>
-      </c>
-      <c r="P70" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="4">
-        <v>0</v>
-      </c>
-      <c r="R70" s="4">
-        <v>0</v>
-      </c>
-      <c r="S70" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
@@ -5049,26 +3759,8 @@
       <c r="M71" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N71" s="7">
-        <v>1</v>
-      </c>
-      <c r="O71" s="7">
-        <v>0</v>
-      </c>
-      <c r="P71" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="4">
-        <v>0</v>
-      </c>
-      <c r="R71" s="4">
-        <v>0</v>
-      </c>
-      <c r="S71" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
@@ -5103,26 +3795,8 @@
       <c r="M72" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N72" s="7">
-        <v>1</v>
-      </c>
-      <c r="O72" s="7">
-        <v>0</v>
-      </c>
-      <c r="P72" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="4">
-        <v>0</v>
-      </c>
-      <c r="R72" s="4">
-        <v>0</v>
-      </c>
-      <c r="S72" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>24</v>
       </c>
@@ -5157,26 +3831,8 @@
       <c r="M73" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N73" s="7">
-        <v>1</v>
-      </c>
-      <c r="O73" s="7">
-        <v>0</v>
-      </c>
-      <c r="P73" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="4">
-        <v>0</v>
-      </c>
-      <c r="R73" s="4">
-        <v>0</v>
-      </c>
-      <c r="S73" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>194</v>
       </c>
@@ -5211,26 +3867,8 @@
       <c r="M74" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N74" s="7">
-        <v>1</v>
-      </c>
-      <c r="O74" s="7">
-        <v>0</v>
-      </c>
-      <c r="P74" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="4">
-        <v>0</v>
-      </c>
-      <c r="R74" s="4">
-        <v>0</v>
-      </c>
-      <c r="S74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>29</v>
       </c>
@@ -5265,26 +3903,8 @@
       <c r="M75" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="N75" s="7">
-        <v>1</v>
-      </c>
-      <c r="O75" s="7">
-        <v>0</v>
-      </c>
-      <c r="P75" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="4">
-        <v>0</v>
-      </c>
-      <c r="R75" s="4">
-        <v>0</v>
-      </c>
-      <c r="S75" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>29</v>
       </c>
@@ -5319,26 +3939,8 @@
       <c r="M76" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="N76" s="7">
-        <v>1</v>
-      </c>
-      <c r="O76" s="7">
-        <v>0</v>
-      </c>
-      <c r="P76" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="4">
-        <v>0</v>
-      </c>
-      <c r="R76" s="4">
-        <v>0</v>
-      </c>
-      <c r="S76" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>29</v>
       </c>
@@ -5373,26 +3975,8 @@
       <c r="M77" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="N77" s="7">
-        <v>1</v>
-      </c>
-      <c r="O77" s="7">
-        <v>0</v>
-      </c>
-      <c r="P77" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="4">
-        <v>0</v>
-      </c>
-      <c r="R77" s="4">
-        <v>0</v>
-      </c>
-      <c r="S77" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
@@ -5427,26 +4011,8 @@
       <c r="M78" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N78" s="7">
-        <v>1</v>
-      </c>
-      <c r="O78" s="7">
-        <v>0</v>
-      </c>
-      <c r="P78" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="4">
-        <v>0</v>
-      </c>
-      <c r="R78" s="4">
-        <v>0</v>
-      </c>
-      <c r="S78" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -5481,26 +4047,8 @@
       <c r="M79" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N79" s="7">
-        <v>1</v>
-      </c>
-      <c r="O79" s="7">
-        <v>0</v>
-      </c>
-      <c r="P79" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="4">
-        <v>0</v>
-      </c>
-      <c r="R79" s="4">
-        <v>0</v>
-      </c>
-      <c r="S79" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>36</v>
       </c>
@@ -5535,26 +4083,8 @@
       <c r="M80" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="N80" s="7">
-        <v>1</v>
-      </c>
-      <c r="O80" s="7">
-        <v>0</v>
-      </c>
-      <c r="P80" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="4">
-        <v>0</v>
-      </c>
-      <c r="R80" s="4">
-        <v>0</v>
-      </c>
-      <c r="S80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
@@ -5586,26 +4116,8 @@
       <c r="M81" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N81" s="7">
-        <v>1</v>
-      </c>
-      <c r="O81" s="7">
-        <v>0</v>
-      </c>
-      <c r="P81" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="4">
-        <v>0</v>
-      </c>
-      <c r="R81" s="4">
-        <v>0</v>
-      </c>
-      <c r="S81" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>41</v>
       </c>
@@ -5637,26 +4149,8 @@
       <c r="M82" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="N82" s="7">
-        <v>1</v>
-      </c>
-      <c r="O82" s="7">
-        <v>0</v>
-      </c>
-      <c r="P82" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="4">
-        <v>0</v>
-      </c>
-      <c r="R82" s="4">
-        <v>0</v>
-      </c>
-      <c r="S82" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>42</v>
       </c>
@@ -5681,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K83" s="2">
         <v>0</v>
@@ -5692,26 +4186,8 @@
       <c r="M83" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N83" s="7">
-        <v>1</v>
-      </c>
-      <c r="O83" s="7">
-        <v>0</v>
-      </c>
-      <c r="P83" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="4">
-        <v>0</v>
-      </c>
-      <c r="R83" s="4">
-        <v>0</v>
-      </c>
-      <c r="S83" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>42</v>
       </c>
@@ -5736,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K84" s="2">
         <v>0</v>
@@ -5747,26 +4223,8 @@
       <c r="M84" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N84" s="7">
-        <v>1</v>
-      </c>
-      <c r="O84" s="7">
-        <v>0</v>
-      </c>
-      <c r="P84" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="4">
-        <v>0</v>
-      </c>
-      <c r="R84" s="4">
-        <v>0</v>
-      </c>
-      <c r="S84" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>42</v>
       </c>
@@ -5791,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K85" s="2">
         <v>0</v>
@@ -5802,26 +4260,8 @@
       <c r="M85" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N85" s="7">
-        <v>1</v>
-      </c>
-      <c r="O85" s="7">
-        <v>0</v>
-      </c>
-      <c r="P85" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="4">
-        <v>0</v>
-      </c>
-      <c r="R85" s="4">
-        <v>0</v>
-      </c>
-      <c r="S85" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>42</v>
       </c>
@@ -5846,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K86" s="2">
         <v>0</v>
@@ -5857,26 +4297,8 @@
       <c r="M86" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N86" s="7">
-        <v>1</v>
-      </c>
-      <c r="O86" s="7">
-        <v>0</v>
-      </c>
-      <c r="P86" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="4">
-        <v>0</v>
-      </c>
-      <c r="R86" s="4">
-        <v>0</v>
-      </c>
-      <c r="S86" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>51</v>
       </c>
@@ -5901,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K87" s="2">
         <v>0</v>
@@ -5912,26 +4334,8 @@
       <c r="M87" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N87" s="7">
-        <v>1</v>
-      </c>
-      <c r="O87" s="7">
-        <v>0</v>
-      </c>
-      <c r="P87" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="4">
-        <v>0</v>
-      </c>
-      <c r="R87" s="4">
-        <v>0</v>
-      </c>
-      <c r="S87" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>51</v>
       </c>
@@ -5956,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K88" s="2">
         <v>0</v>
@@ -5967,26 +4371,8 @@
       <c r="M88" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N88" s="7">
-        <v>1</v>
-      </c>
-      <c r="O88" s="7">
-        <v>0</v>
-      </c>
-      <c r="P88" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="4">
-        <v>0</v>
-      </c>
-      <c r="R88" s="4">
-        <v>0</v>
-      </c>
-      <c r="S88" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>51</v>
       </c>
@@ -6011,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K89" s="2">
         <v>0</v>
@@ -6022,26 +4408,8 @@
       <c r="M89" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N89" s="7">
-        <v>1</v>
-      </c>
-      <c r="O89" s="7">
-        <v>0</v>
-      </c>
-      <c r="P89" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="4">
-        <v>0</v>
-      </c>
-      <c r="R89" s="4">
-        <v>0</v>
-      </c>
-      <c r="S89" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>51</v>
       </c>
@@ -6066,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K90" s="2">
         <v>0</v>
@@ -6076,24 +4444,6 @@
       </c>
       <c r="M90" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="N90" s="7">
-        <v>1</v>
-      </c>
-      <c r="O90" s="7">
-        <v>0</v>
-      </c>
-      <c r="P90" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="4">
-        <v>0</v>
-      </c>
-      <c r="R90" s="4">
-        <v>0</v>
-      </c>
-      <c r="S90" s="4">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6105,12 +4455,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S99"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6124,10 +4474,9 @@
     <col min="10" max="10" width="15.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.875" style="1" customWidth="1"/>
     <col min="12" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="19" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6167,26 +4516,8 @@
       <c r="M1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -6221,26 +4552,8 @@
       <c r="M2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="7">
-        <v>1</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -6275,26 +4588,8 @@
       <c r="M3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N3" s="7">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6329,26 +4624,8 @@
       <c r="M4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -6383,26 +4660,8 @@
       <c r="M5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -6437,26 +4696,8 @@
       <c r="M6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N6" s="7">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -6491,26 +4732,8 @@
       <c r="M7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -6545,26 +4768,8 @@
       <c r="M8" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N8" s="7">
-        <v>1</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -6599,26 +4804,8 @@
       <c r="M9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -6653,26 +4840,8 @@
       <c r="M10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -6707,26 +4876,8 @@
       <c r="M11" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N11" s="7">
-        <v>1</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -6761,26 +4912,8 @@
       <c r="M12" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N12" s="7">
-        <v>1</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -6815,26 +4948,8 @@
       <c r="M13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N13" s="7">
-        <v>1</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -6869,26 +4984,8 @@
       <c r="M14" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N14" s="7">
-        <v>1</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0</v>
-      </c>
-      <c r="S14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -6923,26 +5020,8 @@
       <c r="M15" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N15" s="7">
-        <v>1</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -6977,26 +5056,8 @@
       <c r="M16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N16" s="7">
-        <v>1</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -7031,26 +5092,8 @@
       <c r="M17" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N17" s="7">
-        <v>1</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -7085,26 +5128,8 @@
       <c r="M18" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -7139,26 +5164,8 @@
       <c r="M19" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N19" s="7">
-        <v>1</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -7193,26 +5200,8 @@
       <c r="M20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N20" s="7">
-        <v>1</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -7247,26 +5236,8 @@
       <c r="M21" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N21" s="7">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -7301,26 +5272,8 @@
       <c r="M22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N22" s="7">
-        <v>1</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -7355,26 +5308,8 @@
       <c r="M23" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N23" s="7">
-        <v>1</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-      <c r="P23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0</v>
-      </c>
-      <c r="S23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -7409,26 +5344,8 @@
       <c r="M24" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N24" s="7">
-        <v>1</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0</v>
-      </c>
-      <c r="P24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>0</v>
-      </c>
-      <c r="R24" s="4">
-        <v>0</v>
-      </c>
-      <c r="S24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -7463,26 +5380,8 @@
       <c r="M25" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N25" s="7">
-        <v>1</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-      <c r="P25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>0</v>
-      </c>
-      <c r="R25" s="4">
-        <v>0</v>
-      </c>
-      <c r="S25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -7517,26 +5416,8 @@
       <c r="M26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N26" s="7">
-        <v>1</v>
-      </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0</v>
-      </c>
-      <c r="R26" s="4">
-        <v>0</v>
-      </c>
-      <c r="S26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -7571,26 +5452,8 @@
       <c r="M27" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N27" s="7">
-        <v>1</v>
-      </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-      <c r="P27" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>0</v>
-      </c>
-      <c r="R27" s="4">
-        <v>0</v>
-      </c>
-      <c r="S27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -7625,26 +5488,8 @@
       <c r="M28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N28" s="7">
-        <v>1</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-      <c r="P28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>0</v>
-      </c>
-      <c r="R28" s="4">
-        <v>0</v>
-      </c>
-      <c r="S28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -7679,26 +5524,8 @@
       <c r="M29" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N29" s="7">
-        <v>1</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-      <c r="P29" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>0</v>
-      </c>
-      <c r="R29" s="4">
-        <v>0</v>
-      </c>
-      <c r="S29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -7733,26 +5560,8 @@
       <c r="M30" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N30" s="7">
-        <v>1</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
-      <c r="R30" s="4">
-        <v>0</v>
-      </c>
-      <c r="S30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -7787,26 +5596,8 @@
       <c r="M31" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N31" s="7">
-        <v>1</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -7841,26 +5632,8 @@
       <c r="M32" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N32" s="7">
-        <v>1</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-      <c r="P32" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>0</v>
-      </c>
-      <c r="R32" s="4">
-        <v>0</v>
-      </c>
-      <c r="S32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -7895,26 +5668,8 @@
       <c r="M33" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N33" s="7">
-        <v>1</v>
-      </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-      <c r="P33" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>0</v>
-      </c>
-      <c r="R33" s="4">
-        <v>0</v>
-      </c>
-      <c r="S33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -7949,26 +5704,8 @@
       <c r="M34" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N34" s="7">
-        <v>1</v>
-      </c>
-      <c r="O34" s="7">
-        <v>0</v>
-      </c>
-      <c r="P34" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>0</v>
-      </c>
-      <c r="R34" s="4">
-        <v>0</v>
-      </c>
-      <c r="S34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -8003,26 +5740,8 @@
       <c r="M35" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N35" s="7">
-        <v>1</v>
-      </c>
-      <c r="O35" s="7">
-        <v>0</v>
-      </c>
-      <c r="P35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>0</v>
-      </c>
-      <c r="R35" s="4">
-        <v>0</v>
-      </c>
-      <c r="S35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -8057,26 +5776,8 @@
       <c r="M36" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N36" s="7">
-        <v>1</v>
-      </c>
-      <c r="O36" s="7">
-        <v>0</v>
-      </c>
-      <c r="P36" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>0</v>
-      </c>
-      <c r="R36" s="4">
-        <v>0</v>
-      </c>
-      <c r="S36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -8111,26 +5812,8 @@
       <c r="M37" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N37" s="7">
-        <v>1</v>
-      </c>
-      <c r="O37" s="7">
-        <v>0</v>
-      </c>
-      <c r="P37" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>0</v>
-      </c>
-      <c r="R37" s="4">
-        <v>0</v>
-      </c>
-      <c r="S37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -8165,26 +5848,8 @@
       <c r="M38" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N38" s="7">
-        <v>1</v>
-      </c>
-      <c r="O38" s="7">
-        <v>0</v>
-      </c>
-      <c r="P38" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>0</v>
-      </c>
-      <c r="R38" s="4">
-        <v>0</v>
-      </c>
-      <c r="S38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -8219,26 +5884,8 @@
       <c r="M39" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N39" s="7">
-        <v>1</v>
-      </c>
-      <c r="O39" s="7">
-        <v>0</v>
-      </c>
-      <c r="P39" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>0</v>
-      </c>
-      <c r="R39" s="4">
-        <v>0</v>
-      </c>
-      <c r="S39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -8273,26 +5920,8 @@
       <c r="M40" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N40" s="7">
-        <v>1</v>
-      </c>
-      <c r="O40" s="7">
-        <v>0</v>
-      </c>
-      <c r="P40" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>0</v>
-      </c>
-      <c r="R40" s="4">
-        <v>0</v>
-      </c>
-      <c r="S40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -8327,26 +5956,8 @@
       <c r="M41" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N41" s="7">
-        <v>1</v>
-      </c>
-      <c r="O41" s="7">
-        <v>0</v>
-      </c>
-      <c r="P41" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>0</v>
-      </c>
-      <c r="R41" s="4">
-        <v>0</v>
-      </c>
-      <c r="S41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -8381,26 +5992,8 @@
       <c r="M42" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N42" s="7">
-        <v>1</v>
-      </c>
-      <c r="O42" s="7">
-        <v>0</v>
-      </c>
-      <c r="P42" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>0</v>
-      </c>
-      <c r="R42" s="4">
-        <v>0</v>
-      </c>
-      <c r="S42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -8435,26 +6028,8 @@
       <c r="M43" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N43" s="7">
-        <v>1</v>
-      </c>
-      <c r="O43" s="7">
-        <v>0</v>
-      </c>
-      <c r="P43" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>0</v>
-      </c>
-      <c r="R43" s="4">
-        <v>0</v>
-      </c>
-      <c r="S43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -8489,26 +6064,8 @@
       <c r="M44" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="7">
-        <v>1</v>
-      </c>
-      <c r="O44" s="7">
-        <v>0</v>
-      </c>
-      <c r="P44" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>0</v>
-      </c>
-      <c r="R44" s="4">
-        <v>0</v>
-      </c>
-      <c r="S44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -8543,26 +6100,8 @@
       <c r="M45" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N45" s="7">
-        <v>1</v>
-      </c>
-      <c r="O45" s="7">
-        <v>0</v>
-      </c>
-      <c r="P45" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>0</v>
-      </c>
-      <c r="R45" s="4">
-        <v>0</v>
-      </c>
-      <c r="S45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -8597,26 +6136,8 @@
       <c r="M46" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N46" s="7">
-        <v>1</v>
-      </c>
-      <c r="O46" s="7">
-        <v>0</v>
-      </c>
-      <c r="P46" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>0</v>
-      </c>
-      <c r="R46" s="4">
-        <v>0</v>
-      </c>
-      <c r="S46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -8651,26 +6172,8 @@
       <c r="M47" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N47" s="7">
-        <v>1</v>
-      </c>
-      <c r="O47" s="7">
-        <v>0</v>
-      </c>
-      <c r="P47" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>0</v>
-      </c>
-      <c r="R47" s="4">
-        <v>0</v>
-      </c>
-      <c r="S47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -8705,26 +6208,8 @@
       <c r="M48" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N48" s="7">
-        <v>1</v>
-      </c>
-      <c r="O48" s="7">
-        <v>0</v>
-      </c>
-      <c r="P48" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>0</v>
-      </c>
-      <c r="R48" s="4">
-        <v>0</v>
-      </c>
-      <c r="S48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -8759,26 +6244,8 @@
       <c r="M49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N49" s="7">
-        <v>1</v>
-      </c>
-      <c r="O49" s="7">
-        <v>0</v>
-      </c>
-      <c r="P49" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>0</v>
-      </c>
-      <c r="R49" s="4">
-        <v>0</v>
-      </c>
-      <c r="S49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -8813,26 +6280,8 @@
       <c r="M50" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N50" s="7">
-        <v>1</v>
-      </c>
-      <c r="O50" s="7">
-        <v>0</v>
-      </c>
-      <c r="P50" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="4">
-        <v>0</v>
-      </c>
-      <c r="R50" s="4">
-        <v>0</v>
-      </c>
-      <c r="S50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -8867,26 +6316,8 @@
       <c r="M51" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N51" s="7">
-        <v>1</v>
-      </c>
-      <c r="O51" s="7">
-        <v>0</v>
-      </c>
-      <c r="P51" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>0</v>
-      </c>
-      <c r="R51" s="4">
-        <v>0</v>
-      </c>
-      <c r="S51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -8921,26 +6352,8 @@
       <c r="M52" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N52" s="7">
-        <v>1</v>
-      </c>
-      <c r="O52" s="7">
-        <v>0</v>
-      </c>
-      <c r="P52" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="4">
-        <v>0</v>
-      </c>
-      <c r="R52" s="4">
-        <v>0</v>
-      </c>
-      <c r="S52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -8975,26 +6388,8 @@
       <c r="M53" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N53" s="7">
-        <v>1</v>
-      </c>
-      <c r="O53" s="7">
-        <v>0</v>
-      </c>
-      <c r="P53" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="4">
-        <v>0</v>
-      </c>
-      <c r="R53" s="4">
-        <v>0</v>
-      </c>
-      <c r="S53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -9029,26 +6424,8 @@
       <c r="M54" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N54" s="7">
-        <v>1</v>
-      </c>
-      <c r="O54" s="7">
-        <v>0</v>
-      </c>
-      <c r="P54" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="4">
-        <v>0</v>
-      </c>
-      <c r="R54" s="4">
-        <v>0</v>
-      </c>
-      <c r="S54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -9083,26 +6460,8 @@
       <c r="M55" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N55" s="7">
-        <v>1</v>
-      </c>
-      <c r="O55" s="7">
-        <v>0</v>
-      </c>
-      <c r="P55" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="4">
-        <v>0</v>
-      </c>
-      <c r="R55" s="4">
-        <v>0</v>
-      </c>
-      <c r="S55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
@@ -9137,26 +6496,8 @@
       <c r="M56" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N56" s="7">
-        <v>1</v>
-      </c>
-      <c r="O56" s="7">
-        <v>0</v>
-      </c>
-      <c r="P56" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="4">
-        <v>0</v>
-      </c>
-      <c r="R56" s="4">
-        <v>0</v>
-      </c>
-      <c r="S56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -9191,26 +6532,8 @@
       <c r="M57" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N57" s="7">
-        <v>1</v>
-      </c>
-      <c r="O57" s="7">
-        <v>0</v>
-      </c>
-      <c r="P57" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>0</v>
-      </c>
-      <c r="R57" s="4">
-        <v>0</v>
-      </c>
-      <c r="S57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -9245,26 +6568,8 @@
       <c r="M58" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N58" s="7">
-        <v>1</v>
-      </c>
-      <c r="O58" s="7">
-        <v>0</v>
-      </c>
-      <c r="P58" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="4">
-        <v>0</v>
-      </c>
-      <c r="R58" s="4">
-        <v>0</v>
-      </c>
-      <c r="S58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -9299,26 +6604,8 @@
       <c r="M59" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N59" s="7">
-        <v>1</v>
-      </c>
-      <c r="O59" s="7">
-        <v>0</v>
-      </c>
-      <c r="P59" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="4">
-        <v>0</v>
-      </c>
-      <c r="R59" s="4">
-        <v>0</v>
-      </c>
-      <c r="S59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -9353,26 +6640,8 @@
       <c r="M60" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N60" s="7">
-        <v>1</v>
-      </c>
-      <c r="O60" s="7">
-        <v>0</v>
-      </c>
-      <c r="P60" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="4">
-        <v>0</v>
-      </c>
-      <c r="R60" s="4">
-        <v>0</v>
-      </c>
-      <c r="S60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -9407,26 +6676,8 @@
       <c r="M61" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N61" s="7">
-        <v>1</v>
-      </c>
-      <c r="O61" s="7">
-        <v>0</v>
-      </c>
-      <c r="P61" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="4">
-        <v>0</v>
-      </c>
-      <c r="R61" s="4">
-        <v>0</v>
-      </c>
-      <c r="S61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -9461,26 +6712,8 @@
       <c r="M62" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N62" s="7">
-        <v>1</v>
-      </c>
-      <c r="O62" s="7">
-        <v>0</v>
-      </c>
-      <c r="P62" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="4">
-        <v>0</v>
-      </c>
-      <c r="R62" s="4">
-        <v>0</v>
-      </c>
-      <c r="S62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -9515,26 +6748,8 @@
       <c r="M63" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N63" s="7">
-        <v>1</v>
-      </c>
-      <c r="O63" s="7">
-        <v>0</v>
-      </c>
-      <c r="P63" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="4">
-        <v>0</v>
-      </c>
-      <c r="R63" s="4">
-        <v>0</v>
-      </c>
-      <c r="S63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -9569,26 +6784,8 @@
       <c r="M64" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N64" s="7">
-        <v>1</v>
-      </c>
-      <c r="O64" s="7">
-        <v>0</v>
-      </c>
-      <c r="P64" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="4">
-        <v>0</v>
-      </c>
-      <c r="R64" s="4">
-        <v>0</v>
-      </c>
-      <c r="S64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -9623,26 +6820,8 @@
       <c r="M65" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N65" s="7">
-        <v>1</v>
-      </c>
-      <c r="O65" s="7">
-        <v>0</v>
-      </c>
-      <c r="P65" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="4">
-        <v>0</v>
-      </c>
-      <c r="R65" s="4">
-        <v>0</v>
-      </c>
-      <c r="S65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -9677,26 +6856,8 @@
       <c r="M66" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N66" s="7">
-        <v>1</v>
-      </c>
-      <c r="O66" s="7">
-        <v>0</v>
-      </c>
-      <c r="P66" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="4">
-        <v>0</v>
-      </c>
-      <c r="R66" s="4">
-        <v>0</v>
-      </c>
-      <c r="S66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
@@ -9731,26 +6892,8 @@
       <c r="M67" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N67" s="7">
-        <v>1</v>
-      </c>
-      <c r="O67" s="7">
-        <v>0</v>
-      </c>
-      <c r="P67" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="4">
-        <v>0</v>
-      </c>
-      <c r="R67" s="4">
-        <v>0</v>
-      </c>
-      <c r="S67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
@@ -9785,26 +6928,8 @@
       <c r="M68" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N68" s="7">
-        <v>1</v>
-      </c>
-      <c r="O68" s="7">
-        <v>0</v>
-      </c>
-      <c r="P68" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="4">
-        <v>0</v>
-      </c>
-      <c r="R68" s="4">
-        <v>0</v>
-      </c>
-      <c r="S68" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -9839,26 +6964,8 @@
       <c r="M69" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N69" s="7">
-        <v>1</v>
-      </c>
-      <c r="O69" s="7">
-        <v>0</v>
-      </c>
-      <c r="P69" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="4">
-        <v>0</v>
-      </c>
-      <c r="R69" s="4">
-        <v>0</v>
-      </c>
-      <c r="S69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
@@ -9893,26 +7000,8 @@
       <c r="M70" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N70" s="7">
-        <v>1</v>
-      </c>
-      <c r="O70" s="7">
-        <v>0</v>
-      </c>
-      <c r="P70" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="4">
-        <v>0</v>
-      </c>
-      <c r="R70" s="4">
-        <v>0</v>
-      </c>
-      <c r="S70" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
@@ -9950,26 +7039,8 @@
       <c r="M71" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N71" s="7">
-        <v>1</v>
-      </c>
-      <c r="O71" s="7">
-        <v>0</v>
-      </c>
-      <c r="P71" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="4">
-        <v>0</v>
-      </c>
-      <c r="R71" s="4">
-        <v>0</v>
-      </c>
-      <c r="S71" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>67</v>
       </c>
@@ -10007,26 +7078,8 @@
       <c r="M72" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N72" s="7">
-        <v>1</v>
-      </c>
-      <c r="O72" s="7">
-        <v>0</v>
-      </c>
-      <c r="P72" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="4">
-        <v>0</v>
-      </c>
-      <c r="R72" s="4">
-        <v>0</v>
-      </c>
-      <c r="S72" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>67</v>
       </c>
@@ -10064,26 +7117,8 @@
       <c r="M73" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N73" s="7">
-        <v>1</v>
-      </c>
-      <c r="O73" s="7">
-        <v>0</v>
-      </c>
-      <c r="P73" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="4">
-        <v>0</v>
-      </c>
-      <c r="R73" s="4">
-        <v>0</v>
-      </c>
-      <c r="S73" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>67</v>
       </c>
@@ -10121,26 +7156,8 @@
       <c r="M74" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N74" s="7">
-        <v>1</v>
-      </c>
-      <c r="O74" s="7">
-        <v>0</v>
-      </c>
-      <c r="P74" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="4">
-        <v>0</v>
-      </c>
-      <c r="R74" s="4">
-        <v>0</v>
-      </c>
-      <c r="S74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -10178,26 +7195,8 @@
       <c r="M75" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N75" s="7">
-        <v>1</v>
-      </c>
-      <c r="O75" s="7">
-        <v>0</v>
-      </c>
-      <c r="P75" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="4">
-        <v>0</v>
-      </c>
-      <c r="R75" s="4">
-        <v>0</v>
-      </c>
-      <c r="S75" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -10235,26 +7234,8 @@
       <c r="M76" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N76" s="7">
-        <v>1</v>
-      </c>
-      <c r="O76" s="7">
-        <v>0</v>
-      </c>
-      <c r="P76" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="4">
-        <v>0</v>
-      </c>
-      <c r="R76" s="4">
-        <v>0</v>
-      </c>
-      <c r="S76" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>73</v>
       </c>
@@ -10292,26 +7273,8 @@
       <c r="M77" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N77" s="7">
-        <v>1</v>
-      </c>
-      <c r="O77" s="7">
-        <v>0</v>
-      </c>
-      <c r="P77" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="4">
-        <v>0</v>
-      </c>
-      <c r="R77" s="4">
-        <v>0</v>
-      </c>
-      <c r="S77" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>73</v>
       </c>
@@ -10349,26 +7312,8 @@
       <c r="M78" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N78" s="7">
-        <v>1</v>
-      </c>
-      <c r="O78" s="7">
-        <v>0</v>
-      </c>
-      <c r="P78" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="4">
-        <v>0</v>
-      </c>
-      <c r="R78" s="4">
-        <v>0</v>
-      </c>
-      <c r="S78" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -10403,26 +7348,8 @@
       <c r="M79" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="N79" s="7">
-        <v>1</v>
-      </c>
-      <c r="O79" s="7">
-        <v>0</v>
-      </c>
-      <c r="P79" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="4">
-        <v>0</v>
-      </c>
-      <c r="R79" s="4">
-        <v>0</v>
-      </c>
-      <c r="S79" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -10457,26 +7384,8 @@
       <c r="M80" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="N80" s="7">
-        <v>1</v>
-      </c>
-      <c r="O80" s="7">
-        <v>0</v>
-      </c>
-      <c r="P80" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="4">
-        <v>0</v>
-      </c>
-      <c r="R80" s="4">
-        <v>0</v>
-      </c>
-      <c r="S80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>147</v>
       </c>
@@ -10506,26 +7415,8 @@
       <c r="M81" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="N81" s="7">
-        <v>1</v>
-      </c>
-      <c r="O81" s="7">
-        <v>0</v>
-      </c>
-      <c r="P81" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="4">
-        <v>0</v>
-      </c>
-      <c r="R81" s="4">
-        <v>0</v>
-      </c>
-      <c r="S81" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -10555,26 +7446,8 @@
       <c r="M82" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="N82" s="7">
-        <v>1</v>
-      </c>
-      <c r="O82" s="7">
-        <v>0</v>
-      </c>
-      <c r="P82" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="4">
-        <v>0</v>
-      </c>
-      <c r="R82" s="4">
-        <v>0</v>
-      </c>
-      <c r="S82" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>86</v>
       </c>
@@ -10609,26 +7482,8 @@
       <c r="M83" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N83" s="7">
-        <v>1</v>
-      </c>
-      <c r="O83" s="7">
-        <v>0</v>
-      </c>
-      <c r="P83" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="4">
-        <v>0</v>
-      </c>
-      <c r="R83" s="4">
-        <v>0</v>
-      </c>
-      <c r="S83" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -10668,26 +7523,8 @@
       <c r="M84" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N84" s="7">
-        <v>1</v>
-      </c>
-      <c r="O84" s="7">
-        <v>0</v>
-      </c>
-      <c r="P84" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="4">
-        <v>0</v>
-      </c>
-      <c r="R84" s="4">
-        <v>0</v>
-      </c>
-      <c r="S84" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -10722,26 +7559,8 @@
       <c r="M85" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N85" s="7">
-        <v>1</v>
-      </c>
-      <c r="O85" s="7">
-        <v>0</v>
-      </c>
-      <c r="P85" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="4">
-        <v>0</v>
-      </c>
-      <c r="R85" s="4">
-        <v>0</v>
-      </c>
-      <c r="S85" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
@@ -10779,26 +7598,8 @@
       <c r="M86" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N86" s="7">
-        <v>1</v>
-      </c>
-      <c r="O86" s="7">
-        <v>0</v>
-      </c>
-      <c r="P86" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="4">
-        <v>0</v>
-      </c>
-      <c r="R86" s="4">
-        <v>0</v>
-      </c>
-      <c r="S86" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -10833,26 +7634,8 @@
       <c r="M87" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N87" s="7">
-        <v>1</v>
-      </c>
-      <c r="O87" s="7">
-        <v>0</v>
-      </c>
-      <c r="P87" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="4">
-        <v>0</v>
-      </c>
-      <c r="R87" s="4">
-        <v>0</v>
-      </c>
-      <c r="S87" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -10890,26 +7673,8 @@
       <c r="M88" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N88" s="7">
-        <v>1</v>
-      </c>
-      <c r="O88" s="7">
-        <v>0</v>
-      </c>
-      <c r="P88" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="4">
-        <v>0</v>
-      </c>
-      <c r="R88" s="4">
-        <v>0</v>
-      </c>
-      <c r="S88" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -10944,26 +7709,8 @@
       <c r="M89" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N89" s="7">
-        <v>1</v>
-      </c>
-      <c r="O89" s="7">
-        <v>0</v>
-      </c>
-      <c r="P89" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="4">
-        <v>0</v>
-      </c>
-      <c r="R89" s="4">
-        <v>0</v>
-      </c>
-      <c r="S89" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>99</v>
       </c>
@@ -11001,26 +7748,8 @@
       <c r="M90" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N90" s="7">
-        <v>1</v>
-      </c>
-      <c r="O90" s="7">
-        <v>0</v>
-      </c>
-      <c r="P90" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="4">
-        <v>0</v>
-      </c>
-      <c r="R90" s="4">
-        <v>0</v>
-      </c>
-      <c r="S90" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>277</v>
       </c>
@@ -11053,26 +7782,8 @@
       <c r="M91" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N91" s="7">
-        <v>1</v>
-      </c>
-      <c r="O91" s="7">
-        <v>0</v>
-      </c>
-      <c r="P91" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="4">
-        <v>0</v>
-      </c>
-      <c r="R91" s="4">
-        <v>0</v>
-      </c>
-      <c r="S91" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>277</v>
       </c>
@@ -11110,26 +7821,8 @@
       <c r="M92" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N92" s="7">
-        <v>1</v>
-      </c>
-      <c r="O92" s="7">
-        <v>0</v>
-      </c>
-      <c r="P92" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="4">
-        <v>0</v>
-      </c>
-      <c r="R92" s="4">
-        <v>0</v>
-      </c>
-      <c r="S92" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>277</v>
       </c>
@@ -11164,26 +7857,8 @@
       <c r="M93" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N93" s="7">
-        <v>1</v>
-      </c>
-      <c r="O93" s="7">
-        <v>0</v>
-      </c>
-      <c r="P93" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="4">
-        <v>0</v>
-      </c>
-      <c r="R93" s="4">
-        <v>0</v>
-      </c>
-      <c r="S93" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>277</v>
       </c>
@@ -11221,26 +7896,8 @@
       <c r="M94" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N94" s="7">
-        <v>1</v>
-      </c>
-      <c r="O94" s="7">
-        <v>0</v>
-      </c>
-      <c r="P94" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="4">
-        <v>0</v>
-      </c>
-      <c r="R94" s="4">
-        <v>0</v>
-      </c>
-      <c r="S94" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>282</v>
       </c>
@@ -11275,26 +7932,8 @@
       <c r="M95" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N95" s="7">
-        <v>1</v>
-      </c>
-      <c r="O95" s="7">
-        <v>0</v>
-      </c>
-      <c r="P95" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="4">
-        <v>0</v>
-      </c>
-      <c r="R95" s="4">
-        <v>0</v>
-      </c>
-      <c r="S95" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
         <v>282</v>
       </c>
@@ -11332,26 +7971,8 @@
       <c r="M96" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N96" s="7">
-        <v>1</v>
-      </c>
-      <c r="O96" s="7">
-        <v>0</v>
-      </c>
-      <c r="P96" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="4">
-        <v>0</v>
-      </c>
-      <c r="R96" s="4">
-        <v>0</v>
-      </c>
-      <c r="S96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>29</v>
       </c>
@@ -11387,30 +8008,12 @@
       <c r="M97" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="N97" s="7">
-        <v>1</v>
-      </c>
-      <c r="O97" s="7">
-        <v>0</v>
-      </c>
-      <c r="P97" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="4">
-        <v>0</v>
-      </c>
-      <c r="R97" s="4">
-        <v>0</v>
-      </c>
-      <c r="S97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L98" s="2"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L99" s="2"/>
       <c r="M99" s="3"/>
     </row>

--- a/AutoLoader/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/Contents/Support/提资转换配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Git\ThMEPEngine\AutoLoader\Contents\Support\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fis\AI研究中心\02临时文件\张皓\模板文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="302">
   <si>
     <t>源块名</t>
   </si>
@@ -194,15 +194,6 @@
   </si>
   <si>
     <t>电/手动排烟阀（电机、手动、常闭）MEEC</t>
-  </si>
-  <si>
-    <t>板式排烟口PS</t>
-  </si>
-  <si>
-    <t>多叶排烟口GS</t>
-  </si>
-  <si>
-    <t>多叶送风口GP</t>
   </si>
   <si>
     <t>150度防火阀</t>
@@ -411,9 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>锅炉标</t>
-  </si>
-  <si>
     <t>冷却塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,10 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防火阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>压差传感器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,20 +450,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防火阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>给排水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水流指示器</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警阀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>压力开关</t>
@@ -526,18 +502,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI-壁式排风扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AI-壁式轴流风机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI-吊顶式空调箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AI-吊顶式排风扇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -550,10 +518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>排风扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>壁式小风机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,10 +552,6 @@
   </si>
   <si>
     <t>E-BVRF011</t>
-  </si>
-  <si>
-    <t>AI-中静压VRF室内机(风管机)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E-BVRF012</t>
@@ -1004,6 +964,83 @@
   <si>
     <t>E-BDB054,E-BFAS23-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-BDB054,E-BFAS23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280度防火阀</t>
+  </si>
+  <si>
+    <t>280度防火阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI-吊顶式空调箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶式空调箱</t>
+  </si>
+  <si>
+    <t>AI-中静压VRF室内机(风管机)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风管机</t>
+  </si>
+  <si>
+    <t>AI-壁式排风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁式排风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70度防火阀</t>
+  </si>
+  <si>
+    <t>70度防火阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70度防火阀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>280度防火阀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动防火阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板式排烟口PS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>板式排烟口</t>
+  </si>
+  <si>
+    <t>多叶排烟口GS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多叶排烟口</t>
+  </si>
+  <si>
+    <t>多叶送风口GP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多叶送风口</t>
   </si>
 </sst>
 </file>
@@ -1389,10 +1426,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1401,25 +1438,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -1427,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -1439,7 +1476,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="1">
@@ -1450,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1473,7 +1510,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="1">
@@ -1484,18 +1521,18 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1507,7 +1544,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="1">
@@ -1518,18 +1555,18 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -1541,7 +1578,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="1">
@@ -1552,18 +1589,18 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -1575,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="1">
@@ -1586,18 +1623,18 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1609,7 +1646,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="1">
@@ -1620,18 +1657,18 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -1643,7 +1680,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="1">
@@ -1654,18 +1691,18 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -1677,7 +1714,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="1">
@@ -1688,18 +1725,18 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -1711,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="1">
@@ -1722,18 +1759,18 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -1745,7 +1782,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="1">
@@ -1756,18 +1793,18 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -1779,7 +1816,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="1">
@@ -1790,18 +1827,18 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -1813,7 +1850,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="1">
@@ -1824,18 +1861,18 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -1847,7 +1884,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="1">
@@ -1858,18 +1895,18 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -1881,7 +1918,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="1">
@@ -1892,18 +1929,18 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -1915,7 +1952,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="1">
@@ -1926,18 +1963,18 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -1949,7 +1986,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="1">
@@ -1960,18 +1997,18 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -1983,7 +2020,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="1">
@@ -1994,18 +2031,18 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -2017,7 +2054,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="1">
@@ -2028,18 +2065,18 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2051,7 +2088,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="1">
@@ -2062,18 +2099,18 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2085,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="1">
@@ -2096,18 +2133,18 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -2119,7 +2156,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="1">
@@ -2130,18 +2167,18 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -2153,7 +2190,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="1">
@@ -2164,18 +2201,18 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -2187,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="1">
@@ -2198,18 +2235,18 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -2221,7 +2258,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="1">
@@ -2232,18 +2269,18 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -2255,7 +2292,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="1">
@@ -2266,18 +2303,18 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -2289,7 +2326,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="1">
@@ -2300,18 +2337,18 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -2323,7 +2360,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="1">
@@ -2334,18 +2371,18 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -2357,7 +2394,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="1">
@@ -2368,18 +2405,18 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -2391,7 +2428,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="1">
@@ -2402,18 +2439,18 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -2425,7 +2462,7 @@
         <v>7</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="1">
@@ -2436,18 +2473,18 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -2459,7 +2496,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="1">
@@ -2470,18 +2507,18 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -2493,7 +2530,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="1">
@@ -2504,18 +2541,18 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -2527,7 +2564,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="1">
@@ -2538,18 +2575,18 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -2561,7 +2598,7 @@
         <v>7</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="1">
@@ -2572,18 +2609,18 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -2595,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="1">
@@ -2606,18 +2643,18 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -2629,7 +2666,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="1">
@@ -2640,18 +2677,18 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -2663,7 +2700,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="1">
@@ -2674,21 +2711,21 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>6</v>
@@ -2697,7 +2734,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="1">
@@ -2708,18 +2745,18 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -2731,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="1">
@@ -2742,10 +2779,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -2753,7 +2790,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -2765,7 +2802,7 @@
         <v>7</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="1">
@@ -2776,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -2787,7 +2824,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -2799,7 +2836,7 @@
         <v>7</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="1">
@@ -2810,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -2821,10 +2858,10 @@
         <v>10</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
@@ -2833,7 +2870,7 @@
         <v>7</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="1">
@@ -2844,18 +2881,18 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -2867,7 +2904,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="1">
@@ -2877,18 +2914,18 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -2900,7 +2937,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="1">
@@ -2910,18 +2947,18 @@
         <v>0</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>123</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -2933,7 +2970,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="1">
@@ -2943,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M46" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -2954,7 +2991,7 @@
         <v>11</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -2966,7 +3003,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="1">
@@ -2976,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -2987,7 +3024,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -2999,7 +3036,7 @@
         <v>13</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="1">
@@ -3009,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3020,7 +3057,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -3032,7 +3069,7 @@
         <v>13</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="1">
@@ -3042,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3053,7 +3090,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -3065,7 +3102,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="1">
@@ -3075,10 +3112,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3086,7 +3123,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
@@ -3098,7 +3135,7 @@
         <v>13</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="1">
@@ -3108,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3119,7 +3156,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
@@ -3131,7 +3168,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="1">
@@ -3141,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3152,7 +3189,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -3164,7 +3201,7 @@
         <v>13</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="1">
@@ -3174,10 +3211,10 @@
         <v>0</v>
       </c>
       <c r="L53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M53" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3185,7 +3222,7 @@
         <v>20</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
@@ -3197,7 +3234,7 @@
         <v>13</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="1">
@@ -3207,28 +3244,28 @@
         <v>0</v>
       </c>
       <c r="L54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M54" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="1">
@@ -3238,28 +3275,28 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="1">
@@ -3269,28 +3306,28 @@
         <v>0</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="1">
@@ -3300,28 +3337,28 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="1">
@@ -3331,28 +3368,28 @@
         <v>0</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>154</v>
+        <v>284</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="1">
@@ -3362,28 +3399,28 @@
         <v>0</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="1">
@@ -3393,28 +3430,28 @@
         <v>0</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>157</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="1">
@@ -3424,28 +3461,28 @@
         <v>0</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="1">
@@ -3455,28 +3492,28 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="1">
@@ -3486,28 +3523,28 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="1">
@@ -3517,28 +3554,28 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="1">
@@ -3548,28 +3585,28 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="1">
@@ -3579,28 +3616,28 @@
         <v>0</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="1">
@@ -3610,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -3621,10 +3658,10 @@
         <v>21</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
@@ -3636,7 +3673,7 @@
         <v>23</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="1">
@@ -3646,10 +3683,10 @@
         <v>0</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -3657,10 +3694,10 @@
         <v>21</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -3672,7 +3709,7 @@
         <v>23</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="1">
@@ -3682,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3696,7 +3733,7 @@
         <v>25</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
@@ -3708,7 +3745,7 @@
         <v>23</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="1">
@@ -3718,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -3732,7 +3769,7 @@
         <v>26</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D71" s="3">
         <v>0</v>
@@ -3744,7 +3781,7 @@
         <v>23</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="1">
@@ -3754,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -3768,7 +3805,7 @@
         <v>27</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D72" s="3">
         <v>0</v>
@@ -3780,7 +3817,7 @@
         <v>23</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="1">
@@ -3790,10 +3827,10 @@
         <v>0</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -3804,7 +3841,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
@@ -3816,7 +3853,7 @@
         <v>23</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="1">
@@ -3826,21 +3863,21 @@
         <v>0</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
@@ -3852,7 +3889,7 @@
         <v>23</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="1">
@@ -3862,10 +3899,10 @@
         <v>0</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.15">
@@ -3876,7 +3913,7 @@
         <v>30</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -3888,7 +3925,7 @@
         <v>23</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="1">
@@ -3898,10 +3935,10 @@
         <v>0</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3912,7 +3949,7 @@
         <v>32</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D76" s="3">
         <v>0</v>
@@ -3924,7 +3961,7 @@
         <v>23</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="1">
@@ -3934,10 +3971,10 @@
         <v>0</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3945,10 +3982,10 @@
         <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D77" s="3">
         <v>0</v>
@@ -3960,7 +3997,7 @@
         <v>23</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="1">
@@ -3970,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3984,7 +4021,7 @@
         <v>34</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D78" s="3">
         <v>0</v>
@@ -3996,7 +4033,7 @@
         <v>23</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="1">
@@ -4006,10 +4043,10 @@
         <v>0</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4017,10 +4054,10 @@
         <v>29</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D79" s="3">
         <v>0</v>
@@ -4032,7 +4069,7 @@
         <v>23</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="1">
@@ -4042,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4056,7 +4093,7 @@
         <v>37</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D80" s="3">
         <v>0</v>
@@ -4068,7 +4105,7 @@
         <v>23</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="1">
@@ -4078,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4089,7 +4126,7 @@
         <v>39</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D81" s="3">
         <v>0</v>
@@ -4101,7 +4138,7 @@
         <v>7</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="1">
@@ -4111,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4122,7 +4159,7 @@
         <v>41</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D82" s="3">
         <v>0</v>
@@ -4134,7 +4171,7 @@
         <v>7</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="1">
@@ -4144,10 +4181,10 @@
         <v>1</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4158,7 +4195,7 @@
         <v>43</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="1" t="s">
@@ -4168,23 +4205,23 @@
         <v>7</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="1">
         <v>1</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="K83" s="2">
         <v>0</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4195,7 +4232,7 @@
         <v>45</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="1" t="s">
@@ -4205,23 +4242,23 @@
         <v>7</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="1">
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="K84" s="2">
         <v>0</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4232,7 +4269,7 @@
         <v>47</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="1" t="s">
@@ -4242,23 +4279,23 @@
         <v>7</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="1">
         <v>1</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K85" s="2">
         <v>0</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4269,7 +4306,7 @@
         <v>49</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="1" t="s">
@@ -4279,23 +4316,23 @@
         <v>7</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="1">
         <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K86" s="2">
         <v>0</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4306,7 +4343,7 @@
         <v>43</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="1" t="s">
@@ -4316,23 +4353,23 @@
         <v>7</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="1">
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K87" s="2">
         <v>0</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4343,7 +4380,7 @@
         <v>45</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="1" t="s">
@@ -4353,23 +4390,23 @@
         <v>7</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="1">
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K88" s="2">
         <v>0</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4380,7 +4417,7 @@
         <v>47</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="1" t="s">
@@ -4390,23 +4427,23 @@
         <v>7</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="1">
         <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K89" s="2">
         <v>0</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4417,7 +4454,7 @@
         <v>49</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="1" t="s">
@@ -4427,23 +4464,23 @@
         <v>7</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="1">
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K90" s="2">
         <v>0</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4484,10 +4521,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -4496,25 +4533,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -4522,10 +4559,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -4537,7 +4574,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="1">
@@ -4547,10 +4584,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4558,10 +4595,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -4573,7 +4610,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="1">
@@ -4583,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4594,10 +4631,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -4609,7 +4646,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="1">
@@ -4619,10 +4656,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4630,10 +4667,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -4645,7 +4682,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1">
@@ -4655,10 +4692,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -4666,10 +4703,10 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -4681,7 +4718,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="1">
@@ -4691,10 +4728,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>137</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -4702,10 +4739,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -4717,7 +4754,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="1">
@@ -4727,10 +4764,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>137</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4738,10 +4775,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -4753,7 +4790,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="1">
@@ -4763,10 +4800,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>137</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4774,10 +4811,10 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -4789,7 +4826,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="1">
@@ -4799,10 +4836,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4810,10 +4847,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -4825,7 +4862,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="1">
@@ -4835,10 +4872,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4846,10 +4883,10 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -4861,7 +4898,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="1">
@@ -4871,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -4882,10 +4919,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -4897,7 +4934,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="1">
@@ -4907,10 +4944,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -4918,10 +4955,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -4933,7 +4970,7 @@
         <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="1">
@@ -4943,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4954,10 +4991,10 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -4969,7 +5006,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="1">
@@ -4979,10 +5016,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4990,10 +5027,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -5005,7 +5042,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="1">
@@ -5015,10 +5052,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5026,10 +5063,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -5041,7 +5078,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="1">
@@ -5051,10 +5088,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5065,7 +5102,7 @@
         <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -5077,7 +5114,7 @@
         <v>23</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="1">
@@ -5087,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5101,7 +5138,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -5113,7 +5150,7 @@
         <v>23</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="1">
@@ -5123,10 +5160,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5134,10 +5171,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -5149,7 +5186,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="1">
@@ -5159,10 +5196,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5170,10 +5207,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -5185,7 +5222,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="1">
@@ -5195,10 +5232,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5206,10 +5243,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -5221,7 +5258,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="1">
@@ -5231,10 +5268,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5242,10 +5279,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -5257,7 +5294,7 @@
         <v>23</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="1">
@@ -5267,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
@@ -5278,10 +5315,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -5293,7 +5330,7 @@
         <v>23</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="1">
@@ -5303,10 +5340,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>128</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5314,10 +5351,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -5329,7 +5366,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="1">
@@ -5339,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>128</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5350,10 +5387,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -5365,7 +5402,7 @@
         <v>23</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="1">
@@ -5375,10 +5412,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>128</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5386,10 +5423,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -5401,7 +5438,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="1">
@@ -5411,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>128</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5422,10 +5459,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -5437,7 +5474,7 @@
         <v>23</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="1">
@@ -5447,10 +5484,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>128</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5458,10 +5495,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -5473,7 +5510,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="1">
@@ -5483,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5494,10 +5531,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -5509,7 +5546,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="1">
@@ -5519,10 +5556,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5530,10 +5567,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -5545,7 +5582,7 @@
         <v>23</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="1">
@@ -5555,10 +5592,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5566,10 +5603,10 @@
         <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -5581,7 +5618,7 @@
         <v>23</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="1">
@@ -5591,10 +5628,10 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5602,10 +5639,10 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -5617,7 +5654,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="1">
@@ -5627,10 +5664,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5638,10 +5675,10 @@
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -5653,7 +5690,7 @@
         <v>23</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="1">
@@ -5663,10 +5700,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5674,10 +5711,10 @@
         <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -5689,7 +5726,7 @@
         <v>23</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="1">
@@ -5699,10 +5736,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5710,10 +5747,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -5725,7 +5762,7 @@
         <v>23</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="1">
@@ -5735,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5746,10 +5783,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -5761,7 +5798,7 @@
         <v>23</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="1">
@@ -5771,10 +5808,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5782,10 +5819,10 @@
         <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -5797,7 +5834,7 @@
         <v>23</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="1">
@@ -5807,10 +5844,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5821,7 +5858,7 @@
         <v>56</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -5833,7 +5870,7 @@
         <v>23</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="1">
@@ -5843,10 +5880,10 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5857,7 +5894,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -5869,7 +5906,7 @@
         <v>23</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="1">
@@ -5879,10 +5916,10 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5890,10 +5927,10 @@
         <v>21</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
@@ -5905,7 +5942,7 @@
         <v>23</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="1">
@@ -5915,10 +5952,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5926,10 +5963,10 @@
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
@@ -5941,7 +5978,7 @@
         <v>23</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="1">
@@ -5951,10 +5988,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5962,10 +5999,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
@@ -5977,7 +6014,7 @@
         <v>23</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="1">
@@ -5987,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5998,10 +6035,10 @@
         <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
@@ -6013,7 +6050,7 @@
         <v>23</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="1">
@@ -6023,21 +6060,21 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>58</v>
+      <c r="B44" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -6049,7 +6086,7 @@
         <v>23</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="1">
@@ -6059,21 +6096,21 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>137</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>59</v>
+      <c r="B45" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
@@ -6085,7 +6122,7 @@
         <v>23</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="1">
@@ -6095,21 +6132,21 @@
         <v>0</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>60</v>
+      <c r="B46" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
@@ -6121,7 +6158,7 @@
         <v>23</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="1">
@@ -6131,10 +6168,10 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>137</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
@@ -6142,22 +6179,22 @@
         <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="1">
@@ -6167,10 +6204,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>137</v>
+        <v>117</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6178,10 +6215,10 @@
         <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
@@ -6193,7 +6230,7 @@
         <v>23</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="1">
@@ -6203,10 +6240,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6214,10 +6251,10 @@
         <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -6229,7 +6266,7 @@
         <v>23</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="1">
@@ -6239,10 +6276,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
@@ -6253,7 +6290,7 @@
         <v>25</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -6265,7 +6302,7 @@
         <v>23</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="1">
@@ -6275,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6289,7 +6326,7 @@
         <v>26</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -6301,7 +6338,7 @@
         <v>23</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="1">
@@ -6311,10 +6348,10 @@
         <v>0</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6325,7 +6362,7 @@
         <v>27</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
@@ -6337,7 +6374,7 @@
         <v>23</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="1">
@@ -6347,10 +6384,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6361,7 +6398,7 @@
         <v>28</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
@@ -6373,7 +6410,7 @@
         <v>23</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="1">
@@ -6383,10 +6420,10 @@
         <v>0</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6394,10 +6431,10 @@
         <v>21</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -6409,7 +6446,7 @@
         <v>23</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="1">
@@ -6419,10 +6456,10 @@
         <v>0</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6430,10 +6467,10 @@
         <v>21</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
@@ -6445,7 +6482,7 @@
         <v>23</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="1">
@@ -6455,10 +6492,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>128</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6466,10 +6503,10 @@
         <v>21</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
@@ -6481,7 +6518,7 @@
         <v>23</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="1">
@@ -6491,10 +6528,10 @@
         <v>0</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>128</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
@@ -6505,7 +6542,7 @@
         <v>25</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
@@ -6517,7 +6554,7 @@
         <v>23</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="1">
@@ -6527,10 +6564,10 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6541,7 +6578,7 @@
         <v>26</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D58" s="4">
         <v>0</v>
@@ -6553,7 +6590,7 @@
         <v>23</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="1">
@@ -6563,10 +6600,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6577,7 +6614,7 @@
         <v>27</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
@@ -6589,7 +6626,7 @@
         <v>23</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="1">
@@ -6599,10 +6636,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6613,7 +6650,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D60" s="4">
         <v>0</v>
@@ -6625,7 +6662,7 @@
         <v>23</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="1">
@@ -6635,10 +6672,10 @@
         <v>0</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6646,10 +6683,10 @@
         <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D61" s="4">
         <v>0</v>
@@ -6661,7 +6698,7 @@
         <v>23</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="1">
@@ -6671,10 +6708,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
@@ -6682,10 +6719,10 @@
         <v>21</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D62" s="4">
         <v>0</v>
@@ -6697,7 +6734,7 @@
         <v>23</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="1">
@@ -6707,10 +6744,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6718,10 +6755,10 @@
         <v>24</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D63" s="4">
         <v>0</v>
@@ -6733,7 +6770,7 @@
         <v>23</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="1">
@@ -6743,10 +6780,10 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6754,10 +6791,10 @@
         <v>24</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D64" s="4">
         <v>0</v>
@@ -6769,7 +6806,7 @@
         <v>23</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="1">
@@ -6779,10 +6816,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
@@ -6793,7 +6830,7 @@
         <v>25</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D65" s="4">
         <v>0</v>
@@ -6805,7 +6842,7 @@
         <v>23</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="1">
@@ -6815,10 +6852,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6829,7 +6866,7 @@
         <v>26</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D66" s="4">
         <v>0</v>
@@ -6841,7 +6878,7 @@
         <v>23</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="1">
@@ -6851,10 +6888,10 @@
         <v>0</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6865,7 +6902,7 @@
         <v>27</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D67" s="4">
         <v>0</v>
@@ -6877,7 +6914,7 @@
         <v>23</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="1">
@@ -6887,10 +6924,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6901,7 +6938,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D68" s="4">
         <v>0</v>
@@ -6913,7 +6950,7 @@
         <v>23</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="1">
@@ -6923,10 +6960,10 @@
         <v>0</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6934,10 +6971,10 @@
         <v>24</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
@@ -6949,7 +6986,7 @@
         <v>23</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="1">
@@ -6959,10 +6996,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
@@ -6970,10 +7007,10 @@
         <v>24</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D70" s="4">
         <v>0</v>
@@ -6985,7 +7022,7 @@
         <v>23</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="1">
@@ -6995,345 +7032,345 @@
         <v>0</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="1">
         <v>1</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K71" s="1">
         <v>0</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C72" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="1">
         <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K72" s="1">
         <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="1">
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K73" s="1">
         <v>0</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="1">
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K74" s="1">
         <v>0</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D75" s="4">
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="1">
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K75" s="1">
         <v>0</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M75" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C76" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D76" s="4">
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="1">
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K76" s="1">
         <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D77" s="4">
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="1">
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K77" s="1">
         <v>0</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D78" s="4">
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="1">
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K78" s="1">
         <v>0</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D79" s="4">
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="1">
@@ -7343,33 +7380,33 @@
         <v>1</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C80" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D80" s="4">
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="1">
@@ -7379,28 +7416,28 @@
         <v>1</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="1">
@@ -7410,28 +7447,28 @@
         <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="1">
@@ -7441,33 +7478,33 @@
         <v>0</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="1">
@@ -7477,33 +7514,33 @@
         <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C84" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H84" s="4">
         <v>0</v>
@@ -7512,39 +7549,39 @@
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K84" s="1">
         <v>0</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="1">
@@ -7554,72 +7591,72 @@
         <v>0</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="1">
         <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K86" s="1">
         <v>0</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="1">
@@ -7629,72 +7666,72 @@
         <v>0</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="1">
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K88" s="1">
         <v>0</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="1">
@@ -7704,70 +7741,70 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M89" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F90" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="1">
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K90" s="1">
         <v>0</v>
       </c>
       <c r="L90" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M90" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="1">
@@ -7777,31 +7814,31 @@
         <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H92" s="4">
         <v>0</v>
@@ -7810,39 +7847,39 @@
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K92" s="1">
         <v>0</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="1">
@@ -7852,72 +7889,72 @@
         <v>0</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="1">
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K94" s="1">
         <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="1">
@@ -7927,49 +7964,49 @@
         <v>0</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="1">
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K96" s="1">
         <v>0</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -7977,22 +8014,22 @@
         <v>29</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D97" s="3">
         <v>0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="1">
@@ -8003,10 +8040,10 @@
         <v>0</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.15">
